--- a/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
@@ -11,54 +11,42 @@
     <sheet name="RateHelpers" sheetId="4" r:id="rId2"/>
     <sheet name="Selected" sheetId="5" r:id="rId3"/>
     <sheet name="Discount" sheetId="7" r:id="rId4"/>
-    <sheet name="General Settings (2)" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
-    <definedName name="BondBasisDayCounter">'General Settings (2)'!$D$16</definedName>
-    <definedName name="Calendar" localSheetId="3">'General Settings (2)'!$D$18</definedName>
-    <definedName name="Calendar" localSheetId="4">'General Settings (2)'!$D$18</definedName>
+    <definedName name="BondBasisDayCounter">'General Settings'!$M$12</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
-    <definedName name="Currency" localSheetId="3">'General Settings (2)'!$D$14</definedName>
-    <definedName name="Currency" localSheetId="4">'General Settings (2)'!$D$14</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
-    <definedName name="Discounting">'General Settings (2)'!$D$20</definedName>
-    <definedName name="Discounting2">'General Settings (2)'!$D$21</definedName>
+    <definedName name="Discounting">'General Settings'!$M$15</definedName>
+    <definedName name="Discounting2">'General Settings'!$M$16</definedName>
     <definedName name="DiscountingCurve" localSheetId="3">Discount!$L$2</definedName>
-    <definedName name="FamilyName">'General Settings (2)'!$D$15</definedName>
-    <definedName name="FileOverwrite">'General Settings (2)'!$D$9</definedName>
+    <definedName name="FamilyName">'General Settings'!$M$11</definedName>
+    <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
-    <definedName name="GENERAL_SETTINGS">'General Settings (2)'!$B$12</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
     <definedName name="MinDistance">RateHelpers!$J$2:$J$122</definedName>
-    <definedName name="MoneyMarketDayCounter">'General Settings (2)'!$D$17</definedName>
+    <definedName name="MoneyMarketDayCounter">'General Settings'!$M$13</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="3">'General Settings (2)'!$D$6</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="4">'General Settings (2)'!$D$6</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
-    <definedName name="Permanent" localSheetId="3">'General Settings (2)'!$D$5</definedName>
-    <definedName name="Permanent" localSheetId="4">'General Settings (2)'!$D$5</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Selected!$D$1:$J$50</definedName>
-    <definedName name="QuoteSuffix">'General Settings (2)'!$D$19</definedName>
+    <definedName name="QuoteSuffix">'General Settings'!$M$14</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$122</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$122</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$122</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
-    <definedName name="SerializationPath">'General Settings (2)'!$D$8</definedName>
-    <definedName name="Serialize">'General Settings (2)'!$D$7</definedName>
+    <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
+    <definedName name="Serialize">'General Settings'!$M$4</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
     <definedName name="TraitsID">'General Settings'!$D$24</definedName>
-    <definedName name="Trigger" localSheetId="3">'General Settings (2)'!$D$4</definedName>
-    <definedName name="Trigger" localSheetId="4">'General Settings (2)'!$D$4</definedName>
     <definedName name="Trigger">'General Settings'!$D$11</definedName>
     <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
   </definedNames>
@@ -227,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="176">
   <si>
     <t>60Y</t>
   </si>
@@ -739,9 +727,6 @@
     <t>FamilyName</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ADDITIONAL SETTINGS</t>
   </si>
   <si>
@@ -755,6 +740,9 @@
   </si>
   <si>
     <t>GENERAL SETTINGS</t>
+  </si>
+  <si>
+    <t>GBP_YCRH_Swaps</t>
   </si>
 </sst>
 </file>
@@ -776,7 +764,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,12 +873,6 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -931,12 +913,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -945,6 +921,12 @@
       <patternFill patternType="gray0625">
         <fgColor indexed="22"/>
         <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1408,13 +1390,13 @@
     <xf numFmtId="38" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="16" fillId="9" borderId="0">
+    <xf numFmtId="175" fontId="16" fillId="8" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1544,8 +1526,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="8" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1634,12 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1705,10 +1679,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1718,16 +1688,13 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="18" fillId="4" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="18" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1736,14 +1703,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,13 +1718,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2079,28 +2050,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="18" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="53"/>
+    <col min="1" max="2" width="2.7109375" style="146" customWidth="1"/>
+    <col min="3" max="3" width="18" style="146" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="146" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="146" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="146" customWidth="1"/>
+    <col min="8" max="9" width="8" style="146"/>
+    <col min="10" max="11" width="2.7109375" style="146" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="146" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="146" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54" t="str">
+    <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="146" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="154" t="s">
         <v>119</v>
       </c>
@@ -2108,2446 +2083,451 @@
       <c r="D2" s="155"/>
       <c r="E2" s="155"/>
       <c r="F2" s="156"/>
-    </row>
-    <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="97" t="s">
+      <c r="K2" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="157"/>
+    </row>
+    <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="61"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="138"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="61"/>
+      <c r="C4" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="96" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="H4" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="90" t="s">
+      <c r="I4" s="150"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="126" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="134"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="61"/>
+      <c r="C5" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="94" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
+      <c r="H5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="90" t="s">
+      <c r="K5" s="136"/>
+      <c r="L5" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="137" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="N5" s="134"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="61"/>
+      <c r="C6" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="94" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="H6" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="90" t="s">
+      <c r="I6" s="148"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="129" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="134"/>
+    </row>
+    <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61"/>
+      <c r="C7" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="94" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="H7" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-    </row>
-    <row r="8" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="90" t="s">
+      <c r="I7" s="148"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="131"/>
+    </row>
+    <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="61"/>
+      <c r="C8" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="92" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="H8" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="90" t="s">
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+    </row>
+    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="61"/>
+      <c r="C9" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="64" t="str">
+      <c r="D9" s="62" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>GBP_YCRH</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="89" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="K9" s="154" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="157"/>
+    </row>
+    <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="61"/>
+      <c r="C10" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="89" t="s">
+      <c r="D10" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="125"/>
+    </row>
+    <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="61"/>
+      <c r="C11" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="88">
-        <v>41653.026956018519</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="87" t="s">
+      <c r="D11" s="86">
+        <v>41653.029131944444</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" s="125"/>
+    </row>
+    <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="61"/>
+      <c r="C12" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="83" t="s">
+      <c r="D12" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="125"/>
+    </row>
+    <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="61"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="125"/>
+    </row>
+    <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="61"/>
+      <c r="C14" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="85" t="str">
+      <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC#0000</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="70" t="s">
+        <v>_GBPYC#0006</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="125"/>
+    </row>
+    <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="61"/>
+      <c r="C15" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="84" t="str">
+      <c r="D15" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="83" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" s="126" t="str">
+        <f>PROPER(Currency)&amp;"YC"</f>
+        <v>GbpYC</v>
+      </c>
+      <c r="N15" s="125"/>
+    </row>
+    <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="61"/>
+      <c r="C16" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="82" t="str">
+      <c r="D16" s="80" t="str">
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_GBPYC</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="72" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="126" t="str">
+        <f>PROPER(Currency)&amp;"YCSTD"</f>
+        <v>GbpYCSTD</v>
+      </c>
+      <c r="N16" s="125"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="61"/>
+      <c r="C17" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="81">
-        <v>0</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="72" t="s">
+      <c r="D17" s="79">
+        <v>0</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="57"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="122"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="61"/>
+      <c r="C18" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="72" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="61"/>
+      <c r="C19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="72" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="61"/>
+      <c r="C20" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="79" t="str">
+      <c r="D20" s="77" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>GBPTOY_SYNTH_Quote</v>
       </c>
-      <c r="E20" s="78" t="str">
+      <c r="E20" s="76" t="str">
         <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>GBPTOY2_SYNTH_Quote</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="72" t="s">
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="61"/>
+      <c r="C21" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="75">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
         <v>42004</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="74">
         <f>DATE(YEAR(D21+1),12,31)</f>
         <v>42369</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="72" t="s">
+      <c r="F21" s="57"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="61"/>
+      <c r="C22" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="75" t="e">
+      <c r="D22" s="73" t="e">
         <f>_xll.qlQuoteValue(D20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E22" s="74" t="e">
+      <c r="E22" s="72" t="e">
         <f>_xll.qlQuoteValue(E20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="72" t="s">
+      <c r="F22" s="57"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="61"/>
+      <c r="C23" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="73" t="e">
+      <c r="D23" s="71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="72" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="61"/>
+      <c r="C24" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AG24" s="54"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="70" t="s">
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="61"/>
+      <c r="C25" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="67">
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="61"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="61"/>
+      <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
         <v>41653</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="64">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="65">
+      <c r="E27" s="58"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="61"/>
+      <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
         <v>52610</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="62">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
         <v>0.37951259093616285</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="62" t="s">
+      <c r="E28" s="58"/>
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="61"/>
+      <c r="C29" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="61" t="str">
+      <c r="D29" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-    </row>
-    <row r="30" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="54"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="54"/>
-      <c r="AG48" s="54"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
-      <c r="AF49" s="54"/>
-      <c r="AG49" s="54"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="54"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
-      <c r="AG51" s="54"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
-      <c r="AG52" s="54"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="54"/>
-      <c r="AG54" s="54"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="54"/>
-      <c r="AF62" s="54"/>
-      <c r="AG62" s="54"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="54"/>
-      <c r="AF63" s="54"/>
-      <c r="AG63" s="54"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="54"/>
-      <c r="AF66" s="54"/>
-      <c r="AG66" s="54"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="54"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="54"/>
-      <c r="AD67" s="54"/>
-      <c r="AE67" s="54"/>
-      <c r="AF67" s="54"/>
-      <c r="AG67" s="54"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
-      <c r="AD68" s="54"/>
-      <c r="AE68" s="54"/>
-      <c r="AF68" s="54"/>
-      <c r="AG68" s="54"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 IZ25 SV25 ACR25 AMN25 AWJ25 BGF25 BQB25 BZX25 CJT25 CTP25 DDL25 DNH25 DXD25 EGZ25 EQV25 FAR25 FKN25 FUJ25 GEF25 GOB25 GXX25 HHT25 HRP25 IBL25 ILH25 IVD25 JEZ25 JOV25 JYR25 KIN25 KSJ25 LCF25 LMB25 LVX25 MFT25 MPP25 MZL25 NJH25 NTD25 OCZ25 OMV25 OWR25 PGN25 PQJ25 QAF25 QKB25 QTX25 RDT25 RNP25 RXL25 SHH25 SRD25 TAZ25 TKV25 TUR25 UEN25 UOJ25 UYF25 VIB25 VRX25 WBT25 WLP25 WVL25 D65561 IZ65561 SV65561 ACR65561 AMN65561 AWJ65561 BGF65561 BQB65561 BZX65561 CJT65561 CTP65561 DDL65561 DNH65561 DXD65561 EGZ65561 EQV65561 FAR65561 FKN65561 FUJ65561 GEF65561 GOB65561 GXX65561 HHT65561 HRP65561 IBL65561 ILH65561 IVD65561 JEZ65561 JOV65561 JYR65561 KIN65561 KSJ65561 LCF65561 LMB65561 LVX65561 MFT65561 MPP65561 MZL65561 NJH65561 NTD65561 OCZ65561 OMV65561 OWR65561 PGN65561 PQJ65561 QAF65561 QKB65561 QTX65561 RDT65561 RNP65561 RXL65561 SHH65561 SRD65561 TAZ65561 TKV65561 TUR65561 UEN65561 UOJ65561 UYF65561 VIB65561 VRX65561 WBT65561 WLP65561 WVL65561 D131097 IZ131097 SV131097 ACR131097 AMN131097 AWJ131097 BGF131097 BQB131097 BZX131097 CJT131097 CTP131097 DDL131097 DNH131097 DXD131097 EGZ131097 EQV131097 FAR131097 FKN131097 FUJ131097 GEF131097 GOB131097 GXX131097 HHT131097 HRP131097 IBL131097 ILH131097 IVD131097 JEZ131097 JOV131097 JYR131097 KIN131097 KSJ131097 LCF131097 LMB131097 LVX131097 MFT131097 MPP131097 MZL131097 NJH131097 NTD131097 OCZ131097 OMV131097 OWR131097 PGN131097 PQJ131097 QAF131097 QKB131097 QTX131097 RDT131097 RNP131097 RXL131097 SHH131097 SRD131097 TAZ131097 TKV131097 TUR131097 UEN131097 UOJ131097 UYF131097 VIB131097 VRX131097 WBT131097 WLP131097 WVL131097 D196633 IZ196633 SV196633 ACR196633 AMN196633 AWJ196633 BGF196633 BQB196633 BZX196633 CJT196633 CTP196633 DDL196633 DNH196633 DXD196633 EGZ196633 EQV196633 FAR196633 FKN196633 FUJ196633 GEF196633 GOB196633 GXX196633 HHT196633 HRP196633 IBL196633 ILH196633 IVD196633 JEZ196633 JOV196633 JYR196633 KIN196633 KSJ196633 LCF196633 LMB196633 LVX196633 MFT196633 MPP196633 MZL196633 NJH196633 NTD196633 OCZ196633 OMV196633 OWR196633 PGN196633 PQJ196633 QAF196633 QKB196633 QTX196633 RDT196633 RNP196633 RXL196633 SHH196633 SRD196633 TAZ196633 TKV196633 TUR196633 UEN196633 UOJ196633 UYF196633 VIB196633 VRX196633 WBT196633 WLP196633 WVL196633 D262169 IZ262169 SV262169 ACR262169 AMN262169 AWJ262169 BGF262169 BQB262169 BZX262169 CJT262169 CTP262169 DDL262169 DNH262169 DXD262169 EGZ262169 EQV262169 FAR262169 FKN262169 FUJ262169 GEF262169 GOB262169 GXX262169 HHT262169 HRP262169 IBL262169 ILH262169 IVD262169 JEZ262169 JOV262169 JYR262169 KIN262169 KSJ262169 LCF262169 LMB262169 LVX262169 MFT262169 MPP262169 MZL262169 NJH262169 NTD262169 OCZ262169 OMV262169 OWR262169 PGN262169 PQJ262169 QAF262169 QKB262169 QTX262169 RDT262169 RNP262169 RXL262169 SHH262169 SRD262169 TAZ262169 TKV262169 TUR262169 UEN262169 UOJ262169 UYF262169 VIB262169 VRX262169 WBT262169 WLP262169 WVL262169 D327705 IZ327705 SV327705 ACR327705 AMN327705 AWJ327705 BGF327705 BQB327705 BZX327705 CJT327705 CTP327705 DDL327705 DNH327705 DXD327705 EGZ327705 EQV327705 FAR327705 FKN327705 FUJ327705 GEF327705 GOB327705 GXX327705 HHT327705 HRP327705 IBL327705 ILH327705 IVD327705 JEZ327705 JOV327705 JYR327705 KIN327705 KSJ327705 LCF327705 LMB327705 LVX327705 MFT327705 MPP327705 MZL327705 NJH327705 NTD327705 OCZ327705 OMV327705 OWR327705 PGN327705 PQJ327705 QAF327705 QKB327705 QTX327705 RDT327705 RNP327705 RXL327705 SHH327705 SRD327705 TAZ327705 TKV327705 TUR327705 UEN327705 UOJ327705 UYF327705 VIB327705 VRX327705 WBT327705 WLP327705 WVL327705 D393241 IZ393241 SV393241 ACR393241 AMN393241 AWJ393241 BGF393241 BQB393241 BZX393241 CJT393241 CTP393241 DDL393241 DNH393241 DXD393241 EGZ393241 EQV393241 FAR393241 FKN393241 FUJ393241 GEF393241 GOB393241 GXX393241 HHT393241 HRP393241 IBL393241 ILH393241 IVD393241 JEZ393241 JOV393241 JYR393241 KIN393241 KSJ393241 LCF393241 LMB393241 LVX393241 MFT393241 MPP393241 MZL393241 NJH393241 NTD393241 OCZ393241 OMV393241 OWR393241 PGN393241 PQJ393241 QAF393241 QKB393241 QTX393241 RDT393241 RNP393241 RXL393241 SHH393241 SRD393241 TAZ393241 TKV393241 TUR393241 UEN393241 UOJ393241 UYF393241 VIB393241 VRX393241 WBT393241 WLP393241 WVL393241 D458777 IZ458777 SV458777 ACR458777 AMN458777 AWJ458777 BGF458777 BQB458777 BZX458777 CJT458777 CTP458777 DDL458777 DNH458777 DXD458777 EGZ458777 EQV458777 FAR458777 FKN458777 FUJ458777 GEF458777 GOB458777 GXX458777 HHT458777 HRP458777 IBL458777 ILH458777 IVD458777 JEZ458777 JOV458777 JYR458777 KIN458777 KSJ458777 LCF458777 LMB458777 LVX458777 MFT458777 MPP458777 MZL458777 NJH458777 NTD458777 OCZ458777 OMV458777 OWR458777 PGN458777 PQJ458777 QAF458777 QKB458777 QTX458777 RDT458777 RNP458777 RXL458777 SHH458777 SRD458777 TAZ458777 TKV458777 TUR458777 UEN458777 UOJ458777 UYF458777 VIB458777 VRX458777 WBT458777 WLP458777 WVL458777 D524313 IZ524313 SV524313 ACR524313 AMN524313 AWJ524313 BGF524313 BQB524313 BZX524313 CJT524313 CTP524313 DDL524313 DNH524313 DXD524313 EGZ524313 EQV524313 FAR524313 FKN524313 FUJ524313 GEF524313 GOB524313 GXX524313 HHT524313 HRP524313 IBL524313 ILH524313 IVD524313 JEZ524313 JOV524313 JYR524313 KIN524313 KSJ524313 LCF524313 LMB524313 LVX524313 MFT524313 MPP524313 MZL524313 NJH524313 NTD524313 OCZ524313 OMV524313 OWR524313 PGN524313 PQJ524313 QAF524313 QKB524313 QTX524313 RDT524313 RNP524313 RXL524313 SHH524313 SRD524313 TAZ524313 TKV524313 TUR524313 UEN524313 UOJ524313 UYF524313 VIB524313 VRX524313 WBT524313 WLP524313 WVL524313 D589849 IZ589849 SV589849 ACR589849 AMN589849 AWJ589849 BGF589849 BQB589849 BZX589849 CJT589849 CTP589849 DDL589849 DNH589849 DXD589849 EGZ589849 EQV589849 FAR589849 FKN589849 FUJ589849 GEF589849 GOB589849 GXX589849 HHT589849 HRP589849 IBL589849 ILH589849 IVD589849 JEZ589849 JOV589849 JYR589849 KIN589849 KSJ589849 LCF589849 LMB589849 LVX589849 MFT589849 MPP589849 MZL589849 NJH589849 NTD589849 OCZ589849 OMV589849 OWR589849 PGN589849 PQJ589849 QAF589849 QKB589849 QTX589849 RDT589849 RNP589849 RXL589849 SHH589849 SRD589849 TAZ589849 TKV589849 TUR589849 UEN589849 UOJ589849 UYF589849 VIB589849 VRX589849 WBT589849 WLP589849 WVL589849 D655385 IZ655385 SV655385 ACR655385 AMN655385 AWJ655385 BGF655385 BQB655385 BZX655385 CJT655385 CTP655385 DDL655385 DNH655385 DXD655385 EGZ655385 EQV655385 FAR655385 FKN655385 FUJ655385 GEF655385 GOB655385 GXX655385 HHT655385 HRP655385 IBL655385 ILH655385 IVD655385 JEZ655385 JOV655385 JYR655385 KIN655385 KSJ655385 LCF655385 LMB655385 LVX655385 MFT655385 MPP655385 MZL655385 NJH655385 NTD655385 OCZ655385 OMV655385 OWR655385 PGN655385 PQJ655385 QAF655385 QKB655385 QTX655385 RDT655385 RNP655385 RXL655385 SHH655385 SRD655385 TAZ655385 TKV655385 TUR655385 UEN655385 UOJ655385 UYF655385 VIB655385 VRX655385 WBT655385 WLP655385 WVL655385 D720921 IZ720921 SV720921 ACR720921 AMN720921 AWJ720921 BGF720921 BQB720921 BZX720921 CJT720921 CTP720921 DDL720921 DNH720921 DXD720921 EGZ720921 EQV720921 FAR720921 FKN720921 FUJ720921 GEF720921 GOB720921 GXX720921 HHT720921 HRP720921 IBL720921 ILH720921 IVD720921 JEZ720921 JOV720921 JYR720921 KIN720921 KSJ720921 LCF720921 LMB720921 LVX720921 MFT720921 MPP720921 MZL720921 NJH720921 NTD720921 OCZ720921 OMV720921 OWR720921 PGN720921 PQJ720921 QAF720921 QKB720921 QTX720921 RDT720921 RNP720921 RXL720921 SHH720921 SRD720921 TAZ720921 TKV720921 TUR720921 UEN720921 UOJ720921 UYF720921 VIB720921 VRX720921 WBT720921 WLP720921 WVL720921 D786457 IZ786457 SV786457 ACR786457 AMN786457 AWJ786457 BGF786457 BQB786457 BZX786457 CJT786457 CTP786457 DDL786457 DNH786457 DXD786457 EGZ786457 EQV786457 FAR786457 FKN786457 FUJ786457 GEF786457 GOB786457 GXX786457 HHT786457 HRP786457 IBL786457 ILH786457 IVD786457 JEZ786457 JOV786457 JYR786457 KIN786457 KSJ786457 LCF786457 LMB786457 LVX786457 MFT786457 MPP786457 MZL786457 NJH786457 NTD786457 OCZ786457 OMV786457 OWR786457 PGN786457 PQJ786457 QAF786457 QKB786457 QTX786457 RDT786457 RNP786457 RXL786457 SHH786457 SRD786457 TAZ786457 TKV786457 TUR786457 UEN786457 UOJ786457 UYF786457 VIB786457 VRX786457 WBT786457 WLP786457 WVL786457 D851993 IZ851993 SV851993 ACR851993 AMN851993 AWJ851993 BGF851993 BQB851993 BZX851993 CJT851993 CTP851993 DDL851993 DNH851993 DXD851993 EGZ851993 EQV851993 FAR851993 FKN851993 FUJ851993 GEF851993 GOB851993 GXX851993 HHT851993 HRP851993 IBL851993 ILH851993 IVD851993 JEZ851993 JOV851993 JYR851993 KIN851993 KSJ851993 LCF851993 LMB851993 LVX851993 MFT851993 MPP851993 MZL851993 NJH851993 NTD851993 OCZ851993 OMV851993 OWR851993 PGN851993 PQJ851993 QAF851993 QKB851993 QTX851993 RDT851993 RNP851993 RXL851993 SHH851993 SRD851993 TAZ851993 TKV851993 TUR851993 UEN851993 UOJ851993 UYF851993 VIB851993 VRX851993 WBT851993 WLP851993 WVL851993 D917529 IZ917529 SV917529 ACR917529 AMN917529 AWJ917529 BGF917529 BQB917529 BZX917529 CJT917529 CTP917529 DDL917529 DNH917529 DXD917529 EGZ917529 EQV917529 FAR917529 FKN917529 FUJ917529 GEF917529 GOB917529 GXX917529 HHT917529 HRP917529 IBL917529 ILH917529 IVD917529 JEZ917529 JOV917529 JYR917529 KIN917529 KSJ917529 LCF917529 LMB917529 LVX917529 MFT917529 MPP917529 MZL917529 NJH917529 NTD917529 OCZ917529 OMV917529 OWR917529 PGN917529 PQJ917529 QAF917529 QKB917529 QTX917529 RDT917529 RNP917529 RXL917529 SHH917529 SRD917529 TAZ917529 TKV917529 TUR917529 UEN917529 UOJ917529 UYF917529 VIB917529 VRX917529 WBT917529 WLP917529 WVL917529 D983065 IZ983065 SV983065 ACR983065 AMN983065 AWJ983065 BGF983065 BQB983065 BZX983065 CJT983065 CTP983065 DDL983065 DNH983065 DXD983065 EGZ983065 EQV983065 FAR983065 FKN983065 FUJ983065 GEF983065 GOB983065 GXX983065 HHT983065 HRP983065 IBL983065 ILH983065 IVD983065 JEZ983065 JOV983065 JYR983065 KIN983065 KSJ983065 LCF983065 LMB983065 LVX983065 MFT983065 MPP983065 MZL983065 NJH983065 NTD983065 OCZ983065 OMV983065 OWR983065 PGN983065 PQJ983065 QAF983065 QKB983065 QTX983065 RDT983065 RNP983065 RXL983065 SHH983065 SRD983065 TAZ983065 TKV983065 TUR983065 UEN983065 UOJ983065 UYF983065 VIB983065 VRX983065 WBT983065 WLP983065 WVL983065">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
@@ -4562,6 +2542,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 IZ18 SV18 ACR18 AMN18 AWJ18 BGF18 BQB18 BZX18 CJT18 CTP18 DDL18 DNH18 DXD18 EGZ18 EQV18 FAR18 FKN18 FUJ18 GEF18 GOB18 GXX18 HHT18 HRP18 IBL18 ILH18 IVD18 JEZ18 JOV18 JYR18 KIN18 KSJ18 LCF18 LMB18 LVX18 MFT18 MPP18 MZL18 NJH18 NTD18 OCZ18 OMV18 OWR18 PGN18 PQJ18 QAF18 QKB18 QTX18 RDT18 RNP18 RXL18 SHH18 SRD18 TAZ18 TKV18 TUR18 UEN18 UOJ18 UYF18 VIB18 VRX18 WBT18 WLP18 WVL18 D65554 IZ65554 SV65554 ACR65554 AMN65554 AWJ65554 BGF65554 BQB65554 BZX65554 CJT65554 CTP65554 DDL65554 DNH65554 DXD65554 EGZ65554 EQV65554 FAR65554 FKN65554 FUJ65554 GEF65554 GOB65554 GXX65554 HHT65554 HRP65554 IBL65554 ILH65554 IVD65554 JEZ65554 JOV65554 JYR65554 KIN65554 KSJ65554 LCF65554 LMB65554 LVX65554 MFT65554 MPP65554 MZL65554 NJH65554 NTD65554 OCZ65554 OMV65554 OWR65554 PGN65554 PQJ65554 QAF65554 QKB65554 QTX65554 RDT65554 RNP65554 RXL65554 SHH65554 SRD65554 TAZ65554 TKV65554 TUR65554 UEN65554 UOJ65554 UYF65554 VIB65554 VRX65554 WBT65554 WLP65554 WVL65554 D131090 IZ131090 SV131090 ACR131090 AMN131090 AWJ131090 BGF131090 BQB131090 BZX131090 CJT131090 CTP131090 DDL131090 DNH131090 DXD131090 EGZ131090 EQV131090 FAR131090 FKN131090 FUJ131090 GEF131090 GOB131090 GXX131090 HHT131090 HRP131090 IBL131090 ILH131090 IVD131090 JEZ131090 JOV131090 JYR131090 KIN131090 KSJ131090 LCF131090 LMB131090 LVX131090 MFT131090 MPP131090 MZL131090 NJH131090 NTD131090 OCZ131090 OMV131090 OWR131090 PGN131090 PQJ131090 QAF131090 QKB131090 QTX131090 RDT131090 RNP131090 RXL131090 SHH131090 SRD131090 TAZ131090 TKV131090 TUR131090 UEN131090 UOJ131090 UYF131090 VIB131090 VRX131090 WBT131090 WLP131090 WVL131090 D196626 IZ196626 SV196626 ACR196626 AMN196626 AWJ196626 BGF196626 BQB196626 BZX196626 CJT196626 CTP196626 DDL196626 DNH196626 DXD196626 EGZ196626 EQV196626 FAR196626 FKN196626 FUJ196626 GEF196626 GOB196626 GXX196626 HHT196626 HRP196626 IBL196626 ILH196626 IVD196626 JEZ196626 JOV196626 JYR196626 KIN196626 KSJ196626 LCF196626 LMB196626 LVX196626 MFT196626 MPP196626 MZL196626 NJH196626 NTD196626 OCZ196626 OMV196626 OWR196626 PGN196626 PQJ196626 QAF196626 QKB196626 QTX196626 RDT196626 RNP196626 RXL196626 SHH196626 SRD196626 TAZ196626 TKV196626 TUR196626 UEN196626 UOJ196626 UYF196626 VIB196626 VRX196626 WBT196626 WLP196626 WVL196626 D262162 IZ262162 SV262162 ACR262162 AMN262162 AWJ262162 BGF262162 BQB262162 BZX262162 CJT262162 CTP262162 DDL262162 DNH262162 DXD262162 EGZ262162 EQV262162 FAR262162 FKN262162 FUJ262162 GEF262162 GOB262162 GXX262162 HHT262162 HRP262162 IBL262162 ILH262162 IVD262162 JEZ262162 JOV262162 JYR262162 KIN262162 KSJ262162 LCF262162 LMB262162 LVX262162 MFT262162 MPP262162 MZL262162 NJH262162 NTD262162 OCZ262162 OMV262162 OWR262162 PGN262162 PQJ262162 QAF262162 QKB262162 QTX262162 RDT262162 RNP262162 RXL262162 SHH262162 SRD262162 TAZ262162 TKV262162 TUR262162 UEN262162 UOJ262162 UYF262162 VIB262162 VRX262162 WBT262162 WLP262162 WVL262162 D327698 IZ327698 SV327698 ACR327698 AMN327698 AWJ327698 BGF327698 BQB327698 BZX327698 CJT327698 CTP327698 DDL327698 DNH327698 DXD327698 EGZ327698 EQV327698 FAR327698 FKN327698 FUJ327698 GEF327698 GOB327698 GXX327698 HHT327698 HRP327698 IBL327698 ILH327698 IVD327698 JEZ327698 JOV327698 JYR327698 KIN327698 KSJ327698 LCF327698 LMB327698 LVX327698 MFT327698 MPP327698 MZL327698 NJH327698 NTD327698 OCZ327698 OMV327698 OWR327698 PGN327698 PQJ327698 QAF327698 QKB327698 QTX327698 RDT327698 RNP327698 RXL327698 SHH327698 SRD327698 TAZ327698 TKV327698 TUR327698 UEN327698 UOJ327698 UYF327698 VIB327698 VRX327698 WBT327698 WLP327698 WVL327698 D393234 IZ393234 SV393234 ACR393234 AMN393234 AWJ393234 BGF393234 BQB393234 BZX393234 CJT393234 CTP393234 DDL393234 DNH393234 DXD393234 EGZ393234 EQV393234 FAR393234 FKN393234 FUJ393234 GEF393234 GOB393234 GXX393234 HHT393234 HRP393234 IBL393234 ILH393234 IVD393234 JEZ393234 JOV393234 JYR393234 KIN393234 KSJ393234 LCF393234 LMB393234 LVX393234 MFT393234 MPP393234 MZL393234 NJH393234 NTD393234 OCZ393234 OMV393234 OWR393234 PGN393234 PQJ393234 QAF393234 QKB393234 QTX393234 RDT393234 RNP393234 RXL393234 SHH393234 SRD393234 TAZ393234 TKV393234 TUR393234 UEN393234 UOJ393234 UYF393234 VIB393234 VRX393234 WBT393234 WLP393234 WVL393234 D458770 IZ458770 SV458770 ACR458770 AMN458770 AWJ458770 BGF458770 BQB458770 BZX458770 CJT458770 CTP458770 DDL458770 DNH458770 DXD458770 EGZ458770 EQV458770 FAR458770 FKN458770 FUJ458770 GEF458770 GOB458770 GXX458770 HHT458770 HRP458770 IBL458770 ILH458770 IVD458770 JEZ458770 JOV458770 JYR458770 KIN458770 KSJ458770 LCF458770 LMB458770 LVX458770 MFT458770 MPP458770 MZL458770 NJH458770 NTD458770 OCZ458770 OMV458770 OWR458770 PGN458770 PQJ458770 QAF458770 QKB458770 QTX458770 RDT458770 RNP458770 RXL458770 SHH458770 SRD458770 TAZ458770 TKV458770 TUR458770 UEN458770 UOJ458770 UYF458770 VIB458770 VRX458770 WBT458770 WLP458770 WVL458770 D524306 IZ524306 SV524306 ACR524306 AMN524306 AWJ524306 BGF524306 BQB524306 BZX524306 CJT524306 CTP524306 DDL524306 DNH524306 DXD524306 EGZ524306 EQV524306 FAR524306 FKN524306 FUJ524306 GEF524306 GOB524306 GXX524306 HHT524306 HRP524306 IBL524306 ILH524306 IVD524306 JEZ524306 JOV524306 JYR524306 KIN524306 KSJ524306 LCF524306 LMB524306 LVX524306 MFT524306 MPP524306 MZL524306 NJH524306 NTD524306 OCZ524306 OMV524306 OWR524306 PGN524306 PQJ524306 QAF524306 QKB524306 QTX524306 RDT524306 RNP524306 RXL524306 SHH524306 SRD524306 TAZ524306 TKV524306 TUR524306 UEN524306 UOJ524306 UYF524306 VIB524306 VRX524306 WBT524306 WLP524306 WVL524306 D589842 IZ589842 SV589842 ACR589842 AMN589842 AWJ589842 BGF589842 BQB589842 BZX589842 CJT589842 CTP589842 DDL589842 DNH589842 DXD589842 EGZ589842 EQV589842 FAR589842 FKN589842 FUJ589842 GEF589842 GOB589842 GXX589842 HHT589842 HRP589842 IBL589842 ILH589842 IVD589842 JEZ589842 JOV589842 JYR589842 KIN589842 KSJ589842 LCF589842 LMB589842 LVX589842 MFT589842 MPP589842 MZL589842 NJH589842 NTD589842 OCZ589842 OMV589842 OWR589842 PGN589842 PQJ589842 QAF589842 QKB589842 QTX589842 RDT589842 RNP589842 RXL589842 SHH589842 SRD589842 TAZ589842 TKV589842 TUR589842 UEN589842 UOJ589842 UYF589842 VIB589842 VRX589842 WBT589842 WLP589842 WVL589842 D655378 IZ655378 SV655378 ACR655378 AMN655378 AWJ655378 BGF655378 BQB655378 BZX655378 CJT655378 CTP655378 DDL655378 DNH655378 DXD655378 EGZ655378 EQV655378 FAR655378 FKN655378 FUJ655378 GEF655378 GOB655378 GXX655378 HHT655378 HRP655378 IBL655378 ILH655378 IVD655378 JEZ655378 JOV655378 JYR655378 KIN655378 KSJ655378 LCF655378 LMB655378 LVX655378 MFT655378 MPP655378 MZL655378 NJH655378 NTD655378 OCZ655378 OMV655378 OWR655378 PGN655378 PQJ655378 QAF655378 QKB655378 QTX655378 RDT655378 RNP655378 RXL655378 SHH655378 SRD655378 TAZ655378 TKV655378 TUR655378 UEN655378 UOJ655378 UYF655378 VIB655378 VRX655378 WBT655378 WLP655378 WVL655378 D720914 IZ720914 SV720914 ACR720914 AMN720914 AWJ720914 BGF720914 BQB720914 BZX720914 CJT720914 CTP720914 DDL720914 DNH720914 DXD720914 EGZ720914 EQV720914 FAR720914 FKN720914 FUJ720914 GEF720914 GOB720914 GXX720914 HHT720914 HRP720914 IBL720914 ILH720914 IVD720914 JEZ720914 JOV720914 JYR720914 KIN720914 KSJ720914 LCF720914 LMB720914 LVX720914 MFT720914 MPP720914 MZL720914 NJH720914 NTD720914 OCZ720914 OMV720914 OWR720914 PGN720914 PQJ720914 QAF720914 QKB720914 QTX720914 RDT720914 RNP720914 RXL720914 SHH720914 SRD720914 TAZ720914 TKV720914 TUR720914 UEN720914 UOJ720914 UYF720914 VIB720914 VRX720914 WBT720914 WLP720914 WVL720914 D786450 IZ786450 SV786450 ACR786450 AMN786450 AWJ786450 BGF786450 BQB786450 BZX786450 CJT786450 CTP786450 DDL786450 DNH786450 DXD786450 EGZ786450 EQV786450 FAR786450 FKN786450 FUJ786450 GEF786450 GOB786450 GXX786450 HHT786450 HRP786450 IBL786450 ILH786450 IVD786450 JEZ786450 JOV786450 JYR786450 KIN786450 KSJ786450 LCF786450 LMB786450 LVX786450 MFT786450 MPP786450 MZL786450 NJH786450 NTD786450 OCZ786450 OMV786450 OWR786450 PGN786450 PQJ786450 QAF786450 QKB786450 QTX786450 RDT786450 RNP786450 RXL786450 SHH786450 SRD786450 TAZ786450 TKV786450 TUR786450 UEN786450 UOJ786450 UYF786450 VIB786450 VRX786450 WBT786450 WLP786450 WVL786450 D851986 IZ851986 SV851986 ACR851986 AMN851986 AWJ851986 BGF851986 BQB851986 BZX851986 CJT851986 CTP851986 DDL851986 DNH851986 DXD851986 EGZ851986 EQV851986 FAR851986 FKN851986 FUJ851986 GEF851986 GOB851986 GXX851986 HHT851986 HRP851986 IBL851986 ILH851986 IVD851986 JEZ851986 JOV851986 JYR851986 KIN851986 KSJ851986 LCF851986 LMB851986 LVX851986 MFT851986 MPP851986 MZL851986 NJH851986 NTD851986 OCZ851986 OMV851986 OWR851986 PGN851986 PQJ851986 QAF851986 QKB851986 QTX851986 RDT851986 RNP851986 RXL851986 SHH851986 SRD851986 TAZ851986 TKV851986 TUR851986 UEN851986 UOJ851986 UYF851986 VIB851986 VRX851986 WBT851986 WLP851986 WVL851986 D917522 IZ917522 SV917522 ACR917522 AMN917522 AWJ917522 BGF917522 BQB917522 BZX917522 CJT917522 CTP917522 DDL917522 DNH917522 DXD917522 EGZ917522 EQV917522 FAR917522 FKN917522 FUJ917522 GEF917522 GOB917522 GXX917522 HHT917522 HRP917522 IBL917522 ILH917522 IVD917522 JEZ917522 JOV917522 JYR917522 KIN917522 KSJ917522 LCF917522 LMB917522 LVX917522 MFT917522 MPP917522 MZL917522 NJH917522 NTD917522 OCZ917522 OMV917522 OWR917522 PGN917522 PQJ917522 QAF917522 QKB917522 QTX917522 RDT917522 RNP917522 RXL917522 SHH917522 SRD917522 TAZ917522 TKV917522 TUR917522 UEN917522 UOJ917522 UYF917522 VIB917522 VRX917522 WBT917522 WLP917522 WVL917522 D983058 IZ983058 SV983058 ACR983058 AMN983058 AWJ983058 BGF983058 BQB983058 BZX983058 CJT983058 CTP983058 DDL983058 DNH983058 DXD983058 EGZ983058 EQV983058 FAR983058 FKN983058 FUJ983058 GEF983058 GOB983058 GXX983058 HHT983058 HRP983058 IBL983058 ILH983058 IVD983058 JEZ983058 JOV983058 JYR983058 KIN983058 KSJ983058 LCF983058 LMB983058 LVX983058 MFT983058 MPP983058 MZL983058 NJH983058 NTD983058 OCZ983058 OMV983058 OWR983058 PGN983058 PQJ983058 QAF983058 QKB983058 QTX983058 RDT983058 RNP983058 RXL983058 SHH983058 SRD983058 TAZ983058 TKV983058 TUR983058 UEN983058 UOJ983058 UYF983058 VIB983058 VRX983058 WBT983058 WLP983058 WVL983058">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M13">
+      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
+      <formula1>"Libor,ibor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4597,11 +2583,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -9316,10 +7302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="144"/>
       <c r="D1" s="52" t="s">
         <v>87</v>
       </c>
@@ -9371,7 +7357,7 @@
       <c r="L2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="99">
+      <c r="M2" s="91">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
@@ -9411,7 +7397,7 @@
       <c r="L3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="91">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
@@ -9451,7 +7437,7 @@
       <c r="L4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="91">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
@@ -9491,7 +7477,7 @@
       <c r="L5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="99">
+      <c r="M5" s="91">
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
@@ -9532,14 +7518,14 @@
       <c r="L6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="91">
         <v>4.0749999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_RateHelpersSelected#0000</v>
+        <v>GBP_YCRH_RateHelpersSelected#0006</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9574,7 +7560,7 @@
       <c r="L7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="91">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -9608,7 +7594,7 @@
       <c r="L8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="91">
         <v>3.9500000000000004E-3</v>
       </c>
     </row>
@@ -9642,7 +7628,7 @@
       <c r="L9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="91">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -9676,7 +7662,7 @@
       <c r="L10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="91">
         <v>3.8249999999999998E-3</v>
       </c>
     </row>
@@ -9710,7 +7696,7 @@
       <c r="L11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="91">
         <v>3.7499999999999999E-3</v>
       </c>
     </row>
@@ -9744,7 +7730,7 @@
       <c r="L12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="91">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
@@ -9778,7 +7764,7 @@
       <c r="L13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="91">
         <v>3.65E-3</v>
       </c>
     </row>
@@ -9812,7 +7798,7 @@
       <c r="L14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="99">
+      <c r="M14" s="91">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -9846,7 +7832,7 @@
       <c r="L15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="91">
         <v>3.5750000000000001E-3</v>
       </c>
     </row>
@@ -9880,7 +7866,7 @@
       <c r="L16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="91">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
@@ -9914,7 +7900,7 @@
       <c r="L17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="91">
         <v>3.4499999999999999E-3</v>
       </c>
     </row>
@@ -9948,7 +7934,7 @@
       <c r="L18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="91">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
@@ -9982,7 +7968,7 @@
       <c r="L19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="99">
+      <c r="M19" s="91">
         <v>4.0499999999999998E-3</v>
       </c>
     </row>
@@ -10016,7 +8002,7 @@
       <c r="L20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="99">
+      <c r="M20" s="91">
         <v>5.1749999999999999E-3</v>
       </c>
     </row>
@@ -10050,7 +8036,7 @@
       <c r="L21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="99">
+      <c r="M21" s="91">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10084,7 +8070,7 @@
       <c r="L22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M22" s="99">
+      <c r="M22" s="91">
         <v>8.4250000000000002E-3</v>
       </c>
     </row>
@@ -10118,7 +8104,7 @@
       <c r="L23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M23" s="99">
+      <c r="M23" s="91">
         <v>1.03E-2</v>
       </c>
     </row>
@@ -10152,7 +8138,7 @@
       <c r="L24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M24" s="91">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -10186,7 +8172,7 @@
       <c r="L25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="99">
+      <c r="M25" s="91">
         <v>1.405E-2</v>
       </c>
     </row>
@@ -10220,7 +8206,7 @@
       <c r="L26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="99">
+      <c r="M26" s="91">
         <v>1.575E-2</v>
       </c>
     </row>
@@ -10254,7 +8240,7 @@
       <c r="L27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="99">
+      <c r="M27" s="91">
         <v>1.8575000000000001E-2</v>
       </c>
     </row>
@@ -10288,7 +8274,7 @@
       <c r="L28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="99">
+      <c r="M28" s="91">
         <v>2.1624999999999998E-2</v>
       </c>
     </row>
@@ -10322,7 +8308,7 @@
       <c r="L29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="99">
+      <c r="M29" s="91">
         <v>2.4875000000000001E-2</v>
       </c>
     </row>
@@ -10356,7 +8342,7 @@
       <c r="L30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="99">
+      <c r="M30" s="91">
         <v>2.665E-2</v>
       </c>
     </row>
@@ -10390,7 +8376,7 @@
       <c r="L31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M31" s="99">
+      <c r="M31" s="91">
         <v>2.7525000000000001E-2</v>
       </c>
     </row>
@@ -12715,9 +10701,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12739,1906 +10723,1908 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="130"/>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="127"/>
+      <c r="A1" s="145" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="119"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
         <v>GBP_YCRH</v>
       </c>
-      <c r="L2" s="126" t="e">
+      <c r="L2" s="118" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="104"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="96"/>
     </row>
     <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="125" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="124" t="str">
+      <c r="K3" s="116" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YCRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="123">
+      <c r="L3" s="115">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>57</v>
       </c>
-      <c r="M3" s="116" t="str">
+      <c r="M3" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="104"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="122" t="str">
+      <c r="A4" s="111"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="114" t="str">
         <f>$K$2&amp;"_"&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>GBP_YCRH__Libor</v>
       </c>
-      <c r="L4" s="121" t="str">
+      <c r="L4" s="113" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCRH__Libor#0000</v>
-      </c>
-      <c r="M4" s="120" t="str">
+        <v>GBP_YCRH__Libor#0007</v>
+      </c>
+      <c r="M4" s="112" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="104"/>
+      <c r="N4" s="96"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="104"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="96"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="114">
-        <v>0</v>
-      </c>
-      <c r="C6" s="113" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="106">
+        <v>0</v>
+      </c>
+      <c r="C6" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="104" t="str">
         <f t="shared" ref="H6:H38" si="0">MoneyMarketDayCounter</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="111">
-        <v>0</v>
-      </c>
-      <c r="J6" s="110" t="str">
+      <c r="I6" s="103">
+        <v>0</v>
+      </c>
+      <c r="J6" s="102" t="str">
         <f t="shared" ref="J6:J38" si="1">Currency&amp;$D6&amp;E6&amp;QuoteSuffix</f>
         <v>GBPSWOIS_Quote</v>
       </c>
-      <c r="K6" s="110" t="str">
+      <c r="K6" s="102" t="str">
         <f t="shared" ref="K6:K38" si="2">$K$2&amp;"_"&amp;$D6&amp;$E6</f>
         <v>GBP_YCRH_SWOIS</v>
       </c>
-      <c r="L6" s="109" t="str">
+      <c r="L6" s="101" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_SWOIS#0000</v>
-      </c>
-      <c r="M6" s="116" t="str">
+        <v>GBP_YCRH_SWOIS#0007</v>
+      </c>
+      <c r="M6" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="104"/>
-      <c r="P6" s="107">
+      <c r="N6" s="96"/>
+      <c r="P6" s="99">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
         <v>41653</v>
       </c>
-      <c r="Q6" s="107">
+      <c r="Q6" s="99">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
         <v>41660</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="114">
-        <v>0</v>
-      </c>
-      <c r="C7" s="113" t="s">
+      <c r="A7" s="98"/>
+      <c r="B7" s="106">
+        <v>0</v>
+      </c>
+      <c r="C7" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="113" t="str">
+      <c r="D7" s="105" t="str">
         <f t="shared" ref="D7:D38" si="3">C7</f>
         <v>2W</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="112" t="str">
+      <c r="H7" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="111">
-        <v>0</v>
-      </c>
-      <c r="J7" s="110" t="str">
+      <c r="I7" s="103">
+        <v>0</v>
+      </c>
+      <c r="J7" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP2WOIS_Quote</v>
       </c>
-      <c r="K7" s="110" t="str">
+      <c r="K7" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_2WOIS</v>
       </c>
-      <c r="L7" s="109" t="str">
+      <c r="L7" s="101" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2WOIS#0000</v>
-      </c>
-      <c r="M7" s="116" t="str">
+        <v>GBP_YCRH_2WOIS#0007</v>
+      </c>
+      <c r="M7" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="104"/>
-      <c r="P7" s="107">
+      <c r="N7" s="96"/>
+      <c r="P7" s="99">
         <f>_xll.qlRateHelperEarliestDate($L7)</f>
         <v>41653</v>
       </c>
-      <c r="Q7" s="107">
+      <c r="Q7" s="99">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
         <v>41667</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="106"/>
-      <c r="B8" s="114">
-        <v>0</v>
-      </c>
-      <c r="C8" s="113" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="106">
+        <v>0</v>
+      </c>
+      <c r="C8" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="113" t="str">
+      <c r="D8" s="105" t="str">
         <f t="shared" si="3"/>
         <v>3W</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="112" t="str">
+      <c r="H8" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="111">
-        <v>0</v>
-      </c>
-      <c r="J8" s="110" t="str">
+      <c r="I8" s="103">
+        <v>0</v>
+      </c>
+      <c r="J8" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP3WOIS_Quote</v>
       </c>
-      <c r="K8" s="110" t="str">
+      <c r="K8" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_3WOIS</v>
       </c>
-      <c r="L8" s="109" t="str">
+      <c r="L8" s="101" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3WOIS#0000</v>
-      </c>
-      <c r="M8" s="116" t="str">
+        <v>GBP_YCRH_3WOIS#0007</v>
+      </c>
+      <c r="M8" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="104"/>
-      <c r="P8" s="107">
+      <c r="N8" s="96"/>
+      <c r="P8" s="99">
         <f>_xll.qlRateHelperEarliestDate($L8)</f>
         <v>41653</v>
       </c>
-      <c r="Q8" s="107">
+      <c r="Q8" s="99">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
         <v>41674</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="114">
-        <v>0</v>
-      </c>
-      <c r="C9" s="113" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="106">
+        <v>0</v>
+      </c>
+      <c r="C9" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="113" t="str">
+      <c r="D9" s="105" t="str">
         <f t="shared" si="3"/>
         <v>1M</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="112" t="str">
+      <c r="H9" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="111">
-        <v>0</v>
-      </c>
-      <c r="J9" s="110" t="str">
+      <c r="I9" s="103">
+        <v>0</v>
+      </c>
+      <c r="J9" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP1MOIS_Quote</v>
       </c>
-      <c r="K9" s="110" t="str">
+      <c r="K9" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_1MOIS</v>
       </c>
-      <c r="L9" s="109" t="str">
+      <c r="L9" s="101" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1MOIS#0000</v>
-      </c>
-      <c r="M9" s="116" t="str">
+        <v>GBP_YCRH_1MOIS#0007</v>
+      </c>
+      <c r="M9" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="104"/>
-      <c r="P9" s="107">
+      <c r="N9" s="96"/>
+      <c r="P9" s="99">
         <f>_xll.qlRateHelperEarliestDate($L9)</f>
         <v>41653</v>
       </c>
-      <c r="Q9" s="107">
+      <c r="Q9" s="99">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
         <v>41684</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="114">
-        <v>0</v>
-      </c>
-      <c r="C10" s="113" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="106">
+        <v>0</v>
+      </c>
+      <c r="C10" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="113" t="str">
+      <c r="D10" s="105" t="str">
         <f t="shared" si="3"/>
         <v>2M</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="112" t="str">
+      <c r="H10" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="111">
-        <v>0</v>
-      </c>
-      <c r="J10" s="110" t="str">
+      <c r="I10" s="103">
+        <v>0</v>
+      </c>
+      <c r="J10" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP2MOIS_Quote</v>
       </c>
-      <c r="K10" s="110" t="str">
+      <c r="K10" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_2MOIS</v>
       </c>
-      <c r="L10" s="109" t="str">
+      <c r="L10" s="101" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2MOIS#0000</v>
-      </c>
-      <c r="M10" s="116" t="str">
+        <v>GBP_YCRH_2MOIS#0007</v>
+      </c>
+      <c r="M10" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="104"/>
-      <c r="P10" s="107">
+      <c r="N10" s="96"/>
+      <c r="P10" s="99">
         <f>_xll.qlRateHelperEarliestDate($L10)</f>
         <v>41653</v>
       </c>
-      <c r="Q10" s="107">
+      <c r="Q10" s="99">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
         <v>41712</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="114">
-        <v>0</v>
-      </c>
-      <c r="C11" s="113" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="106">
+        <v>0</v>
+      </c>
+      <c r="C11" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="113" t="str">
+      <c r="D11" s="105" t="str">
         <f t="shared" si="3"/>
         <v>3M</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="112" t="str">
+      <c r="H11" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="111">
-        <v>0</v>
-      </c>
-      <c r="J11" s="110" t="str">
+      <c r="I11" s="103">
+        <v>0</v>
+      </c>
+      <c r="J11" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP3MOIS_Quote</v>
       </c>
-      <c r="K11" s="110" t="str">
+      <c r="K11" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_3MOIS</v>
       </c>
-      <c r="L11" s="109" t="str">
+      <c r="L11" s="101" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3MOIS#0000</v>
-      </c>
-      <c r="M11" s="116" t="str">
+        <v>GBP_YCRH_3MOIS#0007</v>
+      </c>
+      <c r="M11" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="104"/>
-      <c r="P11" s="107">
+      <c r="N11" s="96"/>
+      <c r="P11" s="99">
         <f>_xll.qlRateHelperEarliestDate($L11)</f>
         <v>41653</v>
       </c>
-      <c r="Q11" s="107">
+      <c r="Q11" s="99">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
         <v>41743</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="106"/>
-      <c r="B12" s="114">
-        <v>0</v>
-      </c>
-      <c r="C12" s="113" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="106">
+        <v>0</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="113" t="str">
+      <c r="D12" s="105" t="str">
         <f t="shared" si="3"/>
         <v>4M</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="112" t="str">
+      <c r="H12" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="111">
-        <v>0</v>
-      </c>
-      <c r="J12" s="110" t="str">
+      <c r="I12" s="103">
+        <v>0</v>
+      </c>
+      <c r="J12" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP4MOIS_Quote</v>
       </c>
-      <c r="K12" s="110" t="str">
+      <c r="K12" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_4MOIS</v>
       </c>
-      <c r="L12" s="109" t="str">
+      <c r="L12" s="101" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4MOIS#0000</v>
-      </c>
-      <c r="M12" s="116" t="str">
+        <v>GBP_YCRH_4MOIS#0007</v>
+      </c>
+      <c r="M12" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="104"/>
-      <c r="P12" s="107">
+      <c r="N12" s="96"/>
+      <c r="P12" s="99">
         <f>_xll.qlRateHelperEarliestDate($L12)</f>
         <v>41653</v>
       </c>
-      <c r="Q12" s="107">
+      <c r="Q12" s="99">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
         <v>41773</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="106"/>
-      <c r="B13" s="114">
-        <v>0</v>
-      </c>
-      <c r="C13" s="113" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="106">
+        <v>0</v>
+      </c>
+      <c r="C13" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="113" t="str">
+      <c r="D13" s="105" t="str">
         <f t="shared" si="3"/>
         <v>5M</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="112" t="str">
+      <c r="H13" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="111">
-        <v>0</v>
-      </c>
-      <c r="J13" s="110" t="str">
+      <c r="I13" s="103">
+        <v>0</v>
+      </c>
+      <c r="J13" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP5MOIS_Quote</v>
       </c>
-      <c r="K13" s="110" t="str">
+      <c r="K13" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_5MOIS</v>
       </c>
-      <c r="L13" s="109" t="str">
+      <c r="L13" s="101" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5MOIS#0000</v>
-      </c>
-      <c r="M13" s="116" t="str">
+        <v>GBP_YCRH_5MOIS#0007</v>
+      </c>
+      <c r="M13" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="104"/>
-      <c r="P13" s="107">
+      <c r="N13" s="96"/>
+      <c r="P13" s="99">
         <f>_xll.qlRateHelperEarliestDate($L13)</f>
         <v>41653</v>
       </c>
-      <c r="Q13" s="107">
+      <c r="Q13" s="99">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
         <v>41806</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
-      <c r="B14" s="114">
-        <v>0</v>
-      </c>
-      <c r="C14" s="113" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="106">
+        <v>0</v>
+      </c>
+      <c r="C14" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="113" t="str">
+      <c r="D14" s="105" t="str">
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="112" t="s">
+      <c r="G14" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="112" t="str">
+      <c r="H14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="111">
-        <v>0</v>
-      </c>
-      <c r="J14" s="110" t="str">
+      <c r="I14" s="103">
+        <v>0</v>
+      </c>
+      <c r="J14" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP6MOIS_Quote</v>
       </c>
-      <c r="K14" s="110" t="str">
+      <c r="K14" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_6MOIS</v>
       </c>
-      <c r="L14" s="109" t="str">
+      <c r="L14" s="101" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6MOIS#0000</v>
-      </c>
-      <c r="M14" s="116" t="str">
+        <v>GBP_YCRH_6MOIS#0007</v>
+      </c>
+      <c r="M14" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="104"/>
-      <c r="P14" s="107">
+      <c r="N14" s="96"/>
+      <c r="P14" s="99">
         <f>_xll.qlRateHelperEarliestDate($L14)</f>
         <v>41653</v>
       </c>
-      <c r="Q14" s="107">
+      <c r="Q14" s="99">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
         <v>41834</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="106"/>
-      <c r="B15" s="114">
-        <v>0</v>
-      </c>
-      <c r="C15" s="113" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="106">
+        <v>0</v>
+      </c>
+      <c r="C15" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="113" t="str">
+      <c r="D15" s="105" t="str">
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="112" t="str">
+      <c r="H15" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="111">
-        <v>0</v>
-      </c>
-      <c r="J15" s="110" t="str">
+      <c r="I15" s="103">
+        <v>0</v>
+      </c>
+      <c r="J15" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP7MOIS_Quote</v>
       </c>
-      <c r="K15" s="110" t="str">
+      <c r="K15" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_7MOIS</v>
       </c>
-      <c r="L15" s="109" t="str">
+      <c r="L15" s="101" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7MOIS#0000</v>
-      </c>
-      <c r="M15" s="116" t="str">
+        <v>GBP_YCRH_7MOIS#0007</v>
+      </c>
+      <c r="M15" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="104"/>
-      <c r="P15" s="107">
+      <c r="N15" s="96"/>
+      <c r="P15" s="99">
         <f>_xll.qlRateHelperEarliestDate($L15)</f>
         <v>41653</v>
       </c>
-      <c r="Q15" s="107">
+      <c r="Q15" s="99">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
         <v>41865</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="114">
-        <v>0</v>
-      </c>
-      <c r="C16" s="113" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="106">
+        <v>0</v>
+      </c>
+      <c r="C16" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="113" t="str">
+      <c r="D16" s="105" t="str">
         <f t="shared" si="3"/>
         <v>8M</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="112" t="str">
+      <c r="H16" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="111">
-        <v>0</v>
-      </c>
-      <c r="J16" s="110" t="str">
+      <c r="I16" s="103">
+        <v>0</v>
+      </c>
+      <c r="J16" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP8MOIS_Quote</v>
       </c>
-      <c r="K16" s="110" t="str">
+      <c r="K16" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_8MOIS</v>
       </c>
-      <c r="L16" s="109" t="str">
+      <c r="L16" s="101" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8MOIS#0000</v>
-      </c>
-      <c r="M16" s="116" t="str">
+        <v>GBP_YCRH_8MOIS#0007</v>
+      </c>
+      <c r="M16" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="104"/>
-      <c r="P16" s="107">
+      <c r="N16" s="96"/>
+      <c r="P16" s="99">
         <f>_xll.qlRateHelperEarliestDate($L16)</f>
         <v>41653</v>
       </c>
-      <c r="Q16" s="107">
+      <c r="Q16" s="99">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
         <v>41897</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="106"/>
-      <c r="B17" s="114">
-        <v>0</v>
-      </c>
-      <c r="C17" s="113" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="106">
+        <v>0</v>
+      </c>
+      <c r="C17" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="113" t="str">
+      <c r="D17" s="105" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="112" t="str">
+      <c r="H17" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I17" s="111">
-        <v>0</v>
-      </c>
-      <c r="J17" s="110" t="str">
+      <c r="I17" s="103">
+        <v>0</v>
+      </c>
+      <c r="J17" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP9MOIS_Quote</v>
       </c>
-      <c r="K17" s="110" t="str">
+      <c r="K17" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_9MOIS</v>
       </c>
-      <c r="L17" s="109" t="str">
+      <c r="L17" s="101" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9MOIS#0000</v>
-      </c>
-      <c r="M17" s="116" t="str">
+        <v>GBP_YCRH_9MOIS#0007</v>
+      </c>
+      <c r="M17" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="104"/>
-      <c r="P17" s="107">
+      <c r="N17" s="96"/>
+      <c r="P17" s="99">
         <f>_xll.qlRateHelperEarliestDate($L17)</f>
         <v>41653</v>
       </c>
-      <c r="Q17" s="107">
+      <c r="Q17" s="99">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
         <v>41926</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="106"/>
-      <c r="B18" s="114">
-        <v>0</v>
-      </c>
-      <c r="C18" s="113" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="106">
+        <v>0</v>
+      </c>
+      <c r="C18" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="113" t="str">
+      <c r="D18" s="105" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="112" t="str">
+      <c r="H18" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I18" s="111">
-        <v>0</v>
-      </c>
-      <c r="J18" s="110" t="str">
+      <c r="I18" s="103">
+        <v>0</v>
+      </c>
+      <c r="J18" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP10MOIS_Quote</v>
       </c>
-      <c r="K18" s="110" t="str">
+      <c r="K18" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_10MOIS</v>
       </c>
-      <c r="L18" s="109" t="str">
+      <c r="L18" s="101" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10MOIS#0000</v>
-      </c>
-      <c r="M18" s="116" t="str">
+        <v>GBP_YCRH_10MOIS#0007</v>
+      </c>
+      <c r="M18" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="104"/>
-      <c r="P18" s="107">
+      <c r="N18" s="96"/>
+      <c r="P18" s="99">
         <f>_xll.qlRateHelperEarliestDate($L18)</f>
         <v>41653</v>
       </c>
-      <c r="Q18" s="107">
+      <c r="Q18" s="99">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
         <v>41957</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="106"/>
-      <c r="B19" s="114">
-        <v>0</v>
-      </c>
-      <c r="C19" s="113" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="106">
+        <v>0</v>
+      </c>
+      <c r="C19" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="113" t="str">
+      <c r="D19" s="105" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="112" t="str">
+      <c r="H19" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I19" s="111">
-        <v>0</v>
-      </c>
-      <c r="J19" s="110" t="str">
+      <c r="I19" s="103">
+        <v>0</v>
+      </c>
+      <c r="J19" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP11MOIS_Quote</v>
       </c>
-      <c r="K19" s="110" t="str">
+      <c r="K19" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_11MOIS</v>
       </c>
-      <c r="L19" s="109" t="str">
+      <c r="L19" s="101" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11MOIS#0000</v>
-      </c>
-      <c r="M19" s="116" t="str">
+        <v>GBP_YCRH_11MOIS#0007</v>
+      </c>
+      <c r="M19" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="104"/>
-      <c r="P19" s="107">
+      <c r="N19" s="96"/>
+      <c r="P19" s="99">
         <f>_xll.qlRateHelperEarliestDate($L19)</f>
         <v>41653</v>
       </c>
-      <c r="Q19" s="107">
+      <c r="Q19" s="99">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
         <v>41988</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="106"/>
-      <c r="B20" s="114">
-        <v>0</v>
-      </c>
-      <c r="C20" s="113" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="106">
+        <v>0</v>
+      </c>
+      <c r="C20" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="113" t="str">
+      <c r="D20" s="105" t="str">
         <f t="shared" si="3"/>
         <v>1Y</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="112" t="str">
+      <c r="H20" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I20" s="111">
-        <v>0</v>
-      </c>
-      <c r="J20" s="110" t="str">
+      <c r="I20" s="103">
+        <v>0</v>
+      </c>
+      <c r="J20" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP1YOIS_Quote</v>
       </c>
-      <c r="K20" s="110" t="str">
+      <c r="K20" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_1YOIS</v>
       </c>
-      <c r="L20" s="109" t="str">
+      <c r="L20" s="101" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1YOIS#0000</v>
-      </c>
-      <c r="M20" s="116" t="str">
+        <v>GBP_YCRH_1YOIS#0007</v>
+      </c>
+      <c r="M20" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="104"/>
-      <c r="P20" s="107">
+      <c r="N20" s="96"/>
+      <c r="P20" s="99">
         <f>_xll.qlRateHelperEarliestDate($L20)</f>
         <v>41653</v>
       </c>
-      <c r="Q20" s="107">
+      <c r="Q20" s="99">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
         <v>42018</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="114">
-        <v>0</v>
-      </c>
-      <c r="C21" s="113" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="106">
+        <v>0</v>
+      </c>
+      <c r="C21" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="113" t="str">
+      <c r="D21" s="105" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="112" t="str">
+      <c r="H21" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I21" s="111">
-        <v>0</v>
-      </c>
-      <c r="J21" s="110" t="str">
+      <c r="I21" s="103">
+        <v>0</v>
+      </c>
+      <c r="J21" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP15MOIS_Quote</v>
       </c>
-      <c r="K21" s="110" t="str">
+      <c r="K21" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_15MOIS</v>
       </c>
-      <c r="L21" s="109" t="str">
+      <c r="L21" s="101" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15MOIS#0000</v>
-      </c>
-      <c r="M21" s="116" t="str">
+        <v>GBP_YCRH_15MOIS#0007</v>
+      </c>
+      <c r="M21" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="104"/>
-      <c r="P21" s="107">
+      <c r="N21" s="96"/>
+      <c r="P21" s="99">
         <f>_xll.qlRateHelperEarliestDate($L21)</f>
         <v>41653</v>
       </c>
-      <c r="Q21" s="107">
+      <c r="Q21" s="99">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
         <v>42108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="114">
-        <v>0</v>
-      </c>
-      <c r="C22" s="113" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="106">
+        <v>0</v>
+      </c>
+      <c r="C22" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="113" t="str">
+      <c r="D22" s="105" t="str">
         <f t="shared" si="3"/>
         <v>18M</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="112" t="s">
+      <c r="G22" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="112" t="str">
+      <c r="H22" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I22" s="111">
-        <v>0</v>
-      </c>
-      <c r="J22" s="110" t="str">
+      <c r="I22" s="103">
+        <v>0</v>
+      </c>
+      <c r="J22" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP18MOIS_Quote</v>
       </c>
-      <c r="K22" s="110" t="str">
+      <c r="K22" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_18MOIS</v>
       </c>
-      <c r="L22" s="109" t="str">
+      <c r="L22" s="101" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_18MOIS#0000</v>
-      </c>
-      <c r="M22" s="116" t="str">
+        <v>GBP_YCRH_18MOIS#0007</v>
+      </c>
+      <c r="M22" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="104"/>
-      <c r="P22" s="107">
+      <c r="N22" s="96"/>
+      <c r="P22" s="99">
         <f>_xll.qlRateHelperEarliestDate($L22)</f>
         <v>41653</v>
       </c>
-      <c r="Q22" s="107">
+      <c r="Q22" s="99">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
         <v>42199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="114">
-        <v>0</v>
-      </c>
-      <c r="C23" s="113" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="106">
+        <v>0</v>
+      </c>
+      <c r="C23" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="113" t="str">
+      <c r="D23" s="105" t="str">
         <f t="shared" si="3"/>
         <v>21M</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="112" t="str">
+      <c r="H23" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I23" s="111">
-        <v>0</v>
-      </c>
-      <c r="J23" s="110" t="str">
+      <c r="I23" s="103">
+        <v>0</v>
+      </c>
+      <c r="J23" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP21MOIS_Quote</v>
       </c>
-      <c r="K23" s="110" t="str">
+      <c r="K23" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_21MOIS</v>
       </c>
-      <c r="L23" s="109" t="str">
+      <c r="L23" s="101" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_21MOIS#0000</v>
-      </c>
-      <c r="M23" s="116" t="str">
+        <v>GBP_YCRH_21MOIS#0007</v>
+      </c>
+      <c r="M23" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="104"/>
-      <c r="P23" s="107">
+      <c r="N23" s="96"/>
+      <c r="P23" s="99">
         <f>_xll.qlRateHelperEarliestDate($L23)</f>
         <v>41653</v>
       </c>
-      <c r="Q23" s="107">
+      <c r="Q23" s="99">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
         <v>42291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="114">
-        <v>0</v>
-      </c>
-      <c r="C24" s="113" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="106">
+        <v>0</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="113" t="str">
+      <c r="D24" s="105" t="str">
         <f t="shared" si="3"/>
         <v>2Y</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="112" t="str">
+      <c r="H24" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I24" s="111">
-        <v>0</v>
-      </c>
-      <c r="J24" s="110" t="str">
+      <c r="I24" s="103">
+        <v>0</v>
+      </c>
+      <c r="J24" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP2YOIS_Quote</v>
       </c>
-      <c r="K24" s="110" t="str">
+      <c r="K24" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_2YOIS</v>
       </c>
-      <c r="L24" s="109" t="str">
+      <c r="L24" s="101" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2YOIS#0000</v>
-      </c>
-      <c r="M24" s="116" t="str">
+        <v>GBP_YCRH_2YOIS#0007</v>
+      </c>
+      <c r="M24" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="104"/>
-      <c r="P24" s="107">
+      <c r="N24" s="96"/>
+      <c r="P24" s="99">
         <f>_xll.qlRateHelperEarliestDate($L24)</f>
         <v>41653</v>
       </c>
-      <c r="Q24" s="107">
+      <c r="Q24" s="99">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
         <v>42383</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="114">
-        <v>0</v>
-      </c>
-      <c r="C25" s="113" t="s">
+      <c r="A25" s="98"/>
+      <c r="B25" s="106">
+        <v>0</v>
+      </c>
+      <c r="C25" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="113" t="str">
+      <c r="D25" s="105" t="str">
         <f t="shared" si="3"/>
         <v>3Y</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="112" t="str">
+      <c r="H25" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I25" s="111">
-        <v>0</v>
-      </c>
-      <c r="J25" s="110" t="str">
+      <c r="I25" s="103">
+        <v>0</v>
+      </c>
+      <c r="J25" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP3YOIS_Quote</v>
       </c>
-      <c r="K25" s="110" t="str">
+      <c r="K25" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_3YOIS</v>
       </c>
-      <c r="L25" s="109" t="str">
+      <c r="L25" s="101" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3YOIS#0000</v>
-      </c>
-      <c r="M25" s="116" t="str">
+        <v>GBP_YCRH_3YOIS#0007</v>
+      </c>
+      <c r="M25" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="104"/>
-      <c r="P25" s="107">
+      <c r="N25" s="96"/>
+      <c r="P25" s="99">
         <f>_xll.qlRateHelperEarliestDate($L25)</f>
         <v>41653</v>
       </c>
-      <c r="Q25" s="107">
+      <c r="Q25" s="99">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
         <v>42751</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="114">
-        <v>0</v>
-      </c>
-      <c r="C26" s="113" t="s">
+      <c r="A26" s="98"/>
+      <c r="B26" s="106">
+        <v>0</v>
+      </c>
+      <c r="C26" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="113" t="str">
+      <c r="D26" s="105" t="str">
         <f t="shared" si="3"/>
         <v>4Y</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="112" t="s">
+      <c r="G26" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="112" t="str">
+      <c r="H26" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I26" s="111">
-        <v>0</v>
-      </c>
-      <c r="J26" s="110" t="str">
+      <c r="I26" s="103">
+        <v>0</v>
+      </c>
+      <c r="J26" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP4YOIS_Quote</v>
       </c>
-      <c r="K26" s="110" t="str">
+      <c r="K26" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_4YOIS</v>
       </c>
-      <c r="L26" s="109" t="str">
+      <c r="L26" s="101" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4YOIS#0000</v>
-      </c>
-      <c r="M26" s="116" t="str">
+        <v>GBP_YCRH_4YOIS#0007</v>
+      </c>
+      <c r="M26" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="104"/>
-      <c r="P26" s="107">
+      <c r="N26" s="96"/>
+      <c r="P26" s="99">
         <f>_xll.qlRateHelperEarliestDate($L26)</f>
         <v>41653</v>
       </c>
-      <c r="Q26" s="107">
+      <c r="Q26" s="99">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
         <v>43115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="114">
-        <v>0</v>
-      </c>
-      <c r="C27" s="113" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="106">
+        <v>0</v>
+      </c>
+      <c r="C27" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="113" t="str">
+      <c r="D27" s="105" t="str">
         <f t="shared" si="3"/>
         <v>5Y</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="112" t="str">
+      <c r="H27" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I27" s="111">
-        <v>0</v>
-      </c>
-      <c r="J27" s="110" t="str">
+      <c r="I27" s="103">
+        <v>0</v>
+      </c>
+      <c r="J27" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP5YOIS_Quote</v>
       </c>
-      <c r="K27" s="110" t="str">
+      <c r="K27" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_5YOIS</v>
       </c>
-      <c r="L27" s="109" t="str">
+      <c r="L27" s="101" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5YOIS#0000</v>
-      </c>
-      <c r="M27" s="116" t="str">
+        <v>GBP_YCRH_5YOIS#0007</v>
+      </c>
+      <c r="M27" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="104"/>
-      <c r="P27" s="107">
+      <c r="N27" s="96"/>
+      <c r="P27" s="99">
         <f>_xll.qlRateHelperEarliestDate($L27)</f>
         <v>41653</v>
       </c>
-      <c r="Q27" s="107">
+      <c r="Q27" s="99">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
         <v>43479</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="106"/>
-      <c r="B28" s="114">
-        <v>0</v>
-      </c>
-      <c r="C28" s="113" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="106">
+        <v>0</v>
+      </c>
+      <c r="C28" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="113" t="str">
+      <c r="D28" s="105" t="str">
         <f t="shared" si="3"/>
         <v>6Y</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G28" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="112" t="str">
+      <c r="H28" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I28" s="111">
-        <v>0</v>
-      </c>
-      <c r="J28" s="110" t="str">
+      <c r="I28" s="103">
+        <v>0</v>
+      </c>
+      <c r="J28" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP6YOIS_Quote</v>
       </c>
-      <c r="K28" s="110" t="str">
+      <c r="K28" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_6YOIS</v>
       </c>
-      <c r="L28" s="109" t="str">
+      <c r="L28" s="101" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6YOIS#0000</v>
-      </c>
-      <c r="M28" s="116" t="str">
+        <v>GBP_YCRH_6YOIS#0007</v>
+      </c>
+      <c r="M28" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="104"/>
-      <c r="P28" s="107">
+      <c r="N28" s="96"/>
+      <c r="P28" s="99">
         <f>_xll.qlRateHelperEarliestDate($L28)</f>
         <v>41653</v>
       </c>
-      <c r="Q28" s="107">
+      <c r="Q28" s="99">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
         <v>43844</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="106"/>
-      <c r="B29" s="114">
-        <v>0</v>
-      </c>
-      <c r="C29" s="113" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="106">
+        <v>0</v>
+      </c>
+      <c r="C29" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="113" t="str">
+      <c r="D29" s="105" t="str">
         <f t="shared" si="3"/>
         <v>7Y</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="112" t="s">
+      <c r="F29" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G29" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="112" t="str">
+      <c r="H29" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I29" s="111">
-        <v>0</v>
-      </c>
-      <c r="J29" s="110" t="str">
+      <c r="I29" s="103">
+        <v>0</v>
+      </c>
+      <c r="J29" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP7YOIS_Quote</v>
       </c>
-      <c r="K29" s="110" t="str">
+      <c r="K29" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_7YOIS</v>
       </c>
-      <c r="L29" s="109" t="str">
+      <c r="L29" s="101" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7YOIS#0000</v>
-      </c>
-      <c r="M29" s="116" t="str">
+        <v>GBP_YCRH_7YOIS#0007</v>
+      </c>
+      <c r="M29" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="104"/>
-      <c r="P29" s="107">
+      <c r="N29" s="96"/>
+      <c r="P29" s="99">
         <f>_xll.qlRateHelperEarliestDate($L29)</f>
         <v>41653</v>
       </c>
-      <c r="Q29" s="107">
+      <c r="Q29" s="99">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
         <v>44210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="106"/>
-      <c r="B30" s="114">
-        <v>0</v>
-      </c>
-      <c r="C30" s="113" t="s">
+      <c r="A30" s="98"/>
+      <c r="B30" s="106">
+        <v>0</v>
+      </c>
+      <c r="C30" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="113" t="str">
+      <c r="D30" s="105" t="str">
         <f t="shared" si="3"/>
         <v>8Y</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="112" t="str">
+      <c r="H30" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I30" s="111">
-        <v>0</v>
-      </c>
-      <c r="J30" s="110" t="str">
+      <c r="I30" s="103">
+        <v>0</v>
+      </c>
+      <c r="J30" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP8YOIS_Quote</v>
       </c>
-      <c r="K30" s="110" t="str">
+      <c r="K30" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_8YOIS</v>
       </c>
-      <c r="L30" s="109" t="str">
+      <c r="L30" s="101" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8YOIS#0000</v>
-      </c>
-      <c r="M30" s="116" t="str">
+        <v>GBP_YCRH_8YOIS#0007</v>
+      </c>
+      <c r="M30" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="104"/>
-      <c r="P30" s="107">
+      <c r="N30" s="96"/>
+      <c r="P30" s="99">
         <f>_xll.qlRateHelperEarliestDate($L30)</f>
         <v>41653</v>
       </c>
-      <c r="Q30" s="107">
+      <c r="Q30" s="99">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
         <v>44575</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="106"/>
-      <c r="B31" s="114">
-        <v>0</v>
-      </c>
-      <c r="C31" s="113" t="s">
+      <c r="A31" s="98"/>
+      <c r="B31" s="106">
+        <v>0</v>
+      </c>
+      <c r="C31" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="113" t="str">
+      <c r="D31" s="105" t="str">
         <f t="shared" si="3"/>
         <v>9Y</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="112" t="str">
+      <c r="H31" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I31" s="111">
-        <v>0</v>
-      </c>
-      <c r="J31" s="110" t="str">
+      <c r="I31" s="103">
+        <v>0</v>
+      </c>
+      <c r="J31" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP9YOIS_Quote</v>
       </c>
-      <c r="K31" s="110" t="str">
+      <c r="K31" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_9YOIS</v>
       </c>
-      <c r="L31" s="109" t="str">
+      <c r="L31" s="101" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9YOIS#0000</v>
-      </c>
-      <c r="M31" s="116" t="str">
+        <v>GBP_YCRH_9YOIS#0007</v>
+      </c>
+      <c r="M31" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="104"/>
-      <c r="P31" s="107">
+      <c r="N31" s="96"/>
+      <c r="P31" s="99">
         <f>_xll.qlRateHelperEarliestDate($L31)</f>
         <v>41653</v>
       </c>
-      <c r="Q31" s="107">
+      <c r="Q31" s="99">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
         <v>44942</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="114">
-        <v>0</v>
-      </c>
-      <c r="C32" s="113" t="s">
+      <c r="A32" s="98"/>
+      <c r="B32" s="106">
+        <v>0</v>
+      </c>
+      <c r="C32" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="113" t="str">
+      <c r="D32" s="105" t="str">
         <f t="shared" si="3"/>
         <v>10Y</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="112" t="s">
+      <c r="G32" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="112" t="str">
+      <c r="H32" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I32" s="111">
-        <v>0</v>
-      </c>
-      <c r="J32" s="110" t="str">
+      <c r="I32" s="103">
+        <v>0</v>
+      </c>
+      <c r="J32" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP10YOIS_Quote</v>
       </c>
-      <c r="K32" s="110" t="str">
+      <c r="K32" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_10YOIS</v>
       </c>
-      <c r="L32" s="109" t="str">
+      <c r="L32" s="101" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10YOIS#0000</v>
-      </c>
-      <c r="M32" s="116" t="str">
+        <v>GBP_YCRH_10YOIS#0007</v>
+      </c>
+      <c r="M32" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="104"/>
-      <c r="P32" s="107">
+      <c r="N32" s="96"/>
+      <c r="P32" s="99">
         <f>_xll.qlRateHelperEarliestDate($L32)</f>
         <v>41653</v>
       </c>
-      <c r="Q32" s="107">
+      <c r="Q32" s="99">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
         <v>45306</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="114">
-        <v>0</v>
-      </c>
-      <c r="C33" s="113" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="106">
+        <v>0</v>
+      </c>
+      <c r="C33" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="113" t="str">
+      <c r="D33" s="105" t="str">
         <f t="shared" si="3"/>
         <v>11Y</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="112" t="str">
+      <c r="H33" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I33" s="111">
-        <v>0</v>
-      </c>
-      <c r="J33" s="110" t="str">
+      <c r="I33" s="103">
+        <v>0</v>
+      </c>
+      <c r="J33" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP11YOIS_Quote</v>
       </c>
-      <c r="K33" s="110" t="str">
+      <c r="K33" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_11YOIS</v>
       </c>
-      <c r="L33" s="109" t="str">
+      <c r="L33" s="101" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11YOIS#0000</v>
-      </c>
-      <c r="M33" s="116" t="str">
+        <v>GBP_YCRH_11YOIS#0007</v>
+      </c>
+      <c r="M33" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="104"/>
-      <c r="P33" s="107">
+      <c r="N33" s="96"/>
+      <c r="P33" s="99">
         <f>_xll.qlRateHelperEarliestDate($L33)</f>
         <v>41653</v>
       </c>
-      <c r="Q33" s="107">
+      <c r="Q33" s="99">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
         <v>45671</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="114">
-        <v>0</v>
-      </c>
-      <c r="C34" s="113" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="106">
+        <v>0</v>
+      </c>
+      <c r="C34" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="113" t="str">
+      <c r="D34" s="105" t="str">
         <f t="shared" si="3"/>
         <v>12Y</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="112" t="s">
+      <c r="G34" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="112" t="str">
+      <c r="H34" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I34" s="111">
-        <v>0</v>
-      </c>
-      <c r="J34" s="110" t="str">
+      <c r="I34" s="103">
+        <v>0</v>
+      </c>
+      <c r="J34" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP12YOIS_Quote</v>
       </c>
-      <c r="K34" s="110" t="str">
+      <c r="K34" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_12YOIS</v>
       </c>
-      <c r="L34" s="109" t="str">
+      <c r="L34" s="101" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_12YOIS#0000</v>
-      </c>
-      <c r="M34" s="116" t="str">
+        <v>GBP_YCRH_12YOIS#0007</v>
+      </c>
+      <c r="M34" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="104"/>
-      <c r="P34" s="107">
+      <c r="N34" s="96"/>
+      <c r="P34" s="99">
         <f>_xll.qlRateHelperEarliestDate($L34)</f>
         <v>41653</v>
       </c>
-      <c r="Q34" s="107">
+      <c r="Q34" s="99">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
         <v>46036</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="106"/>
-      <c r="B35" s="114">
-        <v>0</v>
-      </c>
-      <c r="C35" s="113" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="106">
+        <v>0</v>
+      </c>
+      <c r="C35" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="113" t="str">
+      <c r="D35" s="105" t="str">
         <f t="shared" si="3"/>
         <v>15Y</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="112" t="str">
+      <c r="H35" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I35" s="111">
-        <v>0</v>
-      </c>
-      <c r="J35" s="110" t="str">
+      <c r="I35" s="103">
+        <v>0</v>
+      </c>
+      <c r="J35" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP15YOIS_Quote</v>
       </c>
-      <c r="K35" s="110" t="str">
+      <c r="K35" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_15YOIS</v>
       </c>
-      <c r="L35" s="109" t="str">
+      <c r="L35" s="101" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15YOIS#0000</v>
-      </c>
-      <c r="M35" s="116" t="str">
+        <v>GBP_YCRH_15YOIS#0007</v>
+      </c>
+      <c r="M35" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="104"/>
-      <c r="P35" s="107">
+      <c r="N35" s="96"/>
+      <c r="P35" s="99">
         <f>_xll.qlRateHelperEarliestDate($L35)</f>
         <v>41653</v>
       </c>
-      <c r="Q35" s="107">
+      <c r="Q35" s="99">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
         <v>47133</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="106"/>
-      <c r="B36" s="114">
-        <v>0</v>
-      </c>
-      <c r="C36" s="113" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="106">
+        <v>0</v>
+      </c>
+      <c r="C36" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="113" t="str">
+      <c r="D36" s="105" t="str">
         <f t="shared" si="3"/>
         <v>20Y</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="112" t="s">
+      <c r="G36" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="112" t="str">
+      <c r="H36" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I36" s="111">
-        <v>0</v>
-      </c>
-      <c r="J36" s="110" t="str">
+      <c r="I36" s="103">
+        <v>0</v>
+      </c>
+      <c r="J36" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP20YOIS_Quote</v>
       </c>
-      <c r="K36" s="110" t="str">
+      <c r="K36" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_20YOIS</v>
       </c>
-      <c r="L36" s="109" t="str">
+      <c r="L36" s="101" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_20YOIS#0000</v>
-      </c>
-      <c r="M36" s="116" t="str">
+        <v>GBP_YCRH_20YOIS#0007</v>
+      </c>
+      <c r="M36" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="104"/>
-      <c r="P36" s="107">
+      <c r="N36" s="96"/>
+      <c r="P36" s="99">
         <f>_xll.qlRateHelperEarliestDate($L36)</f>
         <v>41653</v>
       </c>
-      <c r="Q36" s="107">
+      <c r="Q36" s="99">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
         <v>48960</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="106"/>
-      <c r="B37" s="114">
-        <v>0</v>
-      </c>
-      <c r="C37" s="113" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="106">
+        <v>0</v>
+      </c>
+      <c r="C37" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="113" t="str">
+      <c r="D37" s="105" t="str">
         <f t="shared" si="3"/>
         <v>25Y</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="112" t="str">
+      <c r="H37" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I37" s="111">
-        <v>0</v>
-      </c>
-      <c r="J37" s="110" t="str">
+      <c r="I37" s="103">
+        <v>0</v>
+      </c>
+      <c r="J37" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP25YOIS_Quote</v>
       </c>
-      <c r="K37" s="110" t="str">
+      <c r="K37" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_25YOIS</v>
       </c>
-      <c r="L37" s="109" t="str">
+      <c r="L37" s="101" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_25YOIS#0000</v>
-      </c>
-      <c r="M37" s="116" t="str">
+        <v>GBP_YCRH_25YOIS#0007</v>
+      </c>
+      <c r="M37" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="104"/>
-      <c r="P37" s="107">
+      <c r="N37" s="96"/>
+      <c r="P37" s="99">
         <f>_xll.qlRateHelperEarliestDate($L37)</f>
         <v>41653</v>
       </c>
-      <c r="Q37" s="107">
+      <c r="Q37" s="99">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
         <v>50784</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="114">
-        <v>0</v>
-      </c>
-      <c r="C38" s="113" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="106">
+        <v>0</v>
+      </c>
+      <c r="C38" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="113" t="str">
+      <c r="D38" s="105" t="str">
         <f t="shared" si="3"/>
         <v>30Y</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="112" t="s">
+      <c r="G38" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="112" t="str">
+      <c r="H38" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I38" s="111">
-        <v>0</v>
-      </c>
-      <c r="J38" s="110" t="str">
+      <c r="I38" s="103">
+        <v>0</v>
+      </c>
+      <c r="J38" s="102" t="str">
         <f t="shared" si="1"/>
         <v>GBP30YOIS_Quote</v>
       </c>
-      <c r="K38" s="110" t="str">
+      <c r="K38" s="102" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YCRH_30YOIS</v>
       </c>
-      <c r="L38" s="109" t="str">
+      <c r="L38" s="101" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_30YOIS#0000</v>
-      </c>
-      <c r="M38" s="116" t="str">
+        <v>GBP_YCRH_30YOIS#0007</v>
+      </c>
+      <c r="M38" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="104"/>
-      <c r="P38" s="107">
+      <c r="N38" s="96"/>
+      <c r="P38" s="99">
         <f>_xll.qlRateHelperEarliestDate($L38)</f>
         <v>41653</v>
       </c>
-      <c r="Q38" s="107">
+      <c r="Q38" s="99">
         <f>_xll.qlRateHelperLatestDate($L38)</f>
         <v>52610</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="106"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -14647,1821 +12633,1821 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="104"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="96"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="106"/>
-      <c r="B40" s="117">
+      <c r="A40" s="98"/>
+      <c r="B40" s="109">
         <v>40556</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="113" t="str">
+      <c r="D40" s="105" t="str">
         <f t="shared" ref="D40:D63" si="4">UPPER(TEXT(B40,"MMMYY"))</f>
         <v>JAN11</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G40" s="112" t="s">
+      <c r="G40" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="112" t="str">
+      <c r="H40" s="104" t="str">
         <f t="shared" ref="H40:H74" si="5">MoneyMarketDayCounter</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I40" s="111">
-        <v>0</v>
-      </c>
-      <c r="J40" s="110" t="str">
+      <c r="I40" s="103">
+        <v>0</v>
+      </c>
+      <c r="J40" s="102" t="str">
         <f t="shared" ref="J40:J74" si="6">Currency&amp;$C40&amp;$D40&amp;E40&amp;QuoteSuffix</f>
         <v>GBPMPCJAN11OIS_Quote</v>
       </c>
-      <c r="K40" s="110" t="str">
+      <c r="K40" s="102" t="str">
         <f t="shared" ref="K40:K74" si="7">$K$2&amp;"_"&amp;$C40&amp;$D40&amp;$E40</f>
         <v>GBP_YCRH_MPCJAN11OIS</v>
       </c>
-      <c r="L40" s="109" t="str">
+      <c r="L40" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN11OIS#0000</v>
-      </c>
-      <c r="M40" s="116" t="str">
+        <v>GBP_YCRH_MPCJAN11OIS#0007</v>
+      </c>
+      <c r="M40" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="104"/>
-      <c r="P40" s="107">
+      <c r="N40" s="96"/>
+      <c r="P40" s="99">
         <f>_xll.qlRateHelperEarliestDate($L40)</f>
         <v>40556</v>
       </c>
-      <c r="Q40" s="107">
+      <c r="Q40" s="99">
         <f>_xll.qlRateHelperLatestDate($L40)</f>
         <v>40584</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="117">
+      <c r="A41" s="98"/>
+      <c r="B41" s="109">
         <v>40584</v>
       </c>
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="113" t="str">
+      <c r="D41" s="105" t="str">
         <f t="shared" si="4"/>
         <v>FEB11</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="112" t="s">
+      <c r="G41" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="112" t="str">
+      <c r="H41" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I41" s="111">
-        <v>0</v>
-      </c>
-      <c r="J41" s="110" t="str">
+      <c r="I41" s="103">
+        <v>0</v>
+      </c>
+      <c r="J41" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCFEB11OIS_Quote</v>
       </c>
-      <c r="K41" s="110" t="str">
+      <c r="K41" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCFEB11OIS</v>
       </c>
-      <c r="L41" s="109" t="str">
+      <c r="L41" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB11OIS#0000</v>
-      </c>
-      <c r="M41" s="116" t="str">
+        <v>GBP_YCRH_MPCFEB11OIS#0007</v>
+      </c>
+      <c r="M41" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="104"/>
-      <c r="P41" s="107">
+      <c r="N41" s="96"/>
+      <c r="P41" s="99">
         <f>_xll.qlRateHelperEarliestDate($L41)</f>
         <v>40584</v>
       </c>
-      <c r="Q41" s="107">
+      <c r="Q41" s="99">
         <f>_xll.qlRateHelperLatestDate($L41)</f>
         <v>40612</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="106"/>
-      <c r="B42" s="117">
+      <c r="A42" s="98"/>
+      <c r="B42" s="109">
         <v>40612</v>
       </c>
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="113" t="str">
+      <c r="D42" s="105" t="str">
         <f t="shared" si="4"/>
         <v>MAR11</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="112" t="s">
+      <c r="G42" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H42" s="112" t="str">
+      <c r="H42" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I42" s="111">
-        <v>0</v>
-      </c>
-      <c r="J42" s="110" t="str">
+      <c r="I42" s="103">
+        <v>0</v>
+      </c>
+      <c r="J42" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAR11OIS_Quote</v>
       </c>
-      <c r="K42" s="110" t="str">
+      <c r="K42" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCMAR11OIS</v>
       </c>
-      <c r="L42" s="109" t="str">
+      <c r="L42" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR11OIS#0000</v>
-      </c>
-      <c r="M42" s="116" t="str">
+        <v>GBP_YCRH_MPCMAR11OIS#0007</v>
+      </c>
+      <c r="M42" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="104"/>
-      <c r="P42" s="107">
+      <c r="N42" s="96"/>
+      <c r="P42" s="99">
         <f>_xll.qlRateHelperEarliestDate($L42)</f>
         <v>40612</v>
       </c>
-      <c r="Q42" s="107">
+      <c r="Q42" s="99">
         <f>_xll.qlRateHelperLatestDate($L42)</f>
         <v>40640</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="106"/>
-      <c r="B43" s="117">
+      <c r="A43" s="98"/>
+      <c r="B43" s="109">
         <v>40640</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="113" t="str">
+      <c r="D43" s="105" t="str">
         <f t="shared" si="4"/>
         <v>APR11</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="112" t="str">
+      <c r="H43" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I43" s="111">
-        <v>0</v>
-      </c>
-      <c r="J43" s="110" t="str">
+      <c r="I43" s="103">
+        <v>0</v>
+      </c>
+      <c r="J43" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAPR11OIS_Quote</v>
       </c>
-      <c r="K43" s="110" t="str">
+      <c r="K43" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCAPR11OIS</v>
       </c>
-      <c r="L43" s="109" t="str">
+      <c r="L43" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR11OIS#0000</v>
-      </c>
-      <c r="M43" s="116" t="str">
+        <v>GBP_YCRH_MPCAPR11OIS#0007</v>
+      </c>
+      <c r="M43" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
         <v/>
       </c>
-      <c r="N43" s="104"/>
-      <c r="P43" s="107">
+      <c r="N43" s="96"/>
+      <c r="P43" s="99">
         <f>_xll.qlRateHelperEarliestDate($L43)</f>
         <v>40640</v>
       </c>
-      <c r="Q43" s="107">
+      <c r="Q43" s="99">
         <f>_xll.qlRateHelperLatestDate($L43)</f>
         <v>40668</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="106"/>
-      <c r="B44" s="117">
+      <c r="A44" s="98"/>
+      <c r="B44" s="109">
         <v>40668</v>
       </c>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="113" t="str">
+      <c r="D44" s="105" t="str">
         <f t="shared" si="4"/>
         <v>MAY11</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F44" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="112" t="s">
+      <c r="G44" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="112" t="str">
+      <c r="H44" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I44" s="111">
-        <v>0</v>
-      </c>
-      <c r="J44" s="110" t="str">
+      <c r="I44" s="103">
+        <v>0</v>
+      </c>
+      <c r="J44" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAY11OIS_Quote</v>
       </c>
-      <c r="K44" s="110" t="str">
+      <c r="K44" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCMAY11OIS</v>
       </c>
-      <c r="L44" s="109" t="str">
+      <c r="L44" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY11OIS#0000</v>
-      </c>
-      <c r="M44" s="116" t="str">
+        <v>GBP_YCRH_MPCMAY11OIS#0007</v>
+      </c>
+      <c r="M44" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
         <v/>
       </c>
-      <c r="N44" s="104"/>
-      <c r="P44" s="107">
+      <c r="N44" s="96"/>
+      <c r="P44" s="99">
         <f>_xll.qlRateHelperEarliestDate($L44)</f>
         <v>40668</v>
       </c>
-      <c r="Q44" s="107">
+      <c r="Q44" s="99">
         <f>_xll.qlRateHelperLatestDate($L44)</f>
         <v>40703</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="106"/>
-      <c r="B45" s="117">
+      <c r="A45" s="98"/>
+      <c r="B45" s="109">
         <v>40703</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="113" t="str">
+      <c r="D45" s="105" t="str">
         <f t="shared" si="4"/>
         <v>JUN11</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="112" t="s">
+      <c r="F45" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="112" t="s">
+      <c r="G45" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H45" s="112" t="str">
+      <c r="H45" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I45" s="111">
-        <v>0</v>
-      </c>
-      <c r="J45" s="110" t="str">
+      <c r="I45" s="103">
+        <v>0</v>
+      </c>
+      <c r="J45" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUN11OIS_Quote</v>
       </c>
-      <c r="K45" s="110" t="str">
+      <c r="K45" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCJUN11OIS</v>
       </c>
-      <c r="L45" s="109" t="str">
+      <c r="L45" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN11OIS#0000</v>
-      </c>
-      <c r="M45" s="116" t="str">
+        <v>GBP_YCRH_MPCJUN11OIS#0007</v>
+      </c>
+      <c r="M45" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
         <v/>
       </c>
-      <c r="N45" s="104"/>
-      <c r="P45" s="107">
+      <c r="N45" s="96"/>
+      <c r="P45" s="99">
         <f>_xll.qlRateHelperEarliestDate($L45)</f>
         <v>40703</v>
       </c>
-      <c r="Q45" s="107">
+      <c r="Q45" s="99">
         <f>_xll.qlRateHelperLatestDate($L45)</f>
         <v>40731</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="106"/>
-      <c r="B46" s="117">
+      <c r="A46" s="98"/>
+      <c r="B46" s="109">
         <v>40731</v>
       </c>
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="113" t="str">
+      <c r="D46" s="105" t="str">
         <f t="shared" si="4"/>
         <v>JUL11</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="112" t="s">
+      <c r="F46" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G46" s="112" t="s">
+      <c r="G46" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H46" s="112" t="str">
+      <c r="H46" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I46" s="111">
-        <v>0</v>
-      </c>
-      <c r="J46" s="110" t="str">
+      <c r="I46" s="103">
+        <v>0</v>
+      </c>
+      <c r="J46" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUL11OIS_Quote</v>
       </c>
-      <c r="K46" s="110" t="str">
+      <c r="K46" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCJUL11OIS</v>
       </c>
-      <c r="L46" s="109" t="str">
+      <c r="L46" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL11OIS#0000</v>
-      </c>
-      <c r="M46" s="116" t="str">
+        <v>GBP_YCRH_MPCJUL11OIS#0007</v>
+      </c>
+      <c r="M46" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
         <v/>
       </c>
-      <c r="N46" s="104"/>
-      <c r="P46" s="107">
+      <c r="N46" s="96"/>
+      <c r="P46" s="99">
         <f>_xll.qlRateHelperEarliestDate($L46)</f>
         <v>40731</v>
       </c>
-      <c r="Q46" s="107">
+      <c r="Q46" s="99">
         <f>_xll.qlRateHelperLatestDate($L46)</f>
         <v>40759</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="106"/>
-      <c r="B47" s="117">
+      <c r="A47" s="98"/>
+      <c r="B47" s="109">
         <v>40759</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="113" t="str">
+      <c r="D47" s="105" t="str">
         <f t="shared" si="4"/>
         <v>AUG11</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="112" t="s">
+      <c r="G47" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H47" s="112" t="str">
+      <c r="H47" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I47" s="111">
-        <v>0</v>
-      </c>
-      <c r="J47" s="110" t="str">
+      <c r="I47" s="103">
+        <v>0</v>
+      </c>
+      <c r="J47" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAUG11OIS_Quote</v>
       </c>
-      <c r="K47" s="110" t="str">
+      <c r="K47" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCAUG11OIS</v>
       </c>
-      <c r="L47" s="109" t="str">
+      <c r="L47" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG11OIS#0000</v>
-      </c>
-      <c r="M47" s="116" t="str">
+        <v>GBP_YCRH_MPCAUG11OIS#0007</v>
+      </c>
+      <c r="M47" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
         <v/>
       </c>
-      <c r="N47" s="104"/>
-      <c r="P47" s="107">
+      <c r="N47" s="96"/>
+      <c r="P47" s="99">
         <f>_xll.qlRateHelperEarliestDate($L47)</f>
         <v>40759</v>
       </c>
-      <c r="Q47" s="107">
+      <c r="Q47" s="99">
         <f>_xll.qlRateHelperLatestDate($L47)</f>
         <v>40794</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="106"/>
-      <c r="B48" s="117">
+      <c r="A48" s="98"/>
+      <c r="B48" s="109">
         <v>40794</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="113" t="str">
+      <c r="D48" s="105" t="str">
         <f t="shared" si="4"/>
         <v>SEP11</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="112" t="s">
+      <c r="G48" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="112" t="str">
+      <c r="H48" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I48" s="111">
-        <v>0</v>
-      </c>
-      <c r="J48" s="110" t="str">
+      <c r="I48" s="103">
+        <v>0</v>
+      </c>
+      <c r="J48" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCSEP11OIS_Quote</v>
       </c>
-      <c r="K48" s="110" t="str">
+      <c r="K48" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCSEP11OIS</v>
       </c>
-      <c r="L48" s="109" t="str">
+      <c r="L48" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP11OIS#0000</v>
-      </c>
-      <c r="M48" s="116" t="str">
+        <v>GBP_YCRH_MPCSEP11OIS#0007</v>
+      </c>
+      <c r="M48" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
         <v/>
       </c>
-      <c r="N48" s="104"/>
-      <c r="P48" s="107">
+      <c r="N48" s="96"/>
+      <c r="P48" s="99">
         <f>_xll.qlRateHelperEarliestDate($L48)</f>
         <v>40794</v>
       </c>
-      <c r="Q48" s="107">
+      <c r="Q48" s="99">
         <f>_xll.qlRateHelperLatestDate($L48)</f>
         <v>40822</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="106"/>
-      <c r="B49" s="117">
+      <c r="A49" s="98"/>
+      <c r="B49" s="109">
         <v>40822</v>
       </c>
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="113" t="str">
+      <c r="D49" s="105" t="str">
         <f t="shared" si="4"/>
         <v>OCT11</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="112" t="s">
+      <c r="F49" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="112" t="s">
+      <c r="G49" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="112" t="str">
+      <c r="H49" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I49" s="111">
-        <v>0</v>
-      </c>
-      <c r="J49" s="110" t="str">
+      <c r="I49" s="103">
+        <v>0</v>
+      </c>
+      <c r="J49" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOCT11OIS_Quote</v>
       </c>
-      <c r="K49" s="110" t="str">
+      <c r="K49" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOCT11OIS</v>
       </c>
-      <c r="L49" s="109" t="str">
+      <c r="L49" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT11OIS#0000</v>
-      </c>
-      <c r="M49" s="116" t="str">
+        <v>GBP_YCRH_MPCOCT11OIS#0007</v>
+      </c>
+      <c r="M49" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
         <v/>
       </c>
-      <c r="N49" s="104"/>
-      <c r="P49" s="107">
+      <c r="N49" s="96"/>
+      <c r="P49" s="99">
         <f>_xll.qlRateHelperEarliestDate($L49)</f>
         <v>40822</v>
       </c>
-      <c r="Q49" s="107">
+      <c r="Q49" s="99">
         <f>_xll.qlRateHelperLatestDate($L49)</f>
         <v>40857</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="106"/>
-      <c r="B50" s="117">
+      <c r="A50" s="98"/>
+      <c r="B50" s="109">
         <v>40857</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="113" t="str">
+      <c r="D50" s="105" t="str">
         <f t="shared" si="4"/>
         <v>NOV11</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="112" t="s">
+      <c r="F50" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G50" s="112" t="s">
+      <c r="G50" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H50" s="112" t="str">
+      <c r="H50" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I50" s="111">
-        <v>0</v>
-      </c>
-      <c r="J50" s="110" t="str">
+      <c r="I50" s="103">
+        <v>0</v>
+      </c>
+      <c r="J50" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCNOV11OIS_Quote</v>
       </c>
-      <c r="K50" s="110" t="str">
+      <c r="K50" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCNOV11OIS</v>
       </c>
-      <c r="L50" s="109" t="str">
+      <c r="L50" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV11OIS#0000</v>
-      </c>
-      <c r="M50" s="116" t="str">
+        <v>GBP_YCRH_MPCNOV11OIS#0007</v>
+      </c>
+      <c r="M50" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
         <v/>
       </c>
-      <c r="N50" s="104"/>
-      <c r="P50" s="107">
+      <c r="N50" s="96"/>
+      <c r="P50" s="99">
         <f>_xll.qlRateHelperEarliestDate($L50)</f>
         <v>40857</v>
       </c>
-      <c r="Q50" s="107">
+      <c r="Q50" s="99">
         <f>_xll.qlRateHelperLatestDate($L50)</f>
         <v>40885</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="106"/>
-      <c r="B51" s="117">
+      <c r="A51" s="98"/>
+      <c r="B51" s="109">
         <v>40885</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="113" t="str">
+      <c r="D51" s="105" t="str">
         <f t="shared" si="4"/>
         <v>DEC11</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="112" t="s">
+      <c r="F51" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G51" s="112" t="s">
+      <c r="G51" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="112" t="str">
+      <c r="H51" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I51" s="111">
-        <v>0</v>
-      </c>
-      <c r="J51" s="110" t="str">
+      <c r="I51" s="103">
+        <v>0</v>
+      </c>
+      <c r="J51" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCDEC11OIS_Quote</v>
       </c>
-      <c r="K51" s="110" t="str">
+      <c r="K51" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCDEC11OIS</v>
       </c>
-      <c r="L51" s="109" t="str">
+      <c r="L51" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCDEC11OIS#0000</v>
-      </c>
-      <c r="M51" s="116" t="str">
+        <v>GBP_YCRH_MPCDEC11OIS#0007</v>
+      </c>
+      <c r="M51" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
         <v/>
       </c>
-      <c r="N51" s="104"/>
-      <c r="P51" s="107">
+      <c r="N51" s="96"/>
+      <c r="P51" s="99">
         <f>_xll.qlRateHelperEarliestDate($L51)</f>
         <v>40885</v>
       </c>
-      <c r="Q51" s="107">
+      <c r="Q51" s="99">
         <f>_xll.qlRateHelperLatestDate($L51)</f>
         <v>40913</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="106"/>
-      <c r="B52" s="117">
+      <c r="A52" s="98"/>
+      <c r="B52" s="109">
         <v>40913</v>
       </c>
-      <c r="C52" s="114" t="s">
+      <c r="C52" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="113" t="str">
+      <c r="D52" s="105" t="str">
         <f t="shared" si="4"/>
         <v>JAN12</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="112" t="s">
+      <c r="F52" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G52" s="112" t="s">
+      <c r="G52" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H52" s="112" t="str">
+      <c r="H52" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I52" s="111">
-        <v>0</v>
-      </c>
-      <c r="J52" s="110" t="str">
+      <c r="I52" s="103">
+        <v>0</v>
+      </c>
+      <c r="J52" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJAN12OIS_Quote</v>
       </c>
-      <c r="K52" s="110" t="str">
+      <c r="K52" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCJAN12OIS</v>
       </c>
-      <c r="L52" s="109" t="str">
+      <c r="L52" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN12OIS#0000</v>
-      </c>
-      <c r="M52" s="116" t="str">
+        <v>GBP_YCRH_MPCJAN12OIS#0007</v>
+      </c>
+      <c r="M52" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
         <v/>
       </c>
-      <c r="N52" s="104"/>
-      <c r="P52" s="107">
+      <c r="N52" s="96"/>
+      <c r="P52" s="99">
         <f>_xll.qlRateHelperEarliestDate($L52)</f>
         <v>40913</v>
       </c>
-      <c r="Q52" s="107">
+      <c r="Q52" s="99">
         <f>_xll.qlRateHelperLatestDate($L52)</f>
         <v>40948</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="106"/>
-      <c r="B53" s="117">
+      <c r="A53" s="98"/>
+      <c r="B53" s="109">
         <v>40948</v>
       </c>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="113" t="str">
+      <c r="D53" s="105" t="str">
         <f t="shared" si="4"/>
         <v>FEB12</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="112" t="s">
+      <c r="F53" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G53" s="112" t="s">
+      <c r="G53" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="112" t="str">
+      <c r="H53" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I53" s="111">
-        <v>0</v>
-      </c>
-      <c r="J53" s="110" t="str">
+      <c r="I53" s="103">
+        <v>0</v>
+      </c>
+      <c r="J53" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCFEB12OIS_Quote</v>
       </c>
-      <c r="K53" s="110" t="str">
+      <c r="K53" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCFEB12OIS</v>
       </c>
-      <c r="L53" s="109" t="str">
+      <c r="L53" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB12OIS#0000</v>
-      </c>
-      <c r="M53" s="116" t="str">
+        <v>GBP_YCRH_MPCFEB12OIS#0007</v>
+      </c>
+      <c r="M53" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
         <v/>
       </c>
-      <c r="N53" s="104"/>
-      <c r="P53" s="107">
+      <c r="N53" s="96"/>
+      <c r="P53" s="99">
         <f>_xll.qlRateHelperEarliestDate($L53)</f>
         <v>40948</v>
       </c>
-      <c r="Q53" s="107">
+      <c r="Q53" s="99">
         <f>_xll.qlRateHelperLatestDate($L53)</f>
         <v>40976</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="106"/>
-      <c r="B54" s="117">
+      <c r="A54" s="98"/>
+      <c r="B54" s="109">
         <v>40976</v>
       </c>
-      <c r="C54" s="114" t="s">
+      <c r="C54" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="113" t="str">
+      <c r="D54" s="105" t="str">
         <f t="shared" si="4"/>
         <v>MAR12</v>
       </c>
-      <c r="E54" s="113" t="s">
+      <c r="E54" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G54" s="112" t="s">
+      <c r="G54" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="112" t="str">
+      <c r="H54" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I54" s="111">
-        <v>0</v>
-      </c>
-      <c r="J54" s="110" t="str">
+      <c r="I54" s="103">
+        <v>0</v>
+      </c>
+      <c r="J54" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAR12OIS_Quote</v>
       </c>
-      <c r="K54" s="110" t="str">
+      <c r="K54" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCMAR12OIS</v>
       </c>
-      <c r="L54" s="109" t="str">
+      <c r="L54" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR12OIS#0000</v>
-      </c>
-      <c r="M54" s="116" t="str">
+        <v>GBP_YCRH_MPCMAR12OIS#0007</v>
+      </c>
+      <c r="M54" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
         <v/>
       </c>
-      <c r="N54" s="104"/>
-      <c r="P54" s="107">
+      <c r="N54" s="96"/>
+      <c r="P54" s="99">
         <f>_xll.qlRateHelperEarliestDate($L54)</f>
         <v>40976</v>
       </c>
-      <c r="Q54" s="107">
+      <c r="Q54" s="99">
         <f>_xll.qlRateHelperLatestDate($L54)</f>
         <v>41004</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="106"/>
-      <c r="B55" s="117">
+      <c r="A55" s="98"/>
+      <c r="B55" s="109">
         <v>41004</v>
       </c>
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="113" t="str">
+      <c r="D55" s="105" t="str">
         <f t="shared" si="4"/>
         <v>APR12</v>
       </c>
-      <c r="E55" s="113" t="s">
+      <c r="E55" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="112" t="s">
+      <c r="F55" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G55" s="112" t="s">
+      <c r="G55" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H55" s="112" t="str">
+      <c r="H55" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I55" s="111">
-        <v>0</v>
-      </c>
-      <c r="J55" s="110" t="str">
+      <c r="I55" s="103">
+        <v>0</v>
+      </c>
+      <c r="J55" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAPR12OIS_Quote</v>
       </c>
-      <c r="K55" s="110" t="str">
+      <c r="K55" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCAPR12OIS</v>
       </c>
-      <c r="L55" s="109" t="str">
+      <c r="L55" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR12OIS#0000</v>
-      </c>
-      <c r="M55" s="116" t="str">
+        <v>GBP_YCRH_MPCAPR12OIS#0007</v>
+      </c>
+      <c r="M55" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
         <v/>
       </c>
-      <c r="N55" s="104"/>
-      <c r="P55" s="107">
+      <c r="N55" s="96"/>
+      <c r="P55" s="99">
         <f>_xll.qlRateHelperEarliestDate($L55)</f>
         <v>41004</v>
       </c>
-      <c r="Q55" s="107">
+      <c r="Q55" s="99">
         <f>_xll.qlRateHelperLatestDate($L55)</f>
         <v>41039</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="106"/>
-      <c r="B56" s="117">
+      <c r="A56" s="98"/>
+      <c r="B56" s="109">
         <v>41039</v>
       </c>
-      <c r="C56" s="114" t="s">
+      <c r="C56" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="113" t="str">
+      <c r="D56" s="105" t="str">
         <f t="shared" si="4"/>
         <v>MAY12</v>
       </c>
-      <c r="E56" s="113" t="s">
+      <c r="E56" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="112" t="s">
+      <c r="F56" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G56" s="112" t="s">
+      <c r="G56" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H56" s="112" t="str">
+      <c r="H56" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I56" s="111">
-        <v>0</v>
-      </c>
-      <c r="J56" s="110" t="str">
+      <c r="I56" s="103">
+        <v>0</v>
+      </c>
+      <c r="J56" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAY12OIS_Quote</v>
       </c>
-      <c r="K56" s="110" t="str">
+      <c r="K56" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCMAY12OIS</v>
       </c>
-      <c r="L56" s="109" t="str">
+      <c r="L56" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY12OIS#0000</v>
-      </c>
-      <c r="M56" s="116" t="str">
+        <v>GBP_YCRH_MPCMAY12OIS#0007</v>
+      </c>
+      <c r="M56" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
         <v/>
       </c>
-      <c r="N56" s="104"/>
-      <c r="P56" s="107">
+      <c r="N56" s="96"/>
+      <c r="P56" s="99">
         <f>_xll.qlRateHelperEarliestDate($L56)</f>
         <v>41039</v>
       </c>
-      <c r="Q56" s="107">
+      <c r="Q56" s="99">
         <f>_xll.qlRateHelperLatestDate($L56)</f>
         <v>41067</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="106"/>
-      <c r="B57" s="117">
+      <c r="A57" s="98"/>
+      <c r="B57" s="109">
         <v>41067</v>
       </c>
-      <c r="C57" s="114" t="s">
+      <c r="C57" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="113" t="str">
+      <c r="D57" s="105" t="str">
         <f t="shared" si="4"/>
         <v>JUN12</v>
       </c>
-      <c r="E57" s="113" t="s">
+      <c r="E57" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="112" t="s">
+      <c r="F57" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="112" t="s">
+      <c r="G57" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H57" s="112" t="str">
+      <c r="H57" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I57" s="111">
-        <v>0</v>
-      </c>
-      <c r="J57" s="110" t="str">
+      <c r="I57" s="103">
+        <v>0</v>
+      </c>
+      <c r="J57" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUN12OIS_Quote</v>
       </c>
-      <c r="K57" s="110" t="str">
+      <c r="K57" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCJUN12OIS</v>
       </c>
-      <c r="L57" s="109" t="str">
+      <c r="L57" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN12OIS#0000</v>
-      </c>
-      <c r="M57" s="116" t="str">
+        <v>GBP_YCRH_MPCJUN12OIS#0007</v>
+      </c>
+      <c r="M57" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
         <v/>
       </c>
-      <c r="N57" s="104"/>
-      <c r="P57" s="107">
+      <c r="N57" s="96"/>
+      <c r="P57" s="99">
         <f>_xll.qlRateHelperEarliestDate($L57)</f>
         <v>41067</v>
       </c>
-      <c r="Q57" s="107">
+      <c r="Q57" s="99">
         <f>_xll.qlRateHelperLatestDate($L57)</f>
         <v>41095</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="106"/>
-      <c r="B58" s="117">
+      <c r="A58" s="98"/>
+      <c r="B58" s="109">
         <v>41095</v>
       </c>
-      <c r="C58" s="114" t="s">
+      <c r="C58" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="113" t="str">
+      <c r="D58" s="105" t="str">
         <f t="shared" si="4"/>
         <v>JUL12</v>
       </c>
-      <c r="E58" s="113" t="s">
+      <c r="E58" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="112" t="s">
+      <c r="F58" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G58" s="112" t="s">
+      <c r="G58" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H58" s="112" t="str">
+      <c r="H58" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I58" s="111">
-        <v>0</v>
-      </c>
-      <c r="J58" s="110" t="str">
+      <c r="I58" s="103">
+        <v>0</v>
+      </c>
+      <c r="J58" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUL12OIS_Quote</v>
       </c>
-      <c r="K58" s="110" t="str">
+      <c r="K58" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCJUL12OIS</v>
       </c>
-      <c r="L58" s="109" t="str">
+      <c r="L58" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL12OIS#0000</v>
-      </c>
-      <c r="M58" s="116" t="str">
+        <v>GBP_YCRH_MPCJUL12OIS#0007</v>
+      </c>
+      <c r="M58" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
         <v/>
       </c>
-      <c r="N58" s="104"/>
-      <c r="P58" s="107">
+      <c r="N58" s="96"/>
+      <c r="P58" s="99">
         <f>_xll.qlRateHelperEarliestDate($L58)</f>
         <v>41095</v>
       </c>
-      <c r="Q58" s="107">
+      <c r="Q58" s="99">
         <f>_xll.qlRateHelperLatestDate($L58)</f>
         <v>41123</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="106"/>
-      <c r="B59" s="117">
+      <c r="A59" s="98"/>
+      <c r="B59" s="109">
         <v>41123</v>
       </c>
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="113" t="str">
+      <c r="D59" s="105" t="str">
         <f t="shared" si="4"/>
         <v>AUG12</v>
       </c>
-      <c r="E59" s="113" t="s">
+      <c r="E59" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="112" t="s">
+      <c r="F59" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="112" t="s">
+      <c r="G59" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H59" s="112" t="str">
+      <c r="H59" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I59" s="111">
-        <v>0</v>
-      </c>
-      <c r="J59" s="110" t="str">
+      <c r="I59" s="103">
+        <v>0</v>
+      </c>
+      <c r="J59" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAUG12OIS_Quote</v>
       </c>
-      <c r="K59" s="110" t="str">
+      <c r="K59" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCAUG12OIS</v>
       </c>
-      <c r="L59" s="109" t="str">
+      <c r="L59" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG12OIS#0000</v>
-      </c>
-      <c r="M59" s="116" t="str">
+        <v>GBP_YCRH_MPCAUG12OIS#0007</v>
+      </c>
+      <c r="M59" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
         <v/>
       </c>
-      <c r="N59" s="104"/>
-      <c r="P59" s="107">
+      <c r="N59" s="96"/>
+      <c r="P59" s="99">
         <f>_xll.qlRateHelperEarliestDate($L59)</f>
         <v>41123</v>
       </c>
-      <c r="Q59" s="107">
+      <c r="Q59" s="99">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
         <v>41158</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="106"/>
-      <c r="B60" s="117">
+      <c r="A60" s="98"/>
+      <c r="B60" s="109">
         <v>41158</v>
       </c>
-      <c r="C60" s="114" t="s">
+      <c r="C60" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="113" t="str">
+      <c r="D60" s="105" t="str">
         <f t="shared" si="4"/>
         <v>SEP12</v>
       </c>
-      <c r="E60" s="113" t="s">
+      <c r="E60" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="112" t="s">
+      <c r="F60" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G60" s="112" t="s">
+      <c r="G60" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H60" s="112" t="str">
+      <c r="H60" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I60" s="111">
-        <v>0</v>
-      </c>
-      <c r="J60" s="110" t="str">
+      <c r="I60" s="103">
+        <v>0</v>
+      </c>
+      <c r="J60" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCSEP12OIS_Quote</v>
       </c>
-      <c r="K60" s="110" t="str">
+      <c r="K60" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCSEP12OIS</v>
       </c>
-      <c r="L60" s="109" t="str">
+      <c r="L60" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP12OIS#0000</v>
-      </c>
-      <c r="M60" s="116" t="str">
+        <v>GBP_YCRH_MPCSEP12OIS#0007</v>
+      </c>
+      <c r="M60" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
         <v/>
       </c>
-      <c r="N60" s="104"/>
-      <c r="P60" s="107">
+      <c r="N60" s="96"/>
+      <c r="P60" s="99">
         <f>_xll.qlRateHelperEarliestDate($L60)</f>
         <v>41158</v>
       </c>
-      <c r="Q60" s="107">
+      <c r="Q60" s="99">
         <f>_xll.qlRateHelperLatestDate($L60)</f>
         <v>41186</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="106"/>
-      <c r="B61" s="117">
+      <c r="A61" s="98"/>
+      <c r="B61" s="109">
         <v>41186</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="113" t="str">
+      <c r="D61" s="105" t="str">
         <f t="shared" si="4"/>
         <v>OCT12</v>
       </c>
-      <c r="E61" s="113" t="s">
+      <c r="E61" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="112" t="s">
+      <c r="F61" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="112" t="s">
+      <c r="G61" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="112" t="str">
+      <c r="H61" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I61" s="111">
-        <v>0</v>
-      </c>
-      <c r="J61" s="110" t="str">
+      <c r="I61" s="103">
+        <v>0</v>
+      </c>
+      <c r="J61" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOCT12OIS_Quote</v>
       </c>
-      <c r="K61" s="110" t="str">
+      <c r="K61" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOCT12OIS</v>
       </c>
-      <c r="L61" s="109" t="str">
+      <c r="L61" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT12OIS#0000</v>
-      </c>
-      <c r="M61" s="116" t="str">
+        <v>GBP_YCRH_MPCOCT12OIS#0007</v>
+      </c>
+      <c r="M61" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
         <v/>
       </c>
-      <c r="N61" s="104"/>
-      <c r="P61" s="107">
+      <c r="N61" s="96"/>
+      <c r="P61" s="99">
         <f>_xll.qlRateHelperEarliestDate($L61)</f>
         <v>41186</v>
       </c>
-      <c r="Q61" s="107">
+      <c r="Q61" s="99">
         <f>_xll.qlRateHelperLatestDate($L61)</f>
         <v>41221</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="106"/>
-      <c r="B62" s="117">
+      <c r="A62" s="98"/>
+      <c r="B62" s="109">
         <v>41221</v>
       </c>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="113" t="str">
+      <c r="D62" s="105" t="str">
         <f t="shared" si="4"/>
         <v>NOV12</v>
       </c>
-      <c r="E62" s="113" t="s">
+      <c r="E62" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="112" t="s">
+      <c r="F62" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G62" s="112" t="s">
+      <c r="G62" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H62" s="112" t="str">
+      <c r="H62" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I62" s="111">
-        <v>0</v>
-      </c>
-      <c r="J62" s="110" t="str">
+      <c r="I62" s="103">
+        <v>0</v>
+      </c>
+      <c r="J62" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCNOV12OIS_Quote</v>
       </c>
-      <c r="K62" s="110" t="str">
+      <c r="K62" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCNOV12OIS</v>
       </c>
-      <c r="L62" s="109" t="str">
+      <c r="L62" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV12OIS#0000</v>
-      </c>
-      <c r="M62" s="116" t="str">
+        <v>GBP_YCRH_MPCNOV12OIS#0007</v>
+      </c>
+      <c r="M62" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
         <v/>
       </c>
-      <c r="N62" s="104"/>
-      <c r="P62" s="107">
+      <c r="N62" s="96"/>
+      <c r="P62" s="99">
         <f>_xll.qlRateHelperEarliestDate($L62)</f>
         <v>41221</v>
       </c>
-      <c r="Q62" s="107">
+      <c r="Q62" s="99">
         <f>_xll.qlRateHelperLatestDate($L62)</f>
         <v>41249</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="106"/>
-      <c r="B63" s="117">
+      <c r="A63" s="98"/>
+      <c r="B63" s="109">
         <v>41249</v>
       </c>
-      <c r="C63" s="114" t="s">
+      <c r="C63" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="113" t="str">
+      <c r="D63" s="105" t="str">
         <f t="shared" si="4"/>
         <v>DEC12</v>
       </c>
-      <c r="E63" s="113" t="s">
+      <c r="E63" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="112" t="s">
+      <c r="F63" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G63" s="112" t="s">
+      <c r="G63" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H63" s="112" t="str">
+      <c r="H63" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I63" s="111">
-        <v>0</v>
-      </c>
-      <c r="J63" s="110" t="str">
+      <c r="I63" s="103">
+        <v>0</v>
+      </c>
+      <c r="J63" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCDEC12OIS_Quote</v>
       </c>
-      <c r="K63" s="110" t="str">
+      <c r="K63" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCDEC12OIS</v>
       </c>
-      <c r="L63" s="109" t="e">
+      <c r="L63" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="116" t="str">
+      <c r="M63" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N63" s="104"/>
-      <c r="P63" s="107" t="e">
+      <c r="N63" s="96"/>
+      <c r="P63" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q63" s="107" t="e">
+      <c r="Q63" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L63)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="106"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="114" t="s">
+      <c r="A64" s="98"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113" t="s">
+      <c r="D64" s="105"/>
+      <c r="E64" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="112" t="s">
+      <c r="F64" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="112" t="s">
+      <c r="G64" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H64" s="112" t="str">
+      <c r="H64" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I64" s="111">
-        <v>0</v>
-      </c>
-      <c r="J64" s="110" t="str">
+      <c r="I64" s="103">
+        <v>0</v>
+      </c>
+      <c r="J64" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K64" s="110" t="str">
+      <c r="K64" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L64" s="109" t="e">
+      <c r="L64" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="116" t="str">
+      <c r="M64" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N64" s="104"/>
-      <c r="P64" s="107" t="e">
+      <c r="N64" s="96"/>
+      <c r="P64" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q64" s="107" t="e">
+      <c r="Q64" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L64)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="106"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="114" t="s">
+      <c r="A65" s="98"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113" t="s">
+      <c r="D65" s="105"/>
+      <c r="E65" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="112" t="s">
+      <c r="F65" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G65" s="112" t="s">
+      <c r="G65" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H65" s="112" t="str">
+      <c r="H65" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I65" s="111">
-        <v>0</v>
-      </c>
-      <c r="J65" s="110" t="str">
+      <c r="I65" s="103">
+        <v>0</v>
+      </c>
+      <c r="J65" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K65" s="110" t="str">
+      <c r="K65" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L65" s="109" t="e">
+      <c r="L65" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="108"/>
-      <c r="N65" s="104"/>
-      <c r="P65" s="107" t="e">
+      <c r="M65" s="100"/>
+      <c r="N65" s="96"/>
+      <c r="P65" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q65" s="107" t="e">
+      <c r="Q65" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L65)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="106"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="114" t="s">
+      <c r="A66" s="98"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113" t="s">
+      <c r="D66" s="105"/>
+      <c r="E66" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="112" t="s">
+      <c r="F66" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G66" s="112" t="s">
+      <c r="G66" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H66" s="112" t="str">
+      <c r="H66" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I66" s="111">
-        <v>0</v>
-      </c>
-      <c r="J66" s="110" t="str">
+      <c r="I66" s="103">
+        <v>0</v>
+      </c>
+      <c r="J66" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K66" s="110" t="str">
+      <c r="K66" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L66" s="109" t="e">
+      <c r="L66" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="108"/>
-      <c r="N66" s="104"/>
-      <c r="P66" s="107" t="e">
+      <c r="M66" s="100"/>
+      <c r="N66" s="96"/>
+      <c r="P66" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q66" s="107" t="e">
+      <c r="Q66" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L66)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="106"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="114" t="s">
+      <c r="A67" s="98"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113" t="s">
+      <c r="D67" s="105"/>
+      <c r="E67" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="112" t="s">
+      <c r="F67" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G67" s="112" t="s">
+      <c r="G67" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H67" s="112" t="str">
+      <c r="H67" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I67" s="111">
-        <v>0</v>
-      </c>
-      <c r="J67" s="110" t="str">
+      <c r="I67" s="103">
+        <v>0</v>
+      </c>
+      <c r="J67" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K67" s="110" t="str">
+      <c r="K67" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L67" s="109" t="e">
+      <c r="L67" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="108"/>
-      <c r="N67" s="104"/>
-      <c r="P67" s="107" t="e">
+      <c r="M67" s="100"/>
+      <c r="N67" s="96"/>
+      <c r="P67" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q67" s="107" t="e">
+      <c r="Q67" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L67)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="106"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="114" t="s">
+      <c r="A68" s="98"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113" t="s">
+      <c r="D68" s="105"/>
+      <c r="E68" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="112" t="s">
+      <c r="F68" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G68" s="112" t="s">
+      <c r="G68" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H68" s="112" t="str">
+      <c r="H68" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I68" s="111">
-        <v>0</v>
-      </c>
-      <c r="J68" s="110" t="str">
+      <c r="I68" s="103">
+        <v>0</v>
+      </c>
+      <c r="J68" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K68" s="110" t="str">
+      <c r="K68" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L68" s="109" t="e">
+      <c r="L68" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="108"/>
-      <c r="N68" s="104"/>
-      <c r="P68" s="107" t="e">
+      <c r="M68" s="100"/>
+      <c r="N68" s="96"/>
+      <c r="P68" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q68" s="107" t="e">
+      <c r="Q68" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L68)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="106"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="114" t="s">
+      <c r="A69" s="98"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113" t="s">
+      <c r="D69" s="105"/>
+      <c r="E69" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="112" t="s">
+      <c r="F69" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G69" s="112" t="s">
+      <c r="G69" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H69" s="112" t="str">
+      <c r="H69" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I69" s="111">
-        <v>0</v>
-      </c>
-      <c r="J69" s="110" t="str">
+      <c r="I69" s="103">
+        <v>0</v>
+      </c>
+      <c r="J69" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K69" s="110" t="str">
+      <c r="K69" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L69" s="109" t="e">
+      <c r="L69" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="108"/>
-      <c r="N69" s="104"/>
-      <c r="P69" s="107" t="e">
+      <c r="M69" s="100"/>
+      <c r="N69" s="96"/>
+      <c r="P69" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q69" s="107" t="e">
+      <c r="Q69" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L69)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="106"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="114" t="s">
+      <c r="A70" s="98"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113" t="s">
+      <c r="D70" s="105"/>
+      <c r="E70" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="112" t="s">
+      <c r="F70" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G70" s="112" t="s">
+      <c r="G70" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H70" s="112" t="str">
+      <c r="H70" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I70" s="111">
-        <v>0</v>
-      </c>
-      <c r="J70" s="110" t="str">
+      <c r="I70" s="103">
+        <v>0</v>
+      </c>
+      <c r="J70" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K70" s="110" t="str">
+      <c r="K70" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L70" s="109" t="e">
+      <c r="L70" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="108"/>
-      <c r="N70" s="104"/>
-      <c r="P70" s="107" t="e">
+      <c r="M70" s="100"/>
+      <c r="N70" s="96"/>
+      <c r="P70" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q70" s="107" t="e">
+      <c r="Q70" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L70)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="106"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="114" t="s">
+      <c r="A71" s="98"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113" t="s">
+      <c r="D71" s="105"/>
+      <c r="E71" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="112" t="s">
+      <c r="F71" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G71" s="112" t="s">
+      <c r="G71" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H71" s="112" t="str">
+      <c r="H71" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I71" s="111">
-        <v>0</v>
-      </c>
-      <c r="J71" s="110" t="str">
+      <c r="I71" s="103">
+        <v>0</v>
+      </c>
+      <c r="J71" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K71" s="110" t="str">
+      <c r="K71" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L71" s="109" t="e">
+      <c r="L71" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="108"/>
-      <c r="N71" s="104"/>
-      <c r="P71" s="107" t="e">
+      <c r="M71" s="100"/>
+      <c r="N71" s="96"/>
+      <c r="P71" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q71" s="107" t="e">
+      <c r="Q71" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L71)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="106"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="114" t="s">
+      <c r="A72" s="98"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113" t="s">
+      <c r="D72" s="105"/>
+      <c r="E72" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="112" t="s">
+      <c r="F72" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="112" t="s">
+      <c r="G72" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H72" s="112" t="str">
+      <c r="H72" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I72" s="111">
-        <v>0</v>
-      </c>
-      <c r="J72" s="110" t="str">
+      <c r="I72" s="103">
+        <v>0</v>
+      </c>
+      <c r="J72" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K72" s="110" t="str">
+      <c r="K72" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L72" s="109" t="e">
+      <c r="L72" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="108"/>
-      <c r="N72" s="104"/>
-      <c r="P72" s="107" t="e">
+      <c r="M72" s="100"/>
+      <c r="N72" s="96"/>
+      <c r="P72" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q72" s="107" t="e">
+      <c r="Q72" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L72)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="106"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="114" t="s">
+      <c r="A73" s="98"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113" t="s">
+      <c r="D73" s="105"/>
+      <c r="E73" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="112" t="s">
+      <c r="F73" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G73" s="112" t="s">
+      <c r="G73" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H73" s="112" t="str">
+      <c r="H73" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I73" s="111">
-        <v>0</v>
-      </c>
-      <c r="J73" s="110" t="str">
+      <c r="I73" s="103">
+        <v>0</v>
+      </c>
+      <c r="J73" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K73" s="110" t="str">
+      <c r="K73" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L73" s="109" t="e">
+      <c r="L73" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="108"/>
-      <c r="N73" s="104"/>
-      <c r="P73" s="107" t="e">
+      <c r="M73" s="100"/>
+      <c r="N73" s="96"/>
+      <c r="P73" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q73" s="107" t="e">
+      <c r="Q73" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L73)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="106"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="114" t="s">
+      <c r="A74" s="98"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113" t="s">
+      <c r="D74" s="105"/>
+      <c r="E74" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="112" t="s">
+      <c r="F74" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="112" t="s">
+      <c r="G74" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H74" s="112" t="str">
+      <c r="H74" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I74" s="111">
-        <v>0</v>
-      </c>
-      <c r="J74" s="110" t="str">
+      <c r="I74" s="103">
+        <v>0</v>
+      </c>
+      <c r="J74" s="102" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K74" s="110" t="str">
+      <c r="K74" s="102" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCRH_MPCOIS</v>
       </c>
-      <c r="L74" s="109" t="e">
+      <c r="L74" s="101" t="e">
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="108"/>
-      <c r="N74" s="104"/>
-      <c r="P74" s="107" t="e">
+      <c r="M74" s="100"/>
+      <c r="N74" s="96"/>
+      <c r="P74" s="99" t="e">
         <f>_xll.qlRateHelperEarliestDate($L74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q74" s="107" t="e">
+      <c r="Q74" s="99" t="e">
         <f>_xll.qlRateHelperLatestDate($L74)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="106"/>
+      <c r="A75" s="98"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -16470,27 +14456,27 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="39"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="105"/>
-      <c r="N75" s="104"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="96"/>
     </row>
     <row r="76" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="103"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="101"/>
-      <c r="M76" s="101"/>
-      <c r="N76" s="100"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="92"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -16505,253 +14491,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="131" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="131" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="131" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="131" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="131"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="153" t="str">
-        <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="142" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="162" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
-    </row>
-    <row r="3" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="151"/>
-    </row>
-    <row r="4" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="146"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="147"/>
-    </row>
-    <row r="5" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="146"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="148" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="147"/>
-    </row>
-    <row r="6" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="146"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="148" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="136" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="147"/>
-    </row>
-    <row r="7" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="147"/>
-    </row>
-    <row r="8" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="148" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="150" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
-      </c>
-      <c r="E8" s="147"/>
-    </row>
-    <row r="9" spans="1:22" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="147"/>
-    </row>
-    <row r="10" spans="1:22" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="143"/>
-    </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
-      <c r="V12" s="131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="138"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="135"/>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="138"/>
-      <c r="C14" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="135"/>
-      <c r="V14" s="131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="138"/>
-      <c r="C15" s="137" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="135"/>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="138"/>
-      <c r="C16" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="136" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="135"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="138"/>
-      <c r="C17" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="135"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="138"/>
-      <c r="C18" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="135"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="138"/>
-      <c r="C19" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="140" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="135"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="139"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="136" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>GbpYC</v>
-      </c>
-      <c r="E20" s="135"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="138"/>
-      <c r="C21" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="136" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>GbpYCSTD</v>
-      </c>
-      <c r="E21" s="135"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="134"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="132"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:E12"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Libor,ibor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17">
-      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
@@ -28,7 +28,7 @@
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
-    <definedName name="MinDistance">RateHelpers!$J$2:$J$122</definedName>
+    <definedName name="MinDistance">RateHelpers!$J$2:$J$104</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$M$13</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
@@ -39,9 +39,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Selected!$D$1:$J$50</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$14</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$E$2:$E$122</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$122</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$122</definedName>
+    <definedName name="RateHelpers">RateHelpers!$E$2:$E$104</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$104</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$104</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
     <definedName name="Serialize">'General Settings'!$M$4</definedName>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="176">
   <si>
     <t>60Y</t>
   </si>
@@ -1703,21 +1703,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1738,6 +1723,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2056,39 +2056,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="146" customWidth="1"/>
-    <col min="3" max="3" width="18" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="146" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="146" customWidth="1"/>
-    <col min="8" max="9" width="8" style="146"/>
-    <col min="10" max="11" width="2.7109375" style="146" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="146" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="146" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="146"/>
+    <col min="1" max="2" width="2.7109375" style="141" customWidth="1"/>
+    <col min="3" max="3" width="18" style="141" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="141" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="141" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="141" customWidth="1"/>
+    <col min="8" max="9" width="8" style="141"/>
+    <col min="10" max="11" width="2.7109375" style="141" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="141" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="141" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="141" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="146" t="str">
+      <c r="B1" s="141" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="K2" s="154" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="151"/>
+      <c r="K2" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="157"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="152"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2111,10 +2111,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="150"/>
+      <c r="I4" s="145"/>
       <c r="K4" s="136"/>
       <c r="L4" s="135" t="s">
         <v>173</v>
@@ -2132,10 +2132,10 @@
       <c r="D5" s="62"/>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="148" t="s">
+      <c r="I5" s="143" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="136"/>
@@ -2156,10 +2156,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="148"/>
+      <c r="I6" s="143"/>
       <c r="K6" s="136"/>
       <c r="L6" s="135" t="s">
         <v>171</v>
@@ -2179,10 +2179,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="147" t="s">
+      <c r="H7" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="148"/>
+      <c r="I7" s="143"/>
       <c r="K7" s="133"/>
       <c r="L7" s="132"/>
       <c r="M7" s="132"/>
@@ -2196,16 +2196,16 @@
       <c r="D8" s="62"/>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="151" t="s">
+      <c r="H8" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="152" t="s">
+      <c r="I8" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="157"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="152"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2246,7 +2246,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="86">
-        <v>41653.029131944444</v>
+        <v>41653.038877314815</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC#0006</v>
+        <v>_GBPYC#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2560,11 +2560,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2583,11 +2581,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -3626,7 +3624,7 @@
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="str">
-        <f t="shared" ref="E28:E59" si="2">RateHelperPrefix&amp;"_"&amp;$B28&amp;$C28&amp;$D28</f>
+        <f t="shared" ref="E28:E34" si="2">RateHelperPrefix&amp;"_"&amp;$B28&amp;$C28&amp;$D28</f>
         <v>GBP_YCRH_1S12</v>
       </c>
       <c r="F28" s="20" t="e">
@@ -3892,8 +3890,8 @@
         <v>37</v>
       </c>
       <c r="E35" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_SWOIS</v>
+        <f>Discount!L6</f>
+        <v>GBP_YCRH_SWOIS#0000</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -3930,8 +3928,8 @@
         <v>37</v>
       </c>
       <c r="E36" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_2WOIS</v>
+        <f>Discount!L7</f>
+        <v>GBP_YCRH_2WOIS#0000</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -3968,8 +3966,8 @@
         <v>37</v>
       </c>
       <c r="E37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_3WOIS</v>
+        <f>Discount!L8</f>
+        <v>GBP_YCRH_3WOIS#0000</v>
       </c>
       <c r="F37" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4006,8 +4004,8 @@
         <v>37</v>
       </c>
       <c r="E38" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_1MOIS</v>
+        <f>Discount!L9</f>
+        <v>GBP_YCRH_1MOIS#0000</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4044,8 +4042,8 @@
         <v>37</v>
       </c>
       <c r="E39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_2MOIS</v>
+        <f>Discount!L10</f>
+        <v>GBP_YCRH_2MOIS#0000</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4082,8 +4080,8 @@
         <v>37</v>
       </c>
       <c r="E40" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_3MOIS</v>
+        <f>Discount!L11</f>
+        <v>GBP_YCRH_3MOIS#0000</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4120,8 +4118,8 @@
         <v>37</v>
       </c>
       <c r="E41" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_4MOIS</v>
+        <f>Discount!L12</f>
+        <v>GBP_YCRH_4MOIS#0000</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4158,8 +4156,8 @@
         <v>37</v>
       </c>
       <c r="E42" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_5MOIS</v>
+        <f>Discount!L13</f>
+        <v>GBP_YCRH_5MOIS#0000</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4196,8 +4194,8 @@
         <v>37</v>
       </c>
       <c r="E43" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_6MOIS</v>
+        <f>Discount!L14</f>
+        <v>GBP_YCRH_6MOIS#0000</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4234,8 +4232,8 @@
         <v>37</v>
       </c>
       <c r="E44" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_7MOIS</v>
+        <f>Discount!L15</f>
+        <v>GBP_YCRH_7MOIS#0000</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4272,8 +4270,8 @@
         <v>37</v>
       </c>
       <c r="E45" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_8MOIS</v>
+        <f>Discount!L16</f>
+        <v>GBP_YCRH_8MOIS#0000</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4310,8 +4308,8 @@
         <v>37</v>
       </c>
       <c r="E46" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_9MOIS</v>
+        <f>Discount!L17</f>
+        <v>GBP_YCRH_9MOIS#0000</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4348,8 +4346,8 @@
         <v>37</v>
       </c>
       <c r="E47" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_10MOIS</v>
+        <f>Discount!L18</f>
+        <v>GBP_YCRH_10MOIS#0000</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4386,8 +4384,8 @@
         <v>37</v>
       </c>
       <c r="E48" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_11MOIS</v>
+        <f>Discount!L19</f>
+        <v>GBP_YCRH_11MOIS#0000</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4424,8 +4422,8 @@
         <v>37</v>
       </c>
       <c r="E49" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_1YOIS</v>
+        <f>Discount!L20</f>
+        <v>GBP_YCRH_1YOIS#0000</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4462,8 +4460,8 @@
         <v>37</v>
       </c>
       <c r="E50" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_15MOIS</v>
+        <f>Discount!L21</f>
+        <v>GBP_YCRH_15MOIS#0000</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4500,8 +4498,8 @@
         <v>37</v>
       </c>
       <c r="E51" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_18MOIS</v>
+        <f>Discount!L22</f>
+        <v>GBP_YCRH_18MOIS#0000</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4538,8 +4536,8 @@
         <v>37</v>
       </c>
       <c r="E52" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_21MOIS</v>
+        <f>Discount!L23</f>
+        <v>GBP_YCRH_21MOIS#0000</v>
       </c>
       <c r="F52" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4576,8 +4574,8 @@
         <v>37</v>
       </c>
       <c r="E53" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_2YOIS</v>
+        <f>Discount!L24</f>
+        <v>GBP_YCRH_2YOIS#0000</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4614,8 +4612,8 @@
         <v>37</v>
       </c>
       <c r="E54" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_3YOIS</v>
+        <f>Discount!L25</f>
+        <v>GBP_YCRH_3YOIS#0000</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4652,8 +4650,8 @@
         <v>37</v>
       </c>
       <c r="E55" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_4YOIS</v>
+        <f>Discount!L26</f>
+        <v>GBP_YCRH_4YOIS#0000</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4690,8 +4688,8 @@
         <v>37</v>
       </c>
       <c r="E56" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_5YOIS</v>
+        <f>Discount!L27</f>
+        <v>GBP_YCRH_5YOIS#0000</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4728,8 +4726,8 @@
         <v>37</v>
       </c>
       <c r="E57" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_6YOIS</v>
+        <f>Discount!L28</f>
+        <v>GBP_YCRH_6YOIS#0000</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4766,8 +4764,8 @@
         <v>37</v>
       </c>
       <c r="E58" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_7YOIS</v>
+        <f>Discount!L29</f>
+        <v>GBP_YCRH_7YOIS#0000</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -4804,8 +4802,8 @@
         <v>37</v>
       </c>
       <c r="E59" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YCRH_8YOIS</v>
+        <f>Discount!L30</f>
+        <v>GBP_YCRH_8YOIS#0000</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -4842,8 +4840,8 @@
         <v>37</v>
       </c>
       <c r="E60" s="14" t="str">
-        <f t="shared" ref="E60:E91" si="3">RateHelperPrefix&amp;"_"&amp;$B60&amp;$C60&amp;$D60</f>
-        <v>GBP_YCRH_9YOIS</v>
+        <f>Discount!L31</f>
+        <v>GBP_YCRH_9YOIS#0000</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -4880,8 +4878,8 @@
         <v>37</v>
       </c>
       <c r="E61" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_10YOIS</v>
+        <f>Discount!L32</f>
+        <v>GBP_YCRH_10YOIS#0000</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -4918,8 +4916,8 @@
         <v>37</v>
       </c>
       <c r="E62" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_11YOIS</v>
+        <f>Discount!L33</f>
+        <v>GBP_YCRH_11YOIS#0000</v>
       </c>
       <c r="F62" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -4956,8 +4954,8 @@
         <v>37</v>
       </c>
       <c r="E63" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_12YOIS</v>
+        <f>Discount!L34</f>
+        <v>GBP_YCRH_12YOIS#0000</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -4988,25 +4986,25 @@
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="16"/>
       <c r="C64" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_13YOIS</v>
-      </c>
-      <c r="F64" s="13" t="e">
+        <f>Discount!L35</f>
+        <v>GBP_YCRH_15YOIS#0000</v>
+      </c>
+      <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.3949999999999999E-2</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H64" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="12">
         <v>50</v>
@@ -5014,37 +5012,37 @@
       <c r="J64" s="12">
         <v>1</v>
       </c>
-      <c r="K64" s="11" t="e">
+      <c r="K64" s="11">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L64" s="10" t="e">
+        <v>41653</v>
+      </c>
+      <c r="L64" s="10">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>#NUM!</v>
+        <v>47133</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="16"/>
       <c r="C65" s="15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_14YOIS</v>
-      </c>
-      <c r="F65" s="13" t="e">
+        <f>Discount!L36</f>
+        <v>GBP_YCRH_20YOIS#0000</v>
+      </c>
+      <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H65" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="12">
         <v>50</v>
@@ -5052,30 +5050,30 @@
       <c r="J65" s="12">
         <v>1</v>
       </c>
-      <c r="K65" s="11" t="e">
+      <c r="K65" s="11">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L65" s="10" t="e">
+        <v>41653</v>
+      </c>
+      <c r="L65" s="10">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>#NUM!</v>
+        <v>48960</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="16"/>
       <c r="C66" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_15YOIS</v>
+        <f>Discount!L37</f>
+        <v>GBP_YCRH_25YOIS#0000</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>2.3949999999999999E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5096,58 +5094,59 @@
       </c>
       <c r="L66" s="10">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>47133</v>
+        <v>50784</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="16"/>
-      <c r="C67" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_16YOIS</v>
-      </c>
-      <c r="F67" s="13" t="e">
+      <c r="E67" s="7" t="str">
+        <f>Discount!L38</f>
+        <v>GBP_YCRH_30YOIS#0000</v>
+      </c>
+      <c r="F67" s="6">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G67" s="13" t="e">
+        <v>2.9699999999999997E-2</v>
+      </c>
+      <c r="G67" s="6" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H67" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="12">
+      <c r="H67" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
         <v>50</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="5">
         <v>1</v>
       </c>
-      <c r="K67" s="11" t="e">
+      <c r="K67" s="4">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L67" s="10" t="e">
+        <v>41653</v>
+      </c>
+      <c r="L67" s="3">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>#NUM!</v>
+        <v>52610</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="16"/>
-      <c r="C68" s="15" t="s">
-        <v>17</v>
+      <c r="C68" s="15" t="str">
+        <f t="shared" ref="C68:C104" si="3">IborType&amp;"BASIS"</f>
+        <v>OISBASIS</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_17YOIS</v>
+        <f t="shared" ref="E68:E73" si="4">RateHelperPrefix&amp;"_"&amp;$B68&amp;$C68&amp;$D68</f>
+        <v>GBP_YCRH_OISBASIS1Y</v>
       </c>
       <c r="F68" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5161,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J68" s="12">
         <v>1</v>
@@ -5177,15 +5176,16 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="16"/>
-      <c r="C69" s="15" t="s">
-        <v>16</v>
+      <c r="C69" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E69" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_18YOIS</v>
+        <f t="shared" si="4"/>
+        <v>GBP_YCRH_OISBASIS15M</v>
       </c>
       <c r="F69" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J69" s="12">
         <v>1</v>
@@ -5215,15 +5215,16 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="16"/>
-      <c r="C70" s="15" t="s">
-        <v>15</v>
+      <c r="C70" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E70" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_19YOIS</v>
+        <f t="shared" si="4"/>
+        <v>GBP_YCRH_OISBASIS18M</v>
       </c>
       <c r="F70" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5237,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J70" s="12">
         <v>1</v>
@@ -5253,53 +5254,55 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="16"/>
-      <c r="C71" s="15" t="s">
-        <v>14</v>
+      <c r="C71" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E71" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_20YOIS</v>
-      </c>
-      <c r="F71" s="13">
+        <f t="shared" si="4"/>
+        <v>GBP_YCRH_OISBASIS21M</v>
+      </c>
+      <c r="F71" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H71" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J71" s="12">
         <v>1</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41653</v>
-      </c>
-      <c r="L71" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L71" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>48960</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="16"/>
-      <c r="C72" s="15" t="s">
-        <v>13</v>
+      <c r="C72" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E72" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_21YOIS</v>
+        <f t="shared" si="4"/>
+        <v>GBP_YCRH_OISBASIS2Y</v>
       </c>
       <c r="F72" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5313,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J72" s="12">
         <v>1</v>
@@ -5329,15 +5332,16 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="16"/>
-      <c r="C73" s="15" t="s">
-        <v>12</v>
+      <c r="C73" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E73" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_22YOIS</v>
+        <f t="shared" si="4"/>
+        <v>GBP_YCRH_OISBASIS3Y</v>
       </c>
       <c r="F73" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5351,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J73" s="12">
         <v>1</v>
@@ -5367,15 +5371,16 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="16"/>
-      <c r="C74" s="15" t="s">
-        <v>11</v>
+      <c r="C74" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E74" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_23YOIS</v>
+        <f t="shared" ref="E74:E104" si="5">RateHelperPrefix&amp;"_"&amp;$B74&amp;$C74&amp;$D74</f>
+        <v>GBP_YCRH_OISBASIS4Y</v>
       </c>
       <c r="F74" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5389,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J74" s="12">
         <v>1</v>
@@ -5405,15 +5410,16 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="16"/>
-      <c r="C75" s="15" t="s">
-        <v>10</v>
+      <c r="C75" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E75" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_24YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS5Y</v>
       </c>
       <c r="F75" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5427,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J75" s="12">
         <v>1</v>
@@ -5443,53 +5449,55 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="16"/>
-      <c r="C76" s="15" t="s">
-        <v>9</v>
+      <c r="C76" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E76" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_25YOIS</v>
-      </c>
-      <c r="F76" s="13">
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS6Y</v>
+      </c>
+      <c r="F76" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>2.8799999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H76" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J76" s="12">
         <v>1</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41653</v>
-      </c>
-      <c r="L76" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L76" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>50784</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="16"/>
-      <c r="C77" s="15" t="s">
-        <v>8</v>
+      <c r="C77" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E77" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_26YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS7Y</v>
       </c>
       <c r="F77" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -5503,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J77" s="12">
         <v>1</v>
@@ -5519,15 +5527,16 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="16"/>
-      <c r="C78" s="15" t="s">
-        <v>7</v>
+      <c r="C78" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E78" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_27YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS8Y</v>
       </c>
       <c r="F78" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
@@ -5541,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J78" s="12">
         <v>1</v>
@@ -5557,15 +5566,16 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="16"/>
-      <c r="C79" s="15" t="s">
-        <v>6</v>
+      <c r="C79" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E79" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_28YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS9Y</v>
       </c>
       <c r="F79" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
@@ -5579,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J79" s="12">
         <v>1</v>
@@ -5595,15 +5605,16 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="16"/>
-      <c r="C80" s="15" t="s">
-        <v>5</v>
+      <c r="C80" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E80" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_29YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS10Y</v>
       </c>
       <c r="F80" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
@@ -5617,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J80" s="12">
         <v>1</v>
@@ -5633,53 +5644,55 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="16"/>
-      <c r="C81" s="15" t="s">
-        <v>4</v>
+      <c r="C81" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E81" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_30YOIS</v>
-      </c>
-      <c r="F81" s="13">
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS11Y</v>
+      </c>
+      <c r="F81" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>2.9699999999999997E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G81" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H81" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J81" s="12">
         <v>1</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41653</v>
-      </c>
-      <c r="L81" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L81" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>52610</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="16"/>
-      <c r="C82" s="15" t="s">
-        <v>3</v>
+      <c r="C82" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E82" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_35YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS12Y</v>
       </c>
       <c r="F82" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
@@ -5693,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J82" s="12">
         <v>1</v>
@@ -5709,15 +5722,16 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="16"/>
-      <c r="C83" s="15" t="s">
-        <v>2</v>
+      <c r="C83" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E83" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_40YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS13Y</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -5731,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J83" s="12">
         <v>1</v>
@@ -5747,15 +5761,16 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="16"/>
-      <c r="C84" s="15" t="s">
-        <v>1</v>
+      <c r="C84" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>OISBASIS</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E84" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_50YOIS</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS14Y</v>
       </c>
       <c r="F84" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
@@ -5769,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J84" s="12">
         <v>1</v>
@@ -5784,39 +5799,40 @@
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="9"/>
-      <c r="C85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="7" t="str">
+      <c r="B85" s="16"/>
+      <c r="C85" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCRH_60YOIS</v>
-      </c>
-      <c r="F85" s="6" t="e">
+        <v>OISBASIS</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS15Y</v>
+      </c>
+      <c r="F85" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G85" s="6" t="e">
+      <c r="G85" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="5">
-        <v>50</v>
-      </c>
-      <c r="J85" s="5">
+      <c r="H85" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <v>40</v>
+      </c>
+      <c r="J85" s="12">
         <v>1</v>
       </c>
-      <c r="K85" s="4" t="e">
+      <c r="K85" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L85" s="3" t="e">
+      <c r="L85" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
         <v>#NUM!</v>
       </c>
@@ -5824,15 +5840,15 @@
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="16"/>
       <c r="C86" s="15" t="str">
-        <f t="shared" ref="C86:C122" si="4">IborType&amp;"BASIS"</f>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E86" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_OISBASIS1Y</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS16Y</v>
       </c>
       <c r="F86" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
@@ -5863,15 +5879,15 @@
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="16"/>
       <c r="C87" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E87" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_OISBASIS15M</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS17Y</v>
       </c>
       <c r="F87" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
@@ -5902,15 +5918,15 @@
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="16"/>
       <c r="C88" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E88" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_OISBASIS18M</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS18Y</v>
       </c>
       <c r="F88" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
@@ -5941,15 +5957,15 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="16"/>
       <c r="C89" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E89" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_OISBASIS21M</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS19Y</v>
       </c>
       <c r="F89" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
@@ -5980,15 +5996,15 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="16"/>
       <c r="C90" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E90" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_OISBASIS2Y</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS20Y</v>
       </c>
       <c r="F90" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
@@ -6019,15 +6035,15 @@
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="16"/>
       <c r="C91" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E91" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>GBP_YCRH_OISBASIS3Y</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS21Y</v>
       </c>
       <c r="F91" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
@@ -6058,15 +6074,15 @@
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="16"/>
       <c r="C92" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E92" s="14" t="str">
-        <f t="shared" ref="E92:E122" si="5">RateHelperPrefix&amp;"_"&amp;$B92&amp;$C92&amp;$D92</f>
-        <v>GBP_YCRH_OISBASIS4Y</v>
+        <f t="shared" si="5"/>
+        <v>GBP_YCRH_OISBASIS22Y</v>
       </c>
       <c r="F92" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
@@ -6097,15 +6113,15 @@
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="16"/>
       <c r="C93" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E93" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS5Y</v>
+        <v>GBP_YCRH_OISBASIS23Y</v>
       </c>
       <c r="F93" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
@@ -6136,15 +6152,15 @@
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="16"/>
       <c r="C94" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E94" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS6Y</v>
+        <v>GBP_YCRH_OISBASIS24Y</v>
       </c>
       <c r="F94" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
@@ -6175,15 +6191,15 @@
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="16"/>
       <c r="C95" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E95" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS7Y</v>
+        <v>GBP_YCRH_OISBASIS25Y</v>
       </c>
       <c r="F95" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
@@ -6214,15 +6230,15 @@
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="16"/>
       <c r="C96" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E96" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS8Y</v>
+        <v>GBP_YCRH_OISBASIS26Y</v>
       </c>
       <c r="F96" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -6253,15 +6269,15 @@
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="16"/>
       <c r="C97" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E97" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS9Y</v>
+        <v>GBP_YCRH_OISBASIS27Y</v>
       </c>
       <c r="F97" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -6292,15 +6308,15 @@
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="16"/>
       <c r="C98" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E98" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS10Y</v>
+        <v>GBP_YCRH_OISBASIS28Y</v>
       </c>
       <c r="F98" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6331,15 +6347,15 @@
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="16"/>
       <c r="C99" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E99" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS11Y</v>
+        <v>GBP_YCRH_OISBASIS29Y</v>
       </c>
       <c r="F99" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -6370,15 +6386,15 @@
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="16"/>
       <c r="C100" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E100" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS12Y</v>
+        <v>GBP_YCRH_OISBASIS30Y</v>
       </c>
       <c r="F100" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -6409,15 +6425,15 @@
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="16"/>
       <c r="C101" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E101" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS13Y</v>
+        <v>GBP_YCRH_OISBASIS35Y</v>
       </c>
       <c r="F101" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -6448,15 +6464,15 @@
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="16"/>
       <c r="C102" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E102" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS14Y</v>
+        <v>GBP_YCRH_OISBASIS40Y</v>
       </c>
       <c r="F102" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -6487,15 +6503,15 @@
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="16"/>
       <c r="C103" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E103" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS15Y</v>
+        <v>GBP_YCRH_OISBASIS50Y</v>
       </c>
       <c r="F103" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -6524,743 +6540,41 @@
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="16"/>
-      <c r="C104" s="15" t="str">
-        <f t="shared" si="4"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>OISBASIS</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS16Y</v>
-      </c>
-      <c r="F104" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G104" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H104" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="12">
-        <v>40</v>
-      </c>
-      <c r="J104" s="12">
-        <v>1</v>
-      </c>
-      <c r="K104" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L104" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="16"/>
-      <c r="C105" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS17Y</v>
-      </c>
-      <c r="F105" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G105" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H105" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" s="12">
-        <v>40</v>
-      </c>
-      <c r="J105" s="12">
-        <v>1</v>
-      </c>
-      <c r="K105" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L105" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="16"/>
-      <c r="C106" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS18Y</v>
-      </c>
-      <c r="F106" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G106" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H106" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="12">
-        <v>40</v>
-      </c>
-      <c r="J106" s="12">
-        <v>1</v>
-      </c>
-      <c r="K106" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L106" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="16"/>
-      <c r="C107" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS19Y</v>
-      </c>
-      <c r="F107" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G107" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H107" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" s="12">
-        <v>40</v>
-      </c>
-      <c r="J107" s="12">
-        <v>1</v>
-      </c>
-      <c r="K107" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L107" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="16"/>
-      <c r="C108" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS20Y</v>
-      </c>
-      <c r="F108" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G108" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H108" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" s="12">
-        <v>40</v>
-      </c>
-      <c r="J108" s="12">
-        <v>1</v>
-      </c>
-      <c r="K108" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L108" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="16"/>
-      <c r="C109" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS21Y</v>
-      </c>
-      <c r="F109" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G109" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H109" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="12">
-        <v>40</v>
-      </c>
-      <c r="J109" s="12">
-        <v>1</v>
-      </c>
-      <c r="K109" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L109" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="16"/>
-      <c r="C110" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS22Y</v>
-      </c>
-      <c r="F110" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G110" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H110" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" s="12">
-        <v>40</v>
-      </c>
-      <c r="J110" s="12">
-        <v>1</v>
-      </c>
-      <c r="K110" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L110" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="16"/>
-      <c r="C111" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS23Y</v>
-      </c>
-      <c r="F111" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G111" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H111" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" s="12">
-        <v>40</v>
-      </c>
-      <c r="J111" s="12">
-        <v>1</v>
-      </c>
-      <c r="K111" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L111" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" s="16"/>
-      <c r="C112" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS24Y</v>
-      </c>
-      <c r="F112" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G112" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H112" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" s="12">
-        <v>40</v>
-      </c>
-      <c r="J112" s="12">
-        <v>1</v>
-      </c>
-      <c r="K112" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L112" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" s="16"/>
-      <c r="C113" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS25Y</v>
-      </c>
-      <c r="F113" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G113" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H113" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" s="12">
-        <v>40</v>
-      </c>
-      <c r="J113" s="12">
-        <v>1</v>
-      </c>
-      <c r="K113" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L113" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" s="16"/>
-      <c r="C114" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS26Y</v>
-      </c>
-      <c r="F114" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G114" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H114" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="12">
-        <v>40</v>
-      </c>
-      <c r="J114" s="12">
-        <v>1</v>
-      </c>
-      <c r="K114" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L114" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B115" s="16"/>
-      <c r="C115" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS27Y</v>
-      </c>
-      <c r="F115" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G115" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H115" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="12">
-        <v>40</v>
-      </c>
-      <c r="J115" s="12">
-        <v>1</v>
-      </c>
-      <c r="K115" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L115" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" s="16"/>
-      <c r="C116" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS28Y</v>
-      </c>
-      <c r="F116" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G116" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H116" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="12">
-        <v>40</v>
-      </c>
-      <c r="J116" s="12">
-        <v>1</v>
-      </c>
-      <c r="K116" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L116" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B117" s="16"/>
-      <c r="C117" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS29Y</v>
-      </c>
-      <c r="F117" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G117" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H117" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" s="12">
-        <v>40</v>
-      </c>
-      <c r="J117" s="12">
-        <v>1</v>
-      </c>
-      <c r="K117" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L117" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B118" s="16"/>
-      <c r="C118" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS30Y</v>
-      </c>
-      <c r="F118" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G118" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H118" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="12">
-        <v>40</v>
-      </c>
-      <c r="J118" s="12">
-        <v>1</v>
-      </c>
-      <c r="K118" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L118" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B119" s="16"/>
-      <c r="C119" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS35Y</v>
-      </c>
-      <c r="F119" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G119" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H119" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="12">
-        <v>40</v>
-      </c>
-      <c r="J119" s="12">
-        <v>1</v>
-      </c>
-      <c r="K119" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L119" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B120" s="16"/>
-      <c r="C120" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS40Y</v>
-      </c>
-      <c r="F120" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G120" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H120" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" s="12">
-        <v>40</v>
-      </c>
-      <c r="J120" s="12">
-        <v>1</v>
-      </c>
-      <c r="K120" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L120" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B121" s="16"/>
-      <c r="C121" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E121" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>GBP_YCRH_OISBASIS50Y</v>
-      </c>
-      <c r="F121" s="13" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G121" s="13" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H121" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="12">
-        <v>40</v>
-      </c>
-      <c r="J121" s="12">
-        <v>1</v>
-      </c>
-      <c r="K121" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L121" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B122" s="9"/>
-      <c r="C122" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>OISBASIS</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" s="7" t="str">
+      <c r="D104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="7" t="str">
         <f t="shared" si="5"/>
         <v>GBP_YCRH_OISBASIS60Y</v>
       </c>
-      <c r="F122" s="6" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G122" s="6" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H122" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5">
+      <c r="F104" s="6" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G104" s="6" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H104" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5">
         <v>40</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J104" s="5">
         <v>1</v>
       </c>
-      <c r="K122" s="4" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L122" s="3" t="e">
-        <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
+      <c r="K104" s="4" t="e">
+        <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L104" s="3" t="e">
+        <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7302,10 +6616,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="157"/>
       <c r="D1" s="52" t="s">
         <v>87</v>
       </c>
@@ -7525,7 +6839,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_RateHelpersSelected#0006</v>
+        <v>GBP_YCRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10701,7 +10015,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10723,7 +10039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="120"/>
@@ -10818,7 +10134,7 @@
       </c>
       <c r="L4" s="113" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCRH__Libor#0007</v>
+        <v>GBP_YCRH__Libor#0000</v>
       </c>
       <c r="M4" s="112" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -10879,7 +10195,7 @@
       </c>
       <c r="L6" s="101" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_SWOIS#0007</v>
+        <v>GBP_YCRH_SWOIS#0000</v>
       </c>
       <c r="M6" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -10933,7 +10249,7 @@
       </c>
       <c r="L7" s="101" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2WOIS#0007</v>
+        <v>GBP_YCRH_2WOIS#0000</v>
       </c>
       <c r="M7" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -10987,7 +10303,7 @@
       </c>
       <c r="L8" s="101" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3WOIS#0007</v>
+        <v>GBP_YCRH_3WOIS#0000</v>
       </c>
       <c r="M8" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -11041,7 +10357,7 @@
       </c>
       <c r="L9" s="101" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1MOIS#0007</v>
+        <v>GBP_YCRH_1MOIS#0000</v>
       </c>
       <c r="M9" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -11095,7 +10411,7 @@
       </c>
       <c r="L10" s="101" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2MOIS#0007</v>
+        <v>GBP_YCRH_2MOIS#0000</v>
       </c>
       <c r="M10" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -11149,7 +10465,7 @@
       </c>
       <c r="L11" s="101" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3MOIS#0007</v>
+        <v>GBP_YCRH_3MOIS#0000</v>
       </c>
       <c r="M11" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -11203,7 +10519,7 @@
       </c>
       <c r="L12" s="101" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4MOIS#0007</v>
+        <v>GBP_YCRH_4MOIS#0000</v>
       </c>
       <c r="M12" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -11257,7 +10573,7 @@
       </c>
       <c r="L13" s="101" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5MOIS#0007</v>
+        <v>GBP_YCRH_5MOIS#0000</v>
       </c>
       <c r="M13" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -11311,7 +10627,7 @@
       </c>
       <c r="L14" s="101" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6MOIS#0007</v>
+        <v>GBP_YCRH_6MOIS#0000</v>
       </c>
       <c r="M14" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -11365,7 +10681,7 @@
       </c>
       <c r="L15" s="101" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7MOIS#0007</v>
+        <v>GBP_YCRH_7MOIS#0000</v>
       </c>
       <c r="M15" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -11419,7 +10735,7 @@
       </c>
       <c r="L16" s="101" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8MOIS#0007</v>
+        <v>GBP_YCRH_8MOIS#0000</v>
       </c>
       <c r="M16" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -11473,7 +10789,7 @@
       </c>
       <c r="L17" s="101" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9MOIS#0007</v>
+        <v>GBP_YCRH_9MOIS#0000</v>
       </c>
       <c r="M17" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -11527,7 +10843,7 @@
       </c>
       <c r="L18" s="101" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10MOIS#0007</v>
+        <v>GBP_YCRH_10MOIS#0000</v>
       </c>
       <c r="M18" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -11581,7 +10897,7 @@
       </c>
       <c r="L19" s="101" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11MOIS#0007</v>
+        <v>GBP_YCRH_11MOIS#0000</v>
       </c>
       <c r="M19" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -11635,7 +10951,7 @@
       </c>
       <c r="L20" s="101" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1YOIS#0007</v>
+        <v>GBP_YCRH_1YOIS#0000</v>
       </c>
       <c r="M20" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -11689,7 +11005,7 @@
       </c>
       <c r="L21" s="101" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15MOIS#0007</v>
+        <v>GBP_YCRH_15MOIS#0000</v>
       </c>
       <c r="M21" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -11743,7 +11059,7 @@
       </c>
       <c r="L22" s="101" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_18MOIS#0007</v>
+        <v>GBP_YCRH_18MOIS#0000</v>
       </c>
       <c r="M22" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -11797,7 +11113,7 @@
       </c>
       <c r="L23" s="101" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_21MOIS#0007</v>
+        <v>GBP_YCRH_21MOIS#0000</v>
       </c>
       <c r="M23" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -11851,7 +11167,7 @@
       </c>
       <c r="L24" s="101" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2YOIS#0007</v>
+        <v>GBP_YCRH_2YOIS#0000</v>
       </c>
       <c r="M24" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -11905,7 +11221,7 @@
       </c>
       <c r="L25" s="101" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3YOIS#0007</v>
+        <v>GBP_YCRH_3YOIS#0000</v>
       </c>
       <c r="M25" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -11959,7 +11275,7 @@
       </c>
       <c r="L26" s="101" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4YOIS#0007</v>
+        <v>GBP_YCRH_4YOIS#0000</v>
       </c>
       <c r="M26" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -12013,7 +11329,7 @@
       </c>
       <c r="L27" s="101" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5YOIS#0007</v>
+        <v>GBP_YCRH_5YOIS#0000</v>
       </c>
       <c r="M27" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -12067,7 +11383,7 @@
       </c>
       <c r="L28" s="101" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6YOIS#0007</v>
+        <v>GBP_YCRH_6YOIS#0000</v>
       </c>
       <c r="M28" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -12121,7 +11437,7 @@
       </c>
       <c r="L29" s="101" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7YOIS#0007</v>
+        <v>GBP_YCRH_7YOIS#0000</v>
       </c>
       <c r="M29" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -12175,7 +11491,7 @@
       </c>
       <c r="L30" s="101" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8YOIS#0007</v>
+        <v>GBP_YCRH_8YOIS#0000</v>
       </c>
       <c r="M30" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -12229,7 +11545,7 @@
       </c>
       <c r="L31" s="101" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9YOIS#0007</v>
+        <v>GBP_YCRH_9YOIS#0000</v>
       </c>
       <c r="M31" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -12283,7 +11599,7 @@
       </c>
       <c r="L32" s="101" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10YOIS#0007</v>
+        <v>GBP_YCRH_10YOIS#0000</v>
       </c>
       <c r="M32" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -12337,7 +11653,7 @@
       </c>
       <c r="L33" s="101" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11YOIS#0007</v>
+        <v>GBP_YCRH_11YOIS#0000</v>
       </c>
       <c r="M33" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -12391,7 +11707,7 @@
       </c>
       <c r="L34" s="101" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_12YOIS#0007</v>
+        <v>GBP_YCRH_12YOIS#0000</v>
       </c>
       <c r="M34" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -12445,7 +11761,7 @@
       </c>
       <c r="L35" s="101" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15YOIS#0007</v>
+        <v>GBP_YCRH_15YOIS#0000</v>
       </c>
       <c r="M35" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -12499,7 +11815,7 @@
       </c>
       <c r="L36" s="101" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_20YOIS#0007</v>
+        <v>GBP_YCRH_20YOIS#0000</v>
       </c>
       <c r="M36" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -12553,7 +11869,7 @@
       </c>
       <c r="L37" s="101" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_25YOIS#0007</v>
+        <v>GBP_YCRH_25YOIS#0000</v>
       </c>
       <c r="M37" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -12607,7 +11923,7 @@
       </c>
       <c r="L38" s="101" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_30YOIS#0007</v>
+        <v>GBP_YCRH_30YOIS#0000</v>
       </c>
       <c r="M38" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -12679,7 +11995,7 @@
       </c>
       <c r="L40" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN11OIS#0007</v>
+        <v>GBP_YCRH_MPCJAN11OIS#0000</v>
       </c>
       <c r="M40" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -12733,7 +12049,7 @@
       </c>
       <c r="L41" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB11OIS#0007</v>
+        <v>GBP_YCRH_MPCFEB11OIS#0000</v>
       </c>
       <c r="M41" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -12787,7 +12103,7 @@
       </c>
       <c r="L42" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR11OIS#0007</v>
+        <v>GBP_YCRH_MPCMAR11OIS#0000</v>
       </c>
       <c r="M42" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -12841,7 +12157,7 @@
       </c>
       <c r="L43" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR11OIS#0007</v>
+        <v>GBP_YCRH_MPCAPR11OIS#0000</v>
       </c>
       <c r="M43" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -12895,7 +12211,7 @@
       </c>
       <c r="L44" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY11OIS#0007</v>
+        <v>GBP_YCRH_MPCMAY11OIS#0000</v>
       </c>
       <c r="M44" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -12949,7 +12265,7 @@
       </c>
       <c r="L45" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN11OIS#0007</v>
+        <v>GBP_YCRH_MPCJUN11OIS#0000</v>
       </c>
       <c r="M45" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -13003,7 +12319,7 @@
       </c>
       <c r="L46" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL11OIS#0007</v>
+        <v>GBP_YCRH_MPCJUL11OIS#0000</v>
       </c>
       <c r="M46" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -13057,7 +12373,7 @@
       </c>
       <c r="L47" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG11OIS#0007</v>
+        <v>GBP_YCRH_MPCAUG11OIS#0000</v>
       </c>
       <c r="M47" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -13111,7 +12427,7 @@
       </c>
       <c r="L48" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP11OIS#0007</v>
+        <v>GBP_YCRH_MPCSEP11OIS#0000</v>
       </c>
       <c r="M48" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -13165,7 +12481,7 @@
       </c>
       <c r="L49" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT11OIS#0007</v>
+        <v>GBP_YCRH_MPCOCT11OIS#0000</v>
       </c>
       <c r="M49" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -13219,7 +12535,7 @@
       </c>
       <c r="L50" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV11OIS#0007</v>
+        <v>GBP_YCRH_MPCNOV11OIS#0000</v>
       </c>
       <c r="M50" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -13273,7 +12589,7 @@
       </c>
       <c r="L51" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCDEC11OIS#0007</v>
+        <v>GBP_YCRH_MPCDEC11OIS#0000</v>
       </c>
       <c r="M51" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -13327,7 +12643,7 @@
       </c>
       <c r="L52" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN12OIS#0007</v>
+        <v>GBP_YCRH_MPCJAN12OIS#0000</v>
       </c>
       <c r="M52" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -13381,7 +12697,7 @@
       </c>
       <c r="L53" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB12OIS#0007</v>
+        <v>GBP_YCRH_MPCFEB12OIS#0000</v>
       </c>
       <c r="M53" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -13435,7 +12751,7 @@
       </c>
       <c r="L54" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR12OIS#0007</v>
+        <v>GBP_YCRH_MPCMAR12OIS#0000</v>
       </c>
       <c r="M54" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -13489,7 +12805,7 @@
       </c>
       <c r="L55" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR12OIS#0007</v>
+        <v>GBP_YCRH_MPCAPR12OIS#0000</v>
       </c>
       <c r="M55" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -13543,7 +12859,7 @@
       </c>
       <c r="L56" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY12OIS#0007</v>
+        <v>GBP_YCRH_MPCMAY12OIS#0000</v>
       </c>
       <c r="M56" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -13597,7 +12913,7 @@
       </c>
       <c r="L57" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN12OIS#0007</v>
+        <v>GBP_YCRH_MPCJUN12OIS#0000</v>
       </c>
       <c r="M57" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -13651,7 +12967,7 @@
       </c>
       <c r="L58" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL12OIS#0007</v>
+        <v>GBP_YCRH_MPCJUL12OIS#0000</v>
       </c>
       <c r="M58" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -13705,7 +13021,7 @@
       </c>
       <c r="L59" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG12OIS#0007</v>
+        <v>GBP_YCRH_MPCAUG12OIS#0000</v>
       </c>
       <c r="M59" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -13759,7 +13075,7 @@
       </c>
       <c r="L60" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP12OIS#0007</v>
+        <v>GBP_YCRH_MPCSEP12OIS#0000</v>
       </c>
       <c r="M60" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
@@ -13813,7 +13129,7 @@
       </c>
       <c r="L61" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT12OIS#0007</v>
+        <v>GBP_YCRH_MPCOCT12OIS#0000</v>
       </c>
       <c r="M61" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
@@ -13867,7 +13183,7 @@
       </c>
       <c r="L62" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV12OIS#0007</v>
+        <v>GBP_YCRH_MPCNOV12OIS#0000</v>
       </c>
       <c r="M62" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
@@ -13925,7 +13241,7 @@
       </c>
       <c r="M63" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N63" s="96"/>
       <c r="P63" s="99" t="e">
@@ -13974,7 +13290,7 @@
       </c>
       <c r="M64" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N64" s="96"/>
       <c r="P64" s="99" t="e">

--- a/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
@@ -925,12 +925,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1346,37 +1346,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1396,7 +1370,7 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1706,24 +1680,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1739,6 +1695,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2056,39 +2027,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="141" customWidth="1"/>
-    <col min="3" max="3" width="18" style="141" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="141" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="141" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="141" customWidth="1"/>
-    <col min="8" max="9" width="8" style="141"/>
-    <col min="10" max="11" width="2.7109375" style="141" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="141" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="141" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="141" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="141"/>
+    <col min="1" max="2" width="2.7109375" style="146" customWidth="1"/>
+    <col min="3" max="3" width="18" style="146" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="146" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="146" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="146" customWidth="1"/>
+    <col min="8" max="9" width="8" style="146"/>
+    <col min="10" max="11" width="2.7109375" style="146" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="146" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="146" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="141" t="str">
+      <c r="B1" s="146" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+    <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="K2" s="149" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="K2" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="152"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2111,10 +2082,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="144" t="s">
+      <c r="H4" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="145"/>
+      <c r="I4" s="150"/>
       <c r="K4" s="136"/>
       <c r="L4" s="135" t="s">
         <v>173</v>
@@ -2132,10 +2103,10 @@
       <c r="D5" s="62"/>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="148" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="136"/>
@@ -2156,10 +2127,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="143"/>
+      <c r="I6" s="148"/>
       <c r="K6" s="136"/>
       <c r="L6" s="135" t="s">
         <v>171</v>
@@ -2179,10 +2150,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="142" t="s">
+      <c r="H7" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="143"/>
+      <c r="I7" s="148"/>
       <c r="K7" s="133"/>
       <c r="L7" s="132"/>
       <c r="M7" s="132"/>
@@ -2196,18 +2167,18 @@
       <c r="D8" s="62"/>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="146" t="s">
+      <c r="H8" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="147" t="s">
+      <c r="I8" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-    </row>
-    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
       <c r="C9" s="88" t="s">
         <v>106</v>
@@ -2218,12 +2189,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="149" t="s">
+      <c r="K9" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="152"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2246,7 +2217,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="86">
-        <v>41653.038877314815</v>
+        <v>41654.195277777777</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2300,7 +2271,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC#0000</v>
+        <v>_GBPYC#0002</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2480,7 +2451,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="D27" s="64">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
@@ -2493,11 +2464,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
       <c r="D28" s="62">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
-        <v>0.37951259093616285</v>
+        <v>0.37951474512524541</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2581,11 +2552,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="155"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -3891,7 +3862,7 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>Discount!L6</f>
-        <v>GBP_YCRH_SWOIS#0000</v>
+        <v>GBP_YCRH_SWOIS#0002</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -3912,11 +3883,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -3929,7 +3900,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>Discount!L7</f>
-        <v>GBP_YCRH_2WOIS#0000</v>
+        <v>GBP_YCRH_2WOIS#0002</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -3950,11 +3921,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -3967,7 +3938,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>Discount!L8</f>
-        <v>GBP_YCRH_3WOIS#0000</v>
+        <v>GBP_YCRH_3WOIS#0002</v>
       </c>
       <c r="F37" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -3988,11 +3959,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41674</v>
+        <v>41675</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4005,7 +3976,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>Discount!L9</f>
-        <v>GBP_YCRH_1MOIS#0000</v>
+        <v>GBP_YCRH_1MOIS#0002</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4026,11 +3997,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4043,7 +4014,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>Discount!L10</f>
-        <v>GBP_YCRH_2MOIS#0000</v>
+        <v>GBP_YCRH_2MOIS#0002</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4064,11 +4035,11 @@
       </c>
       <c r="K39" s="11">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L39" s="10">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4081,7 +4052,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>Discount!L11</f>
-        <v>GBP_YCRH_3MOIS#0000</v>
+        <v>GBP_YCRH_3MOIS#0002</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4102,11 +4073,11 @@
       </c>
       <c r="K40" s="11">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L40" s="10">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4119,7 +4090,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>Discount!L12</f>
-        <v>GBP_YCRH_4MOIS#0000</v>
+        <v>GBP_YCRH_4MOIS#0002</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4140,11 +4111,11 @@
       </c>
       <c r="K41" s="11">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L41" s="10">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4157,7 +4128,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>Discount!L13</f>
-        <v>GBP_YCRH_5MOIS#0000</v>
+        <v>GBP_YCRH_5MOIS#0002</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4178,7 +4149,7 @@
       </c>
       <c r="K42" s="11">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L42" s="10">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
@@ -4195,7 +4166,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>Discount!L14</f>
-        <v>GBP_YCRH_6MOIS#0000</v>
+        <v>GBP_YCRH_6MOIS#0002</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4216,11 +4187,11 @@
       </c>
       <c r="K43" s="11">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L43" s="10">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4233,7 +4204,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>Discount!L15</f>
-        <v>GBP_YCRH_7MOIS#0000</v>
+        <v>GBP_YCRH_7MOIS#0002</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4254,11 +4225,11 @@
       </c>
       <c r="K44" s="11">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L44" s="10">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4271,7 +4242,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>Discount!L16</f>
-        <v>GBP_YCRH_8MOIS#0000</v>
+        <v>GBP_YCRH_8MOIS#0002</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4292,7 +4263,7 @@
       </c>
       <c r="K45" s="11">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L45" s="10">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
@@ -4309,7 +4280,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>Discount!L17</f>
-        <v>GBP_YCRH_9MOIS#0000</v>
+        <v>GBP_YCRH_9MOIS#0002</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4330,11 +4301,11 @@
       </c>
       <c r="K46" s="11">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L46" s="10">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4347,7 +4318,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>Discount!L18</f>
-        <v>GBP_YCRH_10MOIS#0000</v>
+        <v>GBP_YCRH_10MOIS#0002</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4368,11 +4339,11 @@
       </c>
       <c r="K47" s="11">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L47" s="10">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4385,7 +4356,7 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>Discount!L19</f>
-        <v>GBP_YCRH_11MOIS#0000</v>
+        <v>GBP_YCRH_11MOIS#0002</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4406,7 +4377,7 @@
       </c>
       <c r="K48" s="11">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L48" s="10">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
@@ -4423,7 +4394,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>Discount!L20</f>
-        <v>GBP_YCRH_1YOIS#0000</v>
+        <v>GBP_YCRH_1YOIS#0002</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4444,11 +4415,11 @@
       </c>
       <c r="K49" s="11">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L49" s="10">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4461,7 +4432,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>Discount!L21</f>
-        <v>GBP_YCRH_15MOIS#0000</v>
+        <v>GBP_YCRH_15MOIS#0002</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4482,11 +4453,11 @@
       </c>
       <c r="K50" s="11">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L50" s="10">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4499,7 +4470,7 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>Discount!L22</f>
-        <v>GBP_YCRH_18MOIS#0000</v>
+        <v>GBP_YCRH_18MOIS#0002</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4520,11 +4491,11 @@
       </c>
       <c r="K51" s="11">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L51" s="10">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4537,7 +4508,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>Discount!L23</f>
-        <v>GBP_YCRH_21MOIS#0000</v>
+        <v>GBP_YCRH_21MOIS#0002</v>
       </c>
       <c r="F52" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4558,11 +4529,11 @@
       </c>
       <c r="K52" s="11">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L52" s="10">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4575,7 +4546,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>Discount!L24</f>
-        <v>GBP_YCRH_2YOIS#0000</v>
+        <v>GBP_YCRH_2YOIS#0002</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4596,11 +4567,11 @@
       </c>
       <c r="K53" s="11">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L53" s="10">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4613,7 +4584,7 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>Discount!L25</f>
-        <v>GBP_YCRH_3YOIS#0000</v>
+        <v>GBP_YCRH_3YOIS#0002</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4634,7 +4605,7 @@
       </c>
       <c r="K54" s="11">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L54" s="10">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
@@ -4651,7 +4622,7 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>Discount!L26</f>
-        <v>GBP_YCRH_4YOIS#0000</v>
+        <v>GBP_YCRH_4YOIS#0002</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4672,7 +4643,7 @@
       </c>
       <c r="K55" s="11">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L55" s="10">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
@@ -4689,7 +4660,7 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>Discount!L27</f>
-        <v>GBP_YCRH_5YOIS#0000</v>
+        <v>GBP_YCRH_5YOIS#0002</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4710,11 +4681,11 @@
       </c>
       <c r="K56" s="11">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L56" s="10">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -4727,7 +4698,7 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>Discount!L28</f>
-        <v>GBP_YCRH_6YOIS#0000</v>
+        <v>GBP_YCRH_6YOIS#0002</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4748,11 +4719,11 @@
       </c>
       <c r="K57" s="11">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L57" s="10">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -4765,7 +4736,7 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>Discount!L29</f>
-        <v>GBP_YCRH_7YOIS#0000</v>
+        <v>GBP_YCRH_7YOIS#0002</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -4786,11 +4757,11 @@
       </c>
       <c r="K58" s="11">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L58" s="10">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -4803,7 +4774,7 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>Discount!L30</f>
-        <v>GBP_YCRH_8YOIS#0000</v>
+        <v>GBP_YCRH_8YOIS#0002</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -4824,11 +4795,11 @@
       </c>
       <c r="K59" s="11">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L59" s="10">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -4841,7 +4812,7 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>Discount!L31</f>
-        <v>GBP_YCRH_9YOIS#0000</v>
+        <v>GBP_YCRH_9YOIS#0002</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -4862,7 +4833,7 @@
       </c>
       <c r="K60" s="11">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L60" s="10">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
@@ -4879,7 +4850,7 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>Discount!L32</f>
-        <v>GBP_YCRH_10YOIS#0000</v>
+        <v>GBP_YCRH_10YOIS#0002</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -4900,7 +4871,7 @@
       </c>
       <c r="K61" s="11">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L61" s="10">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
@@ -4917,7 +4888,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>Discount!L33</f>
-        <v>GBP_YCRH_11YOIS#0000</v>
+        <v>GBP_YCRH_11YOIS#0002</v>
       </c>
       <c r="F62" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -4938,11 +4909,11 @@
       </c>
       <c r="K62" s="11">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L62" s="10">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -4955,7 +4926,7 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>Discount!L34</f>
-        <v>GBP_YCRH_12YOIS#0000</v>
+        <v>GBP_YCRH_12YOIS#0002</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -4976,11 +4947,11 @@
       </c>
       <c r="K63" s="11">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L63" s="10">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -4993,7 +4964,7 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>Discount!L35</f>
-        <v>GBP_YCRH_15YOIS#0000</v>
+        <v>GBP_YCRH_15YOIS#0002</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5014,7 +4985,7 @@
       </c>
       <c r="K64" s="11">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L64" s="10">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
@@ -5031,7 +5002,7 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>Discount!L36</f>
-        <v>GBP_YCRH_20YOIS#0000</v>
+        <v>GBP_YCRH_20YOIS#0002</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5052,7 +5023,7 @@
       </c>
       <c r="K65" s="11">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L65" s="10">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
@@ -5069,7 +5040,7 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>Discount!L37</f>
-        <v>GBP_YCRH_25YOIS#0000</v>
+        <v>GBP_YCRH_25YOIS#0002</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5090,11 +5061,11 @@
       </c>
       <c r="K66" s="11">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L66" s="10">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5107,7 +5078,7 @@
       </c>
       <c r="E67" s="7" t="str">
         <f>Discount!L38</f>
-        <v>GBP_YCRH_30YOIS#0000</v>
+        <v>GBP_YCRH_30YOIS#0002</v>
       </c>
       <c r="F67" s="6">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5128,11 +5099,11 @@
       </c>
       <c r="K67" s="4">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L67" s="3">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -6616,10 +6587,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="145"/>
       <c r="D1" s="52" t="s">
         <v>87</v>
       </c>
@@ -6659,11 +6630,11 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="I2" s="41">
         <v>0.99991931206662343</v>
@@ -6695,11 +6666,11 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="I3" s="41">
         <v>0.99983815119927455</v>
@@ -6735,18 +6706,18 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="I4" s="41">
-        <v>0.99964169093140687</v>
+        <v>0.99961858303441109</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>122</v>
@@ -6775,14 +6746,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="I5" s="41">
-        <v>0.99932441505690417</v>
+        <v>0.99930152986818577</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -6816,18 +6787,18 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="I6" s="41">
-        <v>0.99897916816253385</v>
+        <v>0.99897916816253407</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>124</v>
@@ -6839,7 +6810,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_RateHelpersSelected#0000</v>
+        <v>GBP_YCRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -6858,14 +6829,14 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="I7" s="41">
-        <v>0.99865597549964014</v>
+        <v>0.99865597549964003</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
@@ -6892,18 +6863,18 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>41806</v>
       </c>
       <c r="I8" s="41">
-        <v>0.99830288509533804</v>
+        <v>0.99831395864761729</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>126</v>
@@ -6926,18 +6897,18 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="I9" s="41">
         <v>0.99801170425156804</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>127</v>
@@ -6960,11 +6931,11 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
       <c r="I10" s="41">
         <v>0.99769394130954536</v>
@@ -6994,18 +6965,18 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
         <v>41897</v>
       </c>
       <c r="I11" s="41">
-        <v>0.99736363545694218</v>
+        <v>0.99737441186077658</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>129</v>
@@ -7028,18 +6999,18 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I12" s="41">
         <v>0.9970794918509005</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>130</v>
@@ -7062,18 +7033,18 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
       <c r="I13" s="41">
-        <v>0.9967803993102281</v>
+        <v>0.99675928637018885</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>131</v>
@@ -7096,18 +7067,18 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>41988</v>
       </c>
       <c r="I14" s="41">
-        <v>0.99647634891065762</v>
+        <v>0.99648683031932972</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>132</v>
@@ -7130,18 +7101,18 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
       <c r="I15" s="41">
         <v>0.99618716281399344</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>133</v>
@@ -7164,11 +7135,11 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="I16" s="41">
         <v>0.99529505985852451</v>
@@ -7198,11 +7169,11 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
       <c r="I17" s="41">
         <v>0.99433767257122396</v>
@@ -7232,11 +7203,11 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="I18" s="41">
         <v>0.99208763283586621</v>
@@ -7266,18 +7237,18 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>42751</v>
       </c>
       <c r="I19" s="41">
-        <v>0.98537545185379416</v>
+        <v>0.98538862785813952</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>137</v>
@@ -7300,14 +7271,14 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>43115</v>
       </c>
       <c r="I20" s="41">
-        <v>0.97429687370710782</v>
+        <v>0.97431422705854065</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
@@ -7334,18 +7305,18 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
       <c r="I21" s="41">
-        <v>0.95843893496176003</v>
+        <v>0.95843929799646632</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>139</v>
@@ -7368,14 +7339,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="I22" s="41">
-        <v>0.93841437223998592</v>
+        <v>0.9384148191527254</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -7402,14 +7373,14 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="I23" s="41">
-        <v>0.91427087886863267</v>
+        <v>0.91427140992097322</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
@@ -7436,18 +7407,18 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="I24" s="41">
-        <v>0.88702880911268844</v>
+        <v>0.88695870542946509</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>142</v>
@@ -7470,18 +7441,18 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>44942</v>
       </c>
       <c r="I25" s="41">
-        <v>0.85767932674677327</v>
+        <v>0.85771716688337685</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>143</v>
@@ -7504,14 +7475,14 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>45306</v>
       </c>
       <c r="I26" s="41">
-        <v>0.82754985119798585</v>
+        <v>0.82759089454066848</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -7538,18 +7509,18 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="I27" s="41">
-        <v>0.76782889531474741</v>
+        <v>0.76782989110663313</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>145</v>
@@ -7572,18 +7543,18 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>47133</v>
       </c>
       <c r="I28" s="41">
-        <v>0.68332412984202451</v>
+        <v>0.6833701359289146</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>146</v>
@@ -7606,14 +7577,14 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>48960</v>
       </c>
       <c r="I29" s="41">
-        <v>0.5582636618454655</v>
+        <v>0.55831064553612364</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -7640,18 +7611,18 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
       <c r="I30" s="41">
-        <v>0.45814509863967262</v>
+        <v>0.45807915860741094</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>148</v>
@@ -7674,18 +7645,18 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
       <c r="I31" s="41">
-        <v>0.37951259093616285</v>
+        <v>0.37951474512524536</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>149</v>
@@ -10134,7 +10105,7 @@
       </c>
       <c r="L4" s="113" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCRH__Libor#0000</v>
+        <v>GBP_YCRH__Libor#0002</v>
       </c>
       <c r="M4" s="112" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -10195,7 +10166,7 @@
       </c>
       <c r="L6" s="101" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_SWOIS#0000</v>
+        <v>GBP_YCRH_SWOIS#0002</v>
       </c>
       <c r="M6" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -10204,11 +10175,11 @@
       <c r="N6" s="96"/>
       <c r="P6" s="99">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q6" s="99">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -10249,7 +10220,7 @@
       </c>
       <c r="L7" s="101" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2WOIS#0000</v>
+        <v>GBP_YCRH_2WOIS#0002</v>
       </c>
       <c r="M7" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -10258,11 +10229,11 @@
       <c r="N7" s="96"/>
       <c r="P7" s="99">
         <f>_xll.qlRateHelperEarliestDate($L7)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q7" s="99">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -10303,7 +10274,7 @@
       </c>
       <c r="L8" s="101" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3WOIS#0000</v>
+        <v>GBP_YCRH_3WOIS#0002</v>
       </c>
       <c r="M8" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -10312,11 +10283,11 @@
       <c r="N8" s="96"/>
       <c r="P8" s="99">
         <f>_xll.qlRateHelperEarliestDate($L8)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q8" s="99">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41674</v>
+        <v>41675</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -10357,7 +10328,7 @@
       </c>
       <c r="L9" s="101" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1MOIS#0000</v>
+        <v>GBP_YCRH_1MOIS#0002</v>
       </c>
       <c r="M9" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -10366,11 +10337,11 @@
       <c r="N9" s="96"/>
       <c r="P9" s="99">
         <f>_xll.qlRateHelperEarliestDate($L9)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q9" s="99">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -10411,7 +10382,7 @@
       </c>
       <c r="L10" s="101" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2MOIS#0000</v>
+        <v>GBP_YCRH_2MOIS#0002</v>
       </c>
       <c r="M10" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -10420,11 +10391,11 @@
       <c r="N10" s="96"/>
       <c r="P10" s="99">
         <f>_xll.qlRateHelperEarliestDate($L10)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q10" s="99">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -10465,7 +10436,7 @@
       </c>
       <c r="L11" s="101" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3MOIS#0000</v>
+        <v>GBP_YCRH_3MOIS#0002</v>
       </c>
       <c r="M11" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -10474,11 +10445,11 @@
       <c r="N11" s="96"/>
       <c r="P11" s="99">
         <f>_xll.qlRateHelperEarliestDate($L11)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q11" s="99">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -10519,7 +10490,7 @@
       </c>
       <c r="L12" s="101" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4MOIS#0000</v>
+        <v>GBP_YCRH_4MOIS#0002</v>
       </c>
       <c r="M12" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -10528,11 +10499,11 @@
       <c r="N12" s="96"/>
       <c r="P12" s="99">
         <f>_xll.qlRateHelperEarliestDate($L12)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q12" s="99">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -10573,7 +10544,7 @@
       </c>
       <c r="L13" s="101" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5MOIS#0000</v>
+        <v>GBP_YCRH_5MOIS#0002</v>
       </c>
       <c r="M13" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -10582,7 +10553,7 @@
       <c r="N13" s="96"/>
       <c r="P13" s="99">
         <f>_xll.qlRateHelperEarliestDate($L13)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q13" s="99">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
@@ -10627,7 +10598,7 @@
       </c>
       <c r="L14" s="101" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6MOIS#0000</v>
+        <v>GBP_YCRH_6MOIS#0002</v>
       </c>
       <c r="M14" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -10636,11 +10607,11 @@
       <c r="N14" s="96"/>
       <c r="P14" s="99">
         <f>_xll.qlRateHelperEarliestDate($L14)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q14" s="99">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -10681,7 +10652,7 @@
       </c>
       <c r="L15" s="101" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7MOIS#0000</v>
+        <v>GBP_YCRH_7MOIS#0002</v>
       </c>
       <c r="M15" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -10690,11 +10661,11 @@
       <c r="N15" s="96"/>
       <c r="P15" s="99">
         <f>_xll.qlRateHelperEarliestDate($L15)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q15" s="99">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -10735,7 +10706,7 @@
       </c>
       <c r="L16" s="101" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8MOIS#0000</v>
+        <v>GBP_YCRH_8MOIS#0002</v>
       </c>
       <c r="M16" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -10744,7 +10715,7 @@
       <c r="N16" s="96"/>
       <c r="P16" s="99">
         <f>_xll.qlRateHelperEarliestDate($L16)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q16" s="99">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
@@ -10789,7 +10760,7 @@
       </c>
       <c r="L17" s="101" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9MOIS#0000</v>
+        <v>GBP_YCRH_9MOIS#0002</v>
       </c>
       <c r="M17" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -10798,11 +10769,11 @@
       <c r="N17" s="96"/>
       <c r="P17" s="99">
         <f>_xll.qlRateHelperEarliestDate($L17)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q17" s="99">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -10843,7 +10814,7 @@
       </c>
       <c r="L18" s="101" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10MOIS#0000</v>
+        <v>GBP_YCRH_10MOIS#0002</v>
       </c>
       <c r="M18" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -10852,11 +10823,11 @@
       <c r="N18" s="96"/>
       <c r="P18" s="99">
         <f>_xll.qlRateHelperEarliestDate($L18)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q18" s="99">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -10897,7 +10868,7 @@
       </c>
       <c r="L19" s="101" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11MOIS#0000</v>
+        <v>GBP_YCRH_11MOIS#0002</v>
       </c>
       <c r="M19" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -10906,7 +10877,7 @@
       <c r="N19" s="96"/>
       <c r="P19" s="99">
         <f>_xll.qlRateHelperEarliestDate($L19)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q19" s="99">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
@@ -10951,7 +10922,7 @@
       </c>
       <c r="L20" s="101" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1YOIS#0000</v>
+        <v>GBP_YCRH_1YOIS#0002</v>
       </c>
       <c r="M20" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -10960,11 +10931,11 @@
       <c r="N20" s="96"/>
       <c r="P20" s="99">
         <f>_xll.qlRateHelperEarliestDate($L20)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q20" s="99">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -11005,7 +10976,7 @@
       </c>
       <c r="L21" s="101" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15MOIS#0000</v>
+        <v>GBP_YCRH_15MOIS#0002</v>
       </c>
       <c r="M21" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -11014,11 +10985,11 @@
       <c r="N21" s="96"/>
       <c r="P21" s="99">
         <f>_xll.qlRateHelperEarliestDate($L21)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q21" s="99">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -11059,7 +11030,7 @@
       </c>
       <c r="L22" s="101" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_18MOIS#0000</v>
+        <v>GBP_YCRH_18MOIS#0002</v>
       </c>
       <c r="M22" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -11068,11 +11039,11 @@
       <c r="N22" s="96"/>
       <c r="P22" s="99">
         <f>_xll.qlRateHelperEarliestDate($L22)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q22" s="99">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -11113,7 +11084,7 @@
       </c>
       <c r="L23" s="101" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_21MOIS#0000</v>
+        <v>GBP_YCRH_21MOIS#0002</v>
       </c>
       <c r="M23" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -11122,11 +11093,11 @@
       <c r="N23" s="96"/>
       <c r="P23" s="99">
         <f>_xll.qlRateHelperEarliestDate($L23)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q23" s="99">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -11167,7 +11138,7 @@
       </c>
       <c r="L24" s="101" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2YOIS#0000</v>
+        <v>GBP_YCRH_2YOIS#0002</v>
       </c>
       <c r="M24" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -11176,11 +11147,11 @@
       <c r="N24" s="96"/>
       <c r="P24" s="99">
         <f>_xll.qlRateHelperEarliestDate($L24)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q24" s="99">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -11221,7 +11192,7 @@
       </c>
       <c r="L25" s="101" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3YOIS#0000</v>
+        <v>GBP_YCRH_3YOIS#0002</v>
       </c>
       <c r="M25" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -11230,7 +11201,7 @@
       <c r="N25" s="96"/>
       <c r="P25" s="99">
         <f>_xll.qlRateHelperEarliestDate($L25)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q25" s="99">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
@@ -11275,7 +11246,7 @@
       </c>
       <c r="L26" s="101" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4YOIS#0000</v>
+        <v>GBP_YCRH_4YOIS#0002</v>
       </c>
       <c r="M26" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -11284,7 +11255,7 @@
       <c r="N26" s="96"/>
       <c r="P26" s="99">
         <f>_xll.qlRateHelperEarliestDate($L26)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q26" s="99">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
@@ -11329,7 +11300,7 @@
       </c>
       <c r="L27" s="101" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5YOIS#0000</v>
+        <v>GBP_YCRH_5YOIS#0002</v>
       </c>
       <c r="M27" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -11338,11 +11309,11 @@
       <c r="N27" s="96"/>
       <c r="P27" s="99">
         <f>_xll.qlRateHelperEarliestDate($L27)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q27" s="99">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -11383,7 +11354,7 @@
       </c>
       <c r="L28" s="101" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6YOIS#0000</v>
+        <v>GBP_YCRH_6YOIS#0002</v>
       </c>
       <c r="M28" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -11392,11 +11363,11 @@
       <c r="N28" s="96"/>
       <c r="P28" s="99">
         <f>_xll.qlRateHelperEarliestDate($L28)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q28" s="99">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -11437,7 +11408,7 @@
       </c>
       <c r="L29" s="101" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7YOIS#0000</v>
+        <v>GBP_YCRH_7YOIS#0002</v>
       </c>
       <c r="M29" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -11446,11 +11417,11 @@
       <c r="N29" s="96"/>
       <c r="P29" s="99">
         <f>_xll.qlRateHelperEarliestDate($L29)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q29" s="99">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -11491,7 +11462,7 @@
       </c>
       <c r="L30" s="101" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8YOIS#0000</v>
+        <v>GBP_YCRH_8YOIS#0002</v>
       </c>
       <c r="M30" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -11500,11 +11471,11 @@
       <c r="N30" s="96"/>
       <c r="P30" s="99">
         <f>_xll.qlRateHelperEarliestDate($L30)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q30" s="99">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -11545,7 +11516,7 @@
       </c>
       <c r="L31" s="101" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9YOIS#0000</v>
+        <v>GBP_YCRH_9YOIS#0002</v>
       </c>
       <c r="M31" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -11554,7 +11525,7 @@
       <c r="N31" s="96"/>
       <c r="P31" s="99">
         <f>_xll.qlRateHelperEarliestDate($L31)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q31" s="99">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
@@ -11599,7 +11570,7 @@
       </c>
       <c r="L32" s="101" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10YOIS#0000</v>
+        <v>GBP_YCRH_10YOIS#0002</v>
       </c>
       <c r="M32" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -11608,7 +11579,7 @@
       <c r="N32" s="96"/>
       <c r="P32" s="99">
         <f>_xll.qlRateHelperEarliestDate($L32)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q32" s="99">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
@@ -11653,7 +11624,7 @@
       </c>
       <c r="L33" s="101" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11YOIS#0000</v>
+        <v>GBP_YCRH_11YOIS#0002</v>
       </c>
       <c r="M33" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -11662,11 +11633,11 @@
       <c r="N33" s="96"/>
       <c r="P33" s="99">
         <f>_xll.qlRateHelperEarliestDate($L33)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q33" s="99">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -11707,7 +11678,7 @@
       </c>
       <c r="L34" s="101" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_12YOIS#0000</v>
+        <v>GBP_YCRH_12YOIS#0002</v>
       </c>
       <c r="M34" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -11716,11 +11687,11 @@
       <c r="N34" s="96"/>
       <c r="P34" s="99">
         <f>_xll.qlRateHelperEarliestDate($L34)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q34" s="99">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -11761,7 +11732,7 @@
       </c>
       <c r="L35" s="101" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15YOIS#0000</v>
+        <v>GBP_YCRH_15YOIS#0002</v>
       </c>
       <c r="M35" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -11770,7 +11741,7 @@
       <c r="N35" s="96"/>
       <c r="P35" s="99">
         <f>_xll.qlRateHelperEarliestDate($L35)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q35" s="99">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
@@ -11815,7 +11786,7 @@
       </c>
       <c r="L36" s="101" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_20YOIS#0000</v>
+        <v>GBP_YCRH_20YOIS#0002</v>
       </c>
       <c r="M36" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -11824,7 +11795,7 @@
       <c r="N36" s="96"/>
       <c r="P36" s="99">
         <f>_xll.qlRateHelperEarliestDate($L36)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q36" s="99">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
@@ -11869,7 +11840,7 @@
       </c>
       <c r="L37" s="101" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_25YOIS#0000</v>
+        <v>GBP_YCRH_25YOIS#0002</v>
       </c>
       <c r="M37" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -11878,11 +11849,11 @@
       <c r="N37" s="96"/>
       <c r="P37" s="99">
         <f>_xll.qlRateHelperEarliestDate($L37)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q37" s="99">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -11923,7 +11894,7 @@
       </c>
       <c r="L38" s="101" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_30YOIS#0000</v>
+        <v>GBP_YCRH_30YOIS#0002</v>
       </c>
       <c r="M38" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -11932,11 +11903,11 @@
       <c r="N38" s="96"/>
       <c r="P38" s="99">
         <f>_xll.qlRateHelperEarliestDate($L38)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q38" s="99">
         <f>_xll.qlRateHelperLatestDate($L38)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -11995,7 +11966,7 @@
       </c>
       <c r="L40" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN11OIS#0000</v>
+        <v>GBP_YCRH_MPCJAN11OIS#0002</v>
       </c>
       <c r="M40" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -12049,7 +12020,7 @@
       </c>
       <c r="L41" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB11OIS#0000</v>
+        <v>GBP_YCRH_MPCFEB11OIS#0002</v>
       </c>
       <c r="M41" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -12103,7 +12074,7 @@
       </c>
       <c r="L42" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR11OIS#0000</v>
+        <v>GBP_YCRH_MPCMAR11OIS#0002</v>
       </c>
       <c r="M42" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -12157,7 +12128,7 @@
       </c>
       <c r="L43" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR11OIS#0000</v>
+        <v>GBP_YCRH_MPCAPR11OIS#0002</v>
       </c>
       <c r="M43" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -12211,7 +12182,7 @@
       </c>
       <c r="L44" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY11OIS#0000</v>
+        <v>GBP_YCRH_MPCMAY11OIS#0002</v>
       </c>
       <c r="M44" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -12265,7 +12236,7 @@
       </c>
       <c r="L45" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN11OIS#0000</v>
+        <v>GBP_YCRH_MPCJUN11OIS#0002</v>
       </c>
       <c r="M45" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -12319,7 +12290,7 @@
       </c>
       <c r="L46" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL11OIS#0000</v>
+        <v>GBP_YCRH_MPCJUL11OIS#0002</v>
       </c>
       <c r="M46" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -12373,7 +12344,7 @@
       </c>
       <c r="L47" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG11OIS#0000</v>
+        <v>GBP_YCRH_MPCAUG11OIS#0002</v>
       </c>
       <c r="M47" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -12427,7 +12398,7 @@
       </c>
       <c r="L48" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP11OIS#0000</v>
+        <v>GBP_YCRH_MPCSEP11OIS#0002</v>
       </c>
       <c r="M48" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -12481,7 +12452,7 @@
       </c>
       <c r="L49" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT11OIS#0000</v>
+        <v>GBP_YCRH_MPCOCT11OIS#0002</v>
       </c>
       <c r="M49" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -12535,7 +12506,7 @@
       </c>
       <c r="L50" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV11OIS#0000</v>
+        <v>GBP_YCRH_MPCNOV11OIS#0002</v>
       </c>
       <c r="M50" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -12589,7 +12560,7 @@
       </c>
       <c r="L51" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCDEC11OIS#0000</v>
+        <v>GBP_YCRH_MPCDEC11OIS#0002</v>
       </c>
       <c r="M51" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -12643,7 +12614,7 @@
       </c>
       <c r="L52" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN12OIS#0000</v>
+        <v>GBP_YCRH_MPCJAN12OIS#0002</v>
       </c>
       <c r="M52" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -12697,7 +12668,7 @@
       </c>
       <c r="L53" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB12OIS#0000</v>
+        <v>GBP_YCRH_MPCFEB12OIS#0002</v>
       </c>
       <c r="M53" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -12751,7 +12722,7 @@
       </c>
       <c r="L54" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR12OIS#0000</v>
+        <v>GBP_YCRH_MPCMAR12OIS#0002</v>
       </c>
       <c r="M54" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -12805,7 +12776,7 @@
       </c>
       <c r="L55" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR12OIS#0000</v>
+        <v>GBP_YCRH_MPCAPR12OIS#0002</v>
       </c>
       <c r="M55" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -12859,7 +12830,7 @@
       </c>
       <c r="L56" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY12OIS#0000</v>
+        <v>GBP_YCRH_MPCMAY12OIS#0002</v>
       </c>
       <c r="M56" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -12913,7 +12884,7 @@
       </c>
       <c r="L57" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN12OIS#0000</v>
+        <v>GBP_YCRH_MPCJUN12OIS#0002</v>
       </c>
       <c r="M57" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -12967,7 +12938,7 @@
       </c>
       <c r="L58" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL12OIS#0000</v>
+        <v>GBP_YCRH_MPCJUL12OIS#0002</v>
       </c>
       <c r="M58" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -13021,7 +12992,7 @@
       </c>
       <c r="L59" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG12OIS#0000</v>
+        <v>GBP_YCRH_MPCAUG12OIS#0002</v>
       </c>
       <c r="M59" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -13075,7 +13046,7 @@
       </c>
       <c r="L60" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP12OIS#0000</v>
+        <v>GBP_YCRH_MPCSEP12OIS#0002</v>
       </c>
       <c r="M60" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
@@ -13129,7 +13100,7 @@
       </c>
       <c r="L61" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT12OIS#0000</v>
+        <v>GBP_YCRH_MPCOCT12OIS#0002</v>
       </c>
       <c r="M61" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
@@ -13183,7 +13154,7 @@
       </c>
       <c r="L62" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV12OIS#0000</v>
+        <v>GBP_YCRH_MPCNOV12OIS#0002</v>
       </c>
       <c r="M62" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
@@ -13241,7 +13212,7 @@
       </c>
       <c r="M63" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N63" s="96"/>
       <c r="P63" s="99" t="e">
@@ -13290,7 +13261,7 @@
       </c>
       <c r="M64" s="108" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N64" s="96"/>
       <c r="P64" s="99" t="e">

--- a/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCBootstrapping.xlsx
@@ -874,7 +874,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +926,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,7 +1376,7 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1680,6 +1686,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1695,21 +1710,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2027,39 +2036,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="146" customWidth="1"/>
-    <col min="3" max="3" width="18" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="146" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="146" customWidth="1"/>
-    <col min="8" max="9" width="8" style="146"/>
-    <col min="10" max="11" width="2.7109375" style="146" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="146" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="146" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="146"/>
+    <col min="1" max="2" width="2.7109375" style="141" customWidth="1"/>
+    <col min="3" max="3" width="18" style="141" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="141" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="141" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="141" customWidth="1"/>
+    <col min="8" max="8" width="4" style="141" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="141" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="141" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="141" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="141" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="141" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="146" t="str">
+      <c r="B1" s="141" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="K2" s="154" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="K2" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="157"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2082,10 +2092,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="150"/>
+      <c r="I4" s="152"/>
       <c r="K4" s="136"/>
       <c r="L4" s="135" t="s">
         <v>173</v>
@@ -2103,10 +2113,10 @@
       <c r="D5" s="62"/>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="148" t="s">
+      <c r="I5" s="154" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="136"/>
@@ -2115,7 +2125,7 @@
       </c>
       <c r="M5" s="137" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="134"/>
     </row>
@@ -2127,10 +2137,10 @@
       <c r="D6" s="62"/>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="148"/>
+      <c r="I6" s="154"/>
       <c r="K6" s="136"/>
       <c r="L6" s="135" t="s">
         <v>171</v>
@@ -2150,10 +2160,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="147" t="s">
+      <c r="H7" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="148"/>
+      <c r="I7" s="154"/>
       <c r="K7" s="133"/>
       <c r="L7" s="132"/>
       <c r="M7" s="132"/>
@@ -2167,16 +2177,16 @@
       <c r="D8" s="62"/>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="151" t="s">
+      <c r="H8" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="152" t="s">
+      <c r="I8" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
@@ -2189,12 +2199,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="157"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2217,7 +2227,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="86">
-        <v>41654.195277777777</v>
+        <v>41684.58625</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2271,7 +2281,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC#0002</v>
+        <v>_GBPYC#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2451,7 +2461,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="D27" s="64">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
@@ -2464,11 +2474,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>52611</v>
+        <v>52642</v>
       </c>
       <c r="D28" s="62">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
-        <v>0.37951474512524541</v>
+        <v>0.40728667016630787</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2552,11 +2562,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -3862,11 +3872,11 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>Discount!L6</f>
-        <v>GBP_YCRH_SWOIS#0002</v>
+        <v>GBP_YCRH_SWOIS#0000</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>4.15E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="G35" s="20" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
@@ -3883,11 +3893,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41661</v>
+        <v>41691</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -3900,11 +3910,11 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>Discount!L7</f>
-        <v>GBP_YCRH_2WOIS#0002</v>
+        <v>GBP_YCRH_2WOIS#0000</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>4.1625000000000004E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="G36" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -3921,11 +3931,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41668</v>
+        <v>41698</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -3938,7 +3948,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>Discount!L8</f>
-        <v>GBP_YCRH_3WOIS#0002</v>
+        <v>GBP_YCRH_3WOIS#0000</v>
       </c>
       <c r="F37" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -3959,11 +3969,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41675</v>
+        <v>41705</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -3976,11 +3986,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>Discount!L9</f>
-        <v>GBP_YCRH_1MOIS#0002</v>
+        <v>GBP_YCRH_1MOIS#0000</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>4.1625000000000004E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="G38" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -3997,11 +4007,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4014,7 +4024,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>Discount!L10</f>
-        <v>GBP_YCRH_2MOIS#0002</v>
+        <v>GBP_YCRH_2MOIS#0000</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4035,11 +4045,11 @@
       </c>
       <c r="K39" s="11">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L39" s="10">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4052,11 +4062,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>Discount!L11</f>
-        <v>GBP_YCRH_3MOIS#0002</v>
+        <v>GBP_YCRH_3MOIS#0000</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>4.0875E-3</v>
+        <v>4.0749999999999996E-3</v>
       </c>
       <c r="G40" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -4073,11 +4083,11 @@
       </c>
       <c r="K40" s="11">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L40" s="10">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41744</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4090,11 +4100,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>Discount!L12</f>
-        <v>GBP_YCRH_4MOIS#0002</v>
+        <v>GBP_YCRH_4MOIS#0000</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>4.0375000000000003E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G41" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -4111,11 +4121,11 @@
       </c>
       <c r="K41" s="11">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L41" s="10">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41774</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4128,11 +4138,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>Discount!L13</f>
-        <v>GBP_YCRH_5MOIS#0002</v>
+        <v>GBP_YCRH_5MOIS#0000</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="G42" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -4149,11 +4159,11 @@
       </c>
       <c r="K42" s="11">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L42" s="10">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41806</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4166,11 +4176,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>Discount!L14</f>
-        <v>GBP_YCRH_6MOIS#0002</v>
+        <v>GBP_YCRH_6MOIS#0000</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>3.9624999999999999E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="G43" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -4187,11 +4197,11 @@
       </c>
       <c r="K43" s="11">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L43" s="10">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41835</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4204,11 +4214,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>Discount!L15</f>
-        <v>GBP_YCRH_7MOIS#0002</v>
+        <v>GBP_YCRH_7MOIS#0000</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>3.9249999999999997E-3</v>
+        <v>3.8250000000000003E-3</v>
       </c>
       <c r="G44" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -4225,11 +4235,11 @@
       </c>
       <c r="K44" s="11">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L44" s="10">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41866</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4242,11 +4252,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>Discount!L16</f>
-        <v>GBP_YCRH_8MOIS#0002</v>
+        <v>GBP_YCRH_8MOIS#0000</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="G45" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -4263,11 +4273,11 @@
       </c>
       <c r="K45" s="11">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L45" s="10">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41897</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4280,11 +4290,11 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>Discount!L17</f>
-        <v>GBP_YCRH_9MOIS#0002</v>
+        <v>GBP_YCRH_9MOIS#0000</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>3.8624999999999996E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G46" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -4301,11 +4311,11 @@
       </c>
       <c r="K46" s="11">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L46" s="10">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41927</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4318,11 +4328,11 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>Discount!L18</f>
-        <v>GBP_YCRH_10MOIS#0002</v>
+        <v>GBP_YCRH_10MOIS#0000</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>3.8250000000000003E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="G47" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
@@ -4339,11 +4349,11 @@
       </c>
       <c r="K47" s="11">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L47" s="10">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41960</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4356,11 +4366,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>Discount!L19</f>
-        <v>GBP_YCRH_11MOIS#0002</v>
+        <v>GBP_YCRH_11MOIS#0000</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>3.8E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G48" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -4377,11 +4387,11 @@
       </c>
       <c r="K48" s="11">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L48" s="10">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>41988</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4394,11 +4404,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>Discount!L20</f>
-        <v>GBP_YCRH_1YOIS#0002</v>
+        <v>GBP_YCRH_1YOIS#0000</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>3.7750000000000001E-3</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G49" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -4415,11 +4425,11 @@
       </c>
       <c r="K49" s="11">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L49" s="10">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42019</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4432,11 +4442,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>Discount!L21</f>
-        <v>GBP_YCRH_15MOIS#0002</v>
+        <v>GBP_YCRH_15MOIS#0000</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>3.7375000000000004E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="G50" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -4453,11 +4463,11 @@
       </c>
       <c r="K50" s="11">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L50" s="10">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42109</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4470,11 +4480,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>Discount!L22</f>
-        <v>GBP_YCRH_18MOIS#0002</v>
+        <v>GBP_YCRH_18MOIS#0000</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>3.7499999999999999E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="G51" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -4491,11 +4501,11 @@
       </c>
       <c r="K51" s="11">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L51" s="10">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42200</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4508,7 +4518,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>Discount!L23</f>
-        <v>GBP_YCRH_21MOIS#0002</v>
+        <v>GBP_YCRH_21MOIS#0000</v>
       </c>
       <c r="F52" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4529,11 +4539,11 @@
       </c>
       <c r="K52" s="11">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L52" s="10">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42292</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4546,11 +4556,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>Discount!L24</f>
-        <v>GBP_YCRH_2YOIS#0002</v>
+        <v>GBP_YCRH_2YOIS#0000</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>3.9249999999999997E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="G53" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -4567,11 +4577,11 @@
       </c>
       <c r="K53" s="11">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L53" s="10">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42384</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4584,11 +4594,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>Discount!L25</f>
-        <v>GBP_YCRH_3YOIS#0002</v>
+        <v>GBP_YCRH_3YOIS#0000</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>4.8374999999999998E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="G54" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -4605,11 +4615,11 @@
       </c>
       <c r="K54" s="11">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L54" s="10">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4622,11 +4632,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>Discount!L26</f>
-        <v>GBP_YCRH_4YOIS#0002</v>
+        <v>GBP_YCRH_4YOIS#0000</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>6.4124999999999998E-3</v>
+        <v>5.1749999999999999E-3</v>
       </c>
       <c r="G55" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -4643,11 +4653,11 @@
       </c>
       <c r="K55" s="11">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L55" s="10">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -4660,11 +4670,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>Discount!L27</f>
-        <v>GBP_YCRH_5YOIS#0002</v>
+        <v>GBP_YCRH_5YOIS#0000</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>8.3499999999999998E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="G56" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -4681,11 +4691,11 @@
       </c>
       <c r="K56" s="11">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L56" s="10">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43480</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -4698,11 +4708,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>Discount!L28</f>
-        <v>GBP_YCRH_6YOIS#0002</v>
+        <v>GBP_YCRH_6YOIS#0000</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>1.0387499999999999E-2</v>
+        <v>8.4250000000000002E-3</v>
       </c>
       <c r="G57" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -4719,11 +4729,11 @@
       </c>
       <c r="K57" s="11">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L57" s="10">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43845</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -4736,11 +4746,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>Discount!L29</f>
-        <v>GBP_YCRH_7YOIS#0002</v>
+        <v>GBP_YCRH_7YOIS#0000</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="G58" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -4757,11 +4767,11 @@
       </c>
       <c r="K58" s="11">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L58" s="10">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>44211</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -4774,11 +4784,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>Discount!L30</f>
-        <v>GBP_YCRH_8YOIS#0002</v>
+        <v>GBP_YCRH_8YOIS#0000</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>1.4562499999999999E-2</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="G59" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -4795,11 +4805,11 @@
       </c>
       <c r="K59" s="11">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L59" s="10">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -4812,11 +4822,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>Discount!L31</f>
-        <v>GBP_YCRH_9YOIS#0002</v>
+        <v>GBP_YCRH_9YOIS#0000</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>1.6487500000000002E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="G60" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -4833,11 +4843,11 @@
       </c>
       <c r="K60" s="11">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L60" s="10">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -4850,11 +4860,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>Discount!L32</f>
-        <v>GBP_YCRH_10YOIS#0002</v>
+        <v>GBP_YCRH_10YOIS#0000</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>1.82125E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="G61" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -4871,11 +4881,11 @@
       </c>
       <c r="K61" s="11">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L61" s="10">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -4888,7 +4898,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>Discount!L33</f>
-        <v>GBP_YCRH_11YOIS#0002</v>
+        <v>GBP_YCRH_11YOIS#0000</v>
       </c>
       <c r="F62" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -4909,11 +4919,11 @@
       </c>
       <c r="K62" s="11">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L62" s="10">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>45672</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -4926,11 +4936,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>Discount!L34</f>
-        <v>GBP_YCRH_12YOIS#0002</v>
+        <v>GBP_YCRH_12YOIS#0000</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>2.1000000000000001E-2</v>
+        <v>1.8574999999999998E-2</v>
       </c>
       <c r="G63" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -4947,11 +4957,11 @@
       </c>
       <c r="K63" s="11">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L63" s="10">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>46037</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -4964,11 +4974,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>Discount!L35</f>
-        <v>GBP_YCRH_15YOIS#0002</v>
+        <v>GBP_YCRH_15YOIS#0000</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>2.3949999999999999E-2</v>
+        <v>2.1625000000000002E-2</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
@@ -4985,11 +4995,11 @@
       </c>
       <c r="K64" s="11">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L64" s="10">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5002,11 +5012,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>Discount!L36</f>
-        <v>GBP_YCRH_20YOIS#0002</v>
+        <v>GBP_YCRH_20YOIS#0000</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.4874999999999998E-2</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -5023,11 +5033,11 @@
       </c>
       <c r="K65" s="11">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L65" s="10">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5040,11 +5050,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>Discount!L37</f>
-        <v>GBP_YCRH_25YOIS#0002</v>
+        <v>GBP_YCRH_25YOIS#0000</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>2.8799999999999999E-2</v>
+        <v>2.665E-2</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5061,11 +5071,11 @@
       </c>
       <c r="K66" s="11">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L66" s="10">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5078,11 +5088,11 @@
       </c>
       <c r="E67" s="7" t="str">
         <f>Discount!L38</f>
-        <v>GBP_YCRH_30YOIS#0002</v>
+        <v>GBP_YCRH_30YOIS#0000</v>
       </c>
       <c r="F67" s="6">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>2.9699999999999997E-2</v>
+        <v>2.7525000000000001E-2</v>
       </c>
       <c r="G67" s="6" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -5099,11 +5109,11 @@
       </c>
       <c r="K67" s="4">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L67" s="3">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>52611</v>
+        <v>52642</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -6587,10 +6597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="150"/>
       <c r="D1" s="52" t="s">
         <v>87</v>
       </c>
@@ -6622,7 +6632,7 @@
       </c>
       <c r="E2" s="39">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.15E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6630,14 +6640,14 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41661</v>
+        <v>41691</v>
       </c>
       <c r="I2" s="41">
-        <v>0.99991931206662343</v>
+        <v>0.9999188260341918</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>120</v>
@@ -6658,7 +6668,7 @@
       </c>
       <c r="E3" s="39">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.1625000000000004E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6666,14 +6676,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41668</v>
+        <v>41698</v>
       </c>
       <c r="I3" s="41">
-        <v>0.99983815119927455</v>
+        <v>0.99983766524573991</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J36" si="0">H3-H2</f>
@@ -6698,7 +6708,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.1625000000000004E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6706,18 +6716,18 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
       <c r="I4" s="41">
-        <v>0.99961858303441109</v>
+        <v>0.99967538318807037</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>122</v>
@@ -6746,18 +6756,18 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
       <c r="I5" s="41">
-        <v>0.99930152986818577</v>
+        <v>0.99932441505690428</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>123</v>
@@ -6779,7 +6789,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>4.0875E-3</v>
+        <v>4.0749999999999996E-3</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6787,18 +6797,18 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41744</v>
+        <v>41773</v>
       </c>
       <c r="I6" s="41">
-        <v>0.99897916816253407</v>
+        <v>0.99899358333933996</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>124</v>
@@ -6810,7 +6820,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_RateHelpersSelected#0002</v>
+        <v>GBP_YCRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -6821,7 +6831,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>4.0375000000000003E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F7" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6829,18 +6839,18 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41774</v>
+        <v>41806</v>
       </c>
       <c r="I7" s="41">
-        <v>0.99865597549964003</v>
+        <v>0.99864627948780538</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>125</v>
@@ -6855,7 +6865,7 @@
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="F8" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6863,18 +6873,18 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41806</v>
+        <v>41834</v>
       </c>
       <c r="I8" s="41">
-        <v>0.99831395864761729</v>
+        <v>0.99835687098317361</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>126</v>
@@ -6889,7 +6899,7 @@
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.9624999999999999E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="F9" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6897,18 +6907,18 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41835</v>
+        <v>41865</v>
       </c>
       <c r="I9" s="41">
-        <v>0.99801170425156804</v>
+        <v>0.99804300400963775</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>127</v>
@@ -6923,7 +6933,7 @@
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.9249999999999997E-3</v>
+        <v>3.8250000000000003E-3</v>
       </c>
       <c r="F10" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6931,18 +6941,18 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41866</v>
+        <v>41897</v>
       </c>
       <c r="I10" s="41">
-        <v>0.99769394130954536</v>
+        <v>0.99774198516981261</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>128</v>
@@ -6957,7 +6967,7 @@
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="F11" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6965,18 +6975,18 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41897</v>
+        <v>41926</v>
       </c>
       <c r="I11" s="41">
-        <v>0.99737441186077658</v>
+        <v>0.99748550528875135</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>129</v>
@@ -6991,7 +7001,7 @@
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.8624999999999996E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6999,18 +7009,18 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41927</v>
+        <v>41957</v>
       </c>
       <c r="I12" s="41">
-        <v>0.9970794918509005</v>
+        <v>0.99720201733968117</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>130</v>
@@ -7025,7 +7035,7 @@
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.8250000000000003E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -7033,18 +7043,18 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41960</v>
+        <v>41988</v>
       </c>
       <c r="I13" s="41">
-        <v>0.99675928637018885</v>
+        <v>0.99692724868017923</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>131</v>
@@ -7059,7 +7069,7 @@
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.8E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -7067,18 +7077,18 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41988</v>
+        <v>42018</v>
       </c>
       <c r="I14" s="41">
-        <v>0.99648683031932972</v>
+        <v>0.99667111846432921</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>132</v>
@@ -7093,7 +7103,7 @@
       </c>
       <c r="E15" s="39">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.7750000000000001E-3</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="F15" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -7101,18 +7111,18 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42019</v>
+        <v>42051</v>
       </c>
       <c r="I15" s="41">
-        <v>0.99618716281399344</v>
+        <v>0.99636872036019286</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>133</v>
@@ -7127,7 +7137,7 @@
       </c>
       <c r="E16" s="39">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.7375000000000004E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="F16" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -7135,18 +7145,18 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42109</v>
+        <v>42138</v>
       </c>
       <c r="I16" s="41">
-        <v>0.99529505985852451</v>
+        <v>0.99563416933739357</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>134</v>
@@ -7161,7 +7171,7 @@
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>3.7499999999999999E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="F17" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -7169,18 +7179,18 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42200</v>
+        <v>42230</v>
       </c>
       <c r="I17" s="41">
-        <v>0.99433767257122396</v>
+        <v>0.99478921018878841</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>135</v>
@@ -7195,7 +7205,7 @@
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>3.9249999999999997E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="F18" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -7203,18 +7213,18 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="I18" s="41">
-        <v>0.99208763283586621</v>
+        <v>0.99298134433128338</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>136</v>
@@ -7229,7 +7239,7 @@
       </c>
       <c r="E19" s="39">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>4.8374999999999998E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="F19" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -7237,18 +7247,18 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
       <c r="I19" s="41">
-        <v>0.98538862785813952</v>
+        <v>0.98776397820527084</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>137</v>
@@ -7263,7 +7273,7 @@
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>6.4124999999999998E-3</v>
+        <v>5.1749999999999999E-3</v>
       </c>
       <c r="F20" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -7271,18 +7281,18 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
       <c r="I20" s="41">
-        <v>0.97431422705854065</v>
+        <v>0.97922720054443413</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>138</v>
@@ -7297,7 +7307,7 @@
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>8.3499999999999998E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F21" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -7305,14 +7315,14 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43480</v>
+        <v>43510</v>
       </c>
       <c r="I21" s="41">
-        <v>0.95843929799646632</v>
+        <v>0.96653998773144867</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
@@ -7331,7 +7341,7 @@
       </c>
       <c r="E22" s="39">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.0387499999999999E-2</v>
+        <v>8.4250000000000002E-3</v>
       </c>
       <c r="F22" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7339,14 +7349,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="I22" s="41">
-        <v>0.9384148191527254</v>
+        <v>0.94981197598948219</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -7365,7 +7375,7 @@
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="F23" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7373,18 +7383,18 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44211</v>
+        <v>44242</v>
       </c>
       <c r="I23" s="41">
-        <v>0.91427140992097322</v>
+        <v>0.92888894252291776</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>141</v>
@@ -7399,7 +7409,7 @@
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.4562499999999999E-2</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="F24" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7407,18 +7417,18 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
       <c r="I24" s="41">
-        <v>0.88695870542946509</v>
+        <v>0.90461247141615075</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>142</v>
@@ -7433,7 +7443,7 @@
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.6487500000000002E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="F25" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7441,18 +7451,18 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
       <c r="I25" s="41">
-        <v>0.85771716688337685</v>
+        <v>0.87764578305601437</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>143</v>
@@ -7467,7 +7477,7 @@
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.82125E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="F26" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7475,18 +7485,18 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
       <c r="I26" s="41">
-        <v>0.82759089454066848</v>
+        <v>0.84927942737417028</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>144</v>
@@ -7501,7 +7511,7 @@
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.1000000000000001E-2</v>
+        <v>1.8574999999999998E-2</v>
       </c>
       <c r="F27" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7509,18 +7519,18 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>46037</v>
+        <v>46069</v>
       </c>
       <c r="I27" s="41">
-        <v>0.76782989110663313</v>
+        <v>0.79175807062960923</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>145</v>
@@ -7535,7 +7545,7 @@
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.3949999999999999E-2</v>
+        <v>2.1625000000000002E-2</v>
       </c>
       <c r="F28" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7543,18 +7553,18 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
       <c r="I28" s="41">
-        <v>0.6833701359289146</v>
+        <v>0.70917686326802098</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>146</v>
@@ -7569,7 +7579,7 @@
       </c>
       <c r="E29" s="39">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.4874999999999998E-2</v>
       </c>
       <c r="F29" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7577,18 +7587,18 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
       <c r="I29" s="41">
-        <v>0.55831064553612364</v>
+        <v>0.58556019165044149</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>147</v>
@@ -7603,7 +7613,7 @@
       </c>
       <c r="E30" s="39">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.8799999999999999E-2</v>
+        <v>2.665E-2</v>
       </c>
       <c r="F30" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7611,18 +7621,18 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
       <c r="I30" s="41">
-        <v>0.45807915860741094</v>
+        <v>0.48523871358816034</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>148</v>
@@ -7637,7 +7647,7 @@
       </c>
       <c r="E31" s="39">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.9699999999999997E-2</v>
+        <v>2.7525000000000001E-2</v>
       </c>
       <c r="F31" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7645,18 +7655,18 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>52611</v>
+        <v>52642</v>
       </c>
       <c r="I31" s="41">
-        <v>0.37951474512524536</v>
+        <v>0.40728667016630782</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>149</v>
@@ -10105,7 +10115,7 @@
       </c>
       <c r="L4" s="113" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCRH__Libor#0002</v>
+        <v>GBP_YCRH__Libor#0000</v>
       </c>
       <c r="M4" s="112" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -10166,7 +10176,7 @@
       </c>
       <c r="L6" s="101" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_SWOIS#0002</v>
+        <v>GBP_YCRH_SWOIS#0000</v>
       </c>
       <c r="M6" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -10175,11 +10185,11 @@
       <c r="N6" s="96"/>
       <c r="P6" s="99">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q6" s="99">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41661</v>
+        <v>41691</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -10220,7 +10230,7 @@
       </c>
       <c r="L7" s="101" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2WOIS#0002</v>
+        <v>GBP_YCRH_2WOIS#0000</v>
       </c>
       <c r="M7" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -10229,11 +10239,11 @@
       <c r="N7" s="96"/>
       <c r="P7" s="99">
         <f>_xll.qlRateHelperEarliestDate($L7)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q7" s="99">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41668</v>
+        <v>41698</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -10274,7 +10284,7 @@
       </c>
       <c r="L8" s="101" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3WOIS#0002</v>
+        <v>GBP_YCRH_3WOIS#0000</v>
       </c>
       <c r="M8" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -10283,11 +10293,11 @@
       <c r="N8" s="96"/>
       <c r="P8" s="99">
         <f>_xll.qlRateHelperEarliestDate($L8)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q8" s="99">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41675</v>
+        <v>41705</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -10328,7 +10338,7 @@
       </c>
       <c r="L9" s="101" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1MOIS#0002</v>
+        <v>GBP_YCRH_1MOIS#0000</v>
       </c>
       <c r="M9" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -10337,11 +10347,11 @@
       <c r="N9" s="96"/>
       <c r="P9" s="99">
         <f>_xll.qlRateHelperEarliestDate($L9)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q9" s="99">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -10382,7 +10392,7 @@
       </c>
       <c r="L10" s="101" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2MOIS#0002</v>
+        <v>GBP_YCRH_2MOIS#0000</v>
       </c>
       <c r="M10" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -10391,11 +10401,11 @@
       <c r="N10" s="96"/>
       <c r="P10" s="99">
         <f>_xll.qlRateHelperEarliestDate($L10)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q10" s="99">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -10436,7 +10446,7 @@
       </c>
       <c r="L11" s="101" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3MOIS#0002</v>
+        <v>GBP_YCRH_3MOIS#0000</v>
       </c>
       <c r="M11" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -10445,11 +10455,11 @@
       <c r="N11" s="96"/>
       <c r="P11" s="99">
         <f>_xll.qlRateHelperEarliestDate($L11)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q11" s="99">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41744</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -10490,7 +10500,7 @@
       </c>
       <c r="L12" s="101" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4MOIS#0002</v>
+        <v>GBP_YCRH_4MOIS#0000</v>
       </c>
       <c r="M12" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -10499,11 +10509,11 @@
       <c r="N12" s="96"/>
       <c r="P12" s="99">
         <f>_xll.qlRateHelperEarliestDate($L12)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q12" s="99">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41774</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -10544,7 +10554,7 @@
       </c>
       <c r="L13" s="101" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5MOIS#0002</v>
+        <v>GBP_YCRH_5MOIS#0000</v>
       </c>
       <c r="M13" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -10553,11 +10563,11 @@
       <c r="N13" s="96"/>
       <c r="P13" s="99">
         <f>_xll.qlRateHelperEarliestDate($L13)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q13" s="99">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41806</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -10598,7 +10608,7 @@
       </c>
       <c r="L14" s="101" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6MOIS#0002</v>
+        <v>GBP_YCRH_6MOIS#0000</v>
       </c>
       <c r="M14" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -10607,11 +10617,11 @@
       <c r="N14" s="96"/>
       <c r="P14" s="99">
         <f>_xll.qlRateHelperEarliestDate($L14)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q14" s="99">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41835</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -10652,7 +10662,7 @@
       </c>
       <c r="L15" s="101" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7MOIS#0002</v>
+        <v>GBP_YCRH_7MOIS#0000</v>
       </c>
       <c r="M15" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -10661,11 +10671,11 @@
       <c r="N15" s="96"/>
       <c r="P15" s="99">
         <f>_xll.qlRateHelperEarliestDate($L15)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q15" s="99">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41866</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -10706,7 +10716,7 @@
       </c>
       <c r="L16" s="101" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8MOIS#0002</v>
+        <v>GBP_YCRH_8MOIS#0000</v>
       </c>
       <c r="M16" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -10715,11 +10725,11 @@
       <c r="N16" s="96"/>
       <c r="P16" s="99">
         <f>_xll.qlRateHelperEarliestDate($L16)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q16" s="99">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41897</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -10760,7 +10770,7 @@
       </c>
       <c r="L17" s="101" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9MOIS#0002</v>
+        <v>GBP_YCRH_9MOIS#0000</v>
       </c>
       <c r="M17" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -10769,11 +10779,11 @@
       <c r="N17" s="96"/>
       <c r="P17" s="99">
         <f>_xll.qlRateHelperEarliestDate($L17)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q17" s="99">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41927</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -10814,7 +10824,7 @@
       </c>
       <c r="L18" s="101" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10MOIS#0002</v>
+        <v>GBP_YCRH_10MOIS#0000</v>
       </c>
       <c r="M18" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -10823,11 +10833,11 @@
       <c r="N18" s="96"/>
       <c r="P18" s="99">
         <f>_xll.qlRateHelperEarliestDate($L18)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q18" s="99">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41960</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -10868,7 +10878,7 @@
       </c>
       <c r="L19" s="101" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11MOIS#0002</v>
+        <v>GBP_YCRH_11MOIS#0000</v>
       </c>
       <c r="M19" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -10877,11 +10887,11 @@
       <c r="N19" s="96"/>
       <c r="P19" s="99">
         <f>_xll.qlRateHelperEarliestDate($L19)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q19" s="99">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41988</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -10922,7 +10932,7 @@
       </c>
       <c r="L20" s="101" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_1YOIS#0002</v>
+        <v>GBP_YCRH_1YOIS#0000</v>
       </c>
       <c r="M20" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -10931,11 +10941,11 @@
       <c r="N20" s="96"/>
       <c r="P20" s="99">
         <f>_xll.qlRateHelperEarliestDate($L20)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q20" s="99">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42019</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -10976,7 +10986,7 @@
       </c>
       <c r="L21" s="101" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15MOIS#0002</v>
+        <v>GBP_YCRH_15MOIS#0000</v>
       </c>
       <c r="M21" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -10985,11 +10995,11 @@
       <c r="N21" s="96"/>
       <c r="P21" s="99">
         <f>_xll.qlRateHelperEarliestDate($L21)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q21" s="99">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42109</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -11030,7 +11040,7 @@
       </c>
       <c r="L22" s="101" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_18MOIS#0002</v>
+        <v>GBP_YCRH_18MOIS#0000</v>
       </c>
       <c r="M22" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -11039,11 +11049,11 @@
       <c r="N22" s="96"/>
       <c r="P22" s="99">
         <f>_xll.qlRateHelperEarliestDate($L22)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q22" s="99">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42200</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -11084,7 +11094,7 @@
       </c>
       <c r="L23" s="101" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_21MOIS#0002</v>
+        <v>GBP_YCRH_21MOIS#0000</v>
       </c>
       <c r="M23" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -11093,11 +11103,11 @@
       <c r="N23" s="96"/>
       <c r="P23" s="99">
         <f>_xll.qlRateHelperEarliestDate($L23)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q23" s="99">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42292</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -11138,7 +11148,7 @@
       </c>
       <c r="L24" s="101" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_2YOIS#0002</v>
+        <v>GBP_YCRH_2YOIS#0000</v>
       </c>
       <c r="M24" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -11147,11 +11157,11 @@
       <c r="N24" s="96"/>
       <c r="P24" s="99">
         <f>_xll.qlRateHelperEarliestDate($L24)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q24" s="99">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42384</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -11192,7 +11202,7 @@
       </c>
       <c r="L25" s="101" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_3YOIS#0002</v>
+        <v>GBP_YCRH_3YOIS#0000</v>
       </c>
       <c r="M25" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -11201,11 +11211,11 @@
       <c r="N25" s="96"/>
       <c r="P25" s="99">
         <f>_xll.qlRateHelperEarliestDate($L25)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q25" s="99">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -11246,7 +11256,7 @@
       </c>
       <c r="L26" s="101" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_4YOIS#0002</v>
+        <v>GBP_YCRH_4YOIS#0000</v>
       </c>
       <c r="M26" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -11255,11 +11265,11 @@
       <c r="N26" s="96"/>
       <c r="P26" s="99">
         <f>_xll.qlRateHelperEarliestDate($L26)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q26" s="99">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -11300,7 +11310,7 @@
       </c>
       <c r="L27" s="101" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_5YOIS#0002</v>
+        <v>GBP_YCRH_5YOIS#0000</v>
       </c>
       <c r="M27" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -11309,11 +11319,11 @@
       <c r="N27" s="96"/>
       <c r="P27" s="99">
         <f>_xll.qlRateHelperEarliestDate($L27)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q27" s="99">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>43480</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -11354,7 +11364,7 @@
       </c>
       <c r="L28" s="101" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_6YOIS#0002</v>
+        <v>GBP_YCRH_6YOIS#0000</v>
       </c>
       <c r="M28" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -11363,11 +11373,11 @@
       <c r="N28" s="96"/>
       <c r="P28" s="99">
         <f>_xll.qlRateHelperEarliestDate($L28)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q28" s="99">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>43845</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -11408,7 +11418,7 @@
       </c>
       <c r="L29" s="101" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_7YOIS#0002</v>
+        <v>GBP_YCRH_7YOIS#0000</v>
       </c>
       <c r="M29" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -11417,11 +11427,11 @@
       <c r="N29" s="96"/>
       <c r="P29" s="99">
         <f>_xll.qlRateHelperEarliestDate($L29)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q29" s="99">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>44211</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -11462,7 +11472,7 @@
       </c>
       <c r="L30" s="101" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_8YOIS#0002</v>
+        <v>GBP_YCRH_8YOIS#0000</v>
       </c>
       <c r="M30" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -11471,11 +11481,11 @@
       <c r="N30" s="96"/>
       <c r="P30" s="99">
         <f>_xll.qlRateHelperEarliestDate($L30)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q30" s="99">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -11516,7 +11526,7 @@
       </c>
       <c r="L31" s="101" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_9YOIS#0002</v>
+        <v>GBP_YCRH_9YOIS#0000</v>
       </c>
       <c r="M31" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -11525,11 +11535,11 @@
       <c r="N31" s="96"/>
       <c r="P31" s="99">
         <f>_xll.qlRateHelperEarliestDate($L31)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q31" s="99">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -11570,7 +11580,7 @@
       </c>
       <c r="L32" s="101" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_10YOIS#0002</v>
+        <v>GBP_YCRH_10YOIS#0000</v>
       </c>
       <c r="M32" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -11579,11 +11589,11 @@
       <c r="N32" s="96"/>
       <c r="P32" s="99">
         <f>_xll.qlRateHelperEarliestDate($L32)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q32" s="99">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -11624,7 +11634,7 @@
       </c>
       <c r="L33" s="101" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_11YOIS#0002</v>
+        <v>GBP_YCRH_11YOIS#0000</v>
       </c>
       <c r="M33" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -11633,11 +11643,11 @@
       <c r="N33" s="96"/>
       <c r="P33" s="99">
         <f>_xll.qlRateHelperEarliestDate($L33)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q33" s="99">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>45672</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -11678,7 +11688,7 @@
       </c>
       <c r="L34" s="101" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_12YOIS#0002</v>
+        <v>GBP_YCRH_12YOIS#0000</v>
       </c>
       <c r="M34" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -11687,11 +11697,11 @@
       <c r="N34" s="96"/>
       <c r="P34" s="99">
         <f>_xll.qlRateHelperEarliestDate($L34)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q34" s="99">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>46037</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -11732,7 +11742,7 @@
       </c>
       <c r="L35" s="101" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_15YOIS#0002</v>
+        <v>GBP_YCRH_15YOIS#0000</v>
       </c>
       <c r="M35" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -11741,11 +11751,11 @@
       <c r="N35" s="96"/>
       <c r="P35" s="99">
         <f>_xll.qlRateHelperEarliestDate($L35)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q35" s="99">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -11786,7 +11796,7 @@
       </c>
       <c r="L36" s="101" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_20YOIS#0002</v>
+        <v>GBP_YCRH_20YOIS#0000</v>
       </c>
       <c r="M36" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -11795,11 +11805,11 @@
       <c r="N36" s="96"/>
       <c r="P36" s="99">
         <f>_xll.qlRateHelperEarliestDate($L36)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q36" s="99">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -11840,7 +11850,7 @@
       </c>
       <c r="L37" s="101" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_25YOIS#0002</v>
+        <v>GBP_YCRH_25YOIS#0000</v>
       </c>
       <c r="M37" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -11849,11 +11859,11 @@
       <c r="N37" s="96"/>
       <c r="P37" s="99">
         <f>_xll.qlRateHelperEarliestDate($L37)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q37" s="99">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -11894,7 +11904,7 @@
       </c>
       <c r="L38" s="101" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_30YOIS#0002</v>
+        <v>GBP_YCRH_30YOIS#0000</v>
       </c>
       <c r="M38" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -11903,11 +11913,11 @@
       <c r="N38" s="96"/>
       <c r="P38" s="99">
         <f>_xll.qlRateHelperEarliestDate($L38)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="Q38" s="99">
         <f>_xll.qlRateHelperLatestDate($L38)</f>
-        <v>52611</v>
+        <v>52642</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -11966,7 +11976,7 @@
       </c>
       <c r="L40" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN11OIS#0002</v>
+        <v>GBP_YCRH_MPCJAN11OIS#0000</v>
       </c>
       <c r="M40" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -12020,7 +12030,7 @@
       </c>
       <c r="L41" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB11OIS#0002</v>
+        <v>GBP_YCRH_MPCFEB11OIS#0000</v>
       </c>
       <c r="M41" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -12074,7 +12084,7 @@
       </c>
       <c r="L42" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR11OIS#0002</v>
+        <v>GBP_YCRH_MPCMAR11OIS#0000</v>
       </c>
       <c r="M42" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -12128,7 +12138,7 @@
       </c>
       <c r="L43" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR11OIS#0002</v>
+        <v>GBP_YCRH_MPCAPR11OIS#0000</v>
       </c>
       <c r="M43" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -12182,7 +12192,7 @@
       </c>
       <c r="L44" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY11OIS#0002</v>
+        <v>GBP_YCRH_MPCMAY11OIS#0000</v>
       </c>
       <c r="M44" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -12236,7 +12246,7 @@
       </c>
       <c r="L45" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN11OIS#0002</v>
+        <v>GBP_YCRH_MPCJUN11OIS#0000</v>
       </c>
       <c r="M45" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -12290,7 +12300,7 @@
       </c>
       <c r="L46" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL11OIS#0002</v>
+        <v>GBP_YCRH_MPCJUL11OIS#0000</v>
       </c>
       <c r="M46" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -12344,7 +12354,7 @@
       </c>
       <c r="L47" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG11OIS#0002</v>
+        <v>GBP_YCRH_MPCAUG11OIS#0000</v>
       </c>
       <c r="M47" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -12398,7 +12408,7 @@
       </c>
       <c r="L48" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP11OIS#0002</v>
+        <v>GBP_YCRH_MPCSEP11OIS#0000</v>
       </c>
       <c r="M48" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -12452,7 +12462,7 @@
       </c>
       <c r="L49" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT11OIS#0002</v>
+        <v>GBP_YCRH_MPCOCT11OIS#0000</v>
       </c>
       <c r="M49" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -12506,7 +12516,7 @@
       </c>
       <c r="L50" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV11OIS#0002</v>
+        <v>GBP_YCRH_MPCNOV11OIS#0000</v>
       </c>
       <c r="M50" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -12560,7 +12570,7 @@
       </c>
       <c r="L51" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCDEC11OIS#0002</v>
+        <v>GBP_YCRH_MPCDEC11OIS#0000</v>
       </c>
       <c r="M51" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -12614,7 +12624,7 @@
       </c>
       <c r="L52" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJAN12OIS#0002</v>
+        <v>GBP_YCRH_MPCJAN12OIS#0000</v>
       </c>
       <c r="M52" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -12668,7 +12678,7 @@
       </c>
       <c r="L53" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCFEB12OIS#0002</v>
+        <v>GBP_YCRH_MPCFEB12OIS#0000</v>
       </c>
       <c r="M53" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -12722,7 +12732,7 @@
       </c>
       <c r="L54" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAR12OIS#0002</v>
+        <v>GBP_YCRH_MPCMAR12OIS#0000</v>
       </c>
       <c r="M54" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -12776,7 +12786,7 @@
       </c>
       <c r="L55" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAPR12OIS#0002</v>
+        <v>GBP_YCRH_MPCAPR12OIS#0000</v>
       </c>
       <c r="M55" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -12830,7 +12840,7 @@
       </c>
       <c r="L56" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCMAY12OIS#0002</v>
+        <v>GBP_YCRH_MPCMAY12OIS#0000</v>
       </c>
       <c r="M56" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -12884,7 +12894,7 @@
       </c>
       <c r="L57" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUN12OIS#0002</v>
+        <v>GBP_YCRH_MPCJUN12OIS#0000</v>
       </c>
       <c r="M57" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -12938,7 +12948,7 @@
       </c>
       <c r="L58" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCJUL12OIS#0002</v>
+        <v>GBP_YCRH_MPCJUL12OIS#0000</v>
       </c>
       <c r="M58" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -12992,7 +13002,7 @@
       </c>
       <c r="L59" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCAUG12OIS#0002</v>
+        <v>GBP_YCRH_MPCAUG12OIS#0000</v>
       </c>
       <c r="M59" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -13046,7 +13056,7 @@
       </c>
       <c r="L60" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCSEP12OIS#0002</v>
+        <v>GBP_YCRH_MPCSEP12OIS#0000</v>
       </c>
       <c r="M60" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
@@ -13100,7 +13110,7 @@
       </c>
       <c r="L61" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCOCT12OIS#0002</v>
+        <v>GBP_YCRH_MPCOCT12OIS#0000</v>
       </c>
       <c r="M61" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
@@ -13154,7 +13164,7 @@
       </c>
       <c r="L62" s="101" t="str">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCRH_MPCNOV12OIS#0002</v>
+        <v>GBP_YCRH_MPCNOV12OIS#0000</v>
       </c>
       <c r="M62" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
